--- a/RMS.xlsx
+++ b/RMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A3ADF-77AF-47CF-AC97-A09CA04AE3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFC0847-5821-46EA-ACF8-15BA1A3849E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="2" xr2:uid="{741B4546-CE17-46BE-B44E-AD9A2227116F}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{741B4546-CE17-46BE-B44E-AD9A2227116F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N52" authorId="0" shapeId="0" xr:uid="{D3D99A64-EF33-466A-B9AF-ACAD3542991D}">
+    <comment ref="O52" authorId="0" shapeId="0" xr:uid="{D3D99A64-EF33-466A-B9AF-ACAD3542991D}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O52" authorId="0" shapeId="0" xr:uid="{04A3E990-FD1E-4A78-ADA3-CF71886A5907}">
+    <comment ref="P52" authorId="0" shapeId="0" xr:uid="{04A3E990-FD1E-4A78-ADA3-CF71886A5907}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="373">
   <si>
     <t>Main</t>
   </si>
@@ -1258,6 +1258,12 @@
   </si>
   <si>
     <t>Other Products Growth</t>
+  </si>
+  <si>
+    <t>H125</t>
+  </si>
+  <si>
+    <t>H225</t>
   </si>
 </sst>
 </file>
@@ -1748,6 +1754,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1766,8 +1774,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2351,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5611CB-4939-4284-BB55-E8E105429665}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="26">
-        <v>2344</v>
+        <v>2078</v>
       </c>
       <c r="L2" s="12"/>
     </row>
@@ -2386,10 +2392,10 @@
         <v>144</v>
       </c>
       <c r="K3" s="26">
-        <v>104.8</v>
+        <v>104.83617099999999</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2401,7 +2407,7 @@
       </c>
       <c r="K4" s="27">
         <f>K2*K3</f>
-        <v>245651.19999999998</v>
+        <v>217849.56333799998</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2412,10 +2418,10 @@
         <v>3</v>
       </c>
       <c r="K5" s="27">
-        <v>11642</v>
+        <v>10321</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2423,11 +2429,11 @@
         <v>4</v>
       </c>
       <c r="K6" s="27">
-        <f>61+0</f>
-        <v>61</v>
+        <f>2+30</f>
+        <v>32</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2449,7 +2455,7 @@
       </c>
       <c r="K7" s="27">
         <f>K4-K5+K6</f>
-        <v>234070.19999999998</v>
+        <v>207560.56333799998</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2747,13 +2753,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA309D6-3A4F-4395-8AED-64E48B77494B}">
-  <dimension ref="A1:XFD211"/>
+  <dimension ref="A1:BA211"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,12 +2768,12 @@
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="20" t="s">
         <v>135</v>
@@ -2781,228 +2787,263 @@
       <c r="F2" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="E3" s="27">
+        <v>680</v>
+      </c>
       <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="G3" s="27">
+        <v>740</v>
+      </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="27">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27">
         <v>802.2</v>
       </c>
-      <c r="J3" s="27">
+      <c r="K3" s="27">
         <v>867.3</v>
       </c>
-      <c r="K3" s="27">
+      <c r="L3" s="27">
         <v>619.6</v>
       </c>
-      <c r="L3" s="27">
+      <c r="M3" s="27">
         <v>838</v>
       </c>
-      <c r="M3" s="27">
+      <c r="N3" s="27">
         <v>1064</v>
       </c>
-      <c r="N3" s="27">
+      <c r="O3" s="27">
         <v>1274</v>
       </c>
-      <c r="O3" s="27">
+      <c r="P3" s="27">
         <v>1447</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="27">
+        <v>970</v>
+      </c>
       <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="27">
+        <v>1088</v>
+      </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="27">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27">
         <v>1106.5</v>
       </c>
-      <c r="J4" s="27">
+      <c r="K4" s="27">
         <v>1201.9000000000001</v>
       </c>
-      <c r="K4" s="27">
+      <c r="L4" s="27">
         <v>953.4</v>
       </c>
-      <c r="L4" s="27">
+      <c r="M4" s="27">
         <v>1393</v>
       </c>
-      <c r="M4" s="27">
+      <c r="N4" s="27">
         <v>1536</v>
       </c>
-      <c r="N4" s="27">
+      <c r="O4" s="27">
         <v>1818</v>
       </c>
-      <c r="O4" s="27">
+      <c r="P4" s="27">
         <v>2147</v>
       </c>
-      <c r="P4" s="27"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="Q4" s="27"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="27">
+        <v>693</v>
+      </c>
       <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="G5" s="27">
+        <v>815</v>
+      </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="27">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27">
         <v>748.3</v>
       </c>
-      <c r="J5" s="27">
+      <c r="K5" s="27">
         <v>846</v>
       </c>
-      <c r="K5" s="27">
+      <c r="L5" s="27">
         <v>833.9</v>
       </c>
-      <c r="L5" s="27">
+      <c r="M5" s="27">
         <v>877</v>
       </c>
-      <c r="M5" s="27">
+      <c r="N5" s="27">
         <v>1101</v>
       </c>
-      <c r="N5" s="27">
+      <c r="O5" s="27">
         <v>1269</v>
       </c>
-      <c r="O5" s="27">
+      <c r="P5" s="27">
         <v>1437</v>
       </c>
-      <c r="P5" s="27"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="Q5" s="27"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>153</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="E6" s="27">
+        <v>3521</v>
+      </c>
       <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="G6" s="27">
+        <v>3574</v>
+      </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="27">
+      <c r="I6" s="27"/>
+      <c r="J6" s="27">
         <v>2142.4</v>
       </c>
-      <c r="J6" s="27">
+      <c r="K6" s="27">
         <v>2589.6</v>
       </c>
-      <c r="K6" s="27">
+      <c r="L6" s="27">
         <v>2915.4</v>
       </c>
-      <c r="L6" s="27">
+      <c r="M6" s="27">
         <v>4251</v>
       </c>
-      <c r="M6" s="27">
+      <c r="N6" s="27">
         <v>5556</v>
       </c>
-      <c r="N6" s="27">
+      <c r="O6" s="27">
         <v>6273</v>
       </c>
-      <c r="O6" s="27">
+      <c r="P6" s="27">
         <v>6648</v>
       </c>
-      <c r="P6" s="27"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>154</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="27">
+        <v>1329</v>
+      </c>
       <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="27">
+        <v>1455</v>
+      </c>
       <c r="H7" s="27"/>
-      <c r="I7" s="27">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27">
         <v>1058.5999999999999</v>
       </c>
-      <c r="J7" s="27">
+      <c r="K7" s="27">
         <v>1240.7</v>
       </c>
-      <c r="K7" s="27">
+      <c r="L7" s="27">
         <v>959</v>
       </c>
-      <c r="L7" s="27">
+      <c r="M7" s="27">
         <v>1458</v>
       </c>
-      <c r="M7" s="27">
+      <c r="N7" s="27">
         <v>2138</v>
       </c>
-      <c r="N7" s="27">
+      <c r="O7" s="27">
         <v>2592</v>
       </c>
-      <c r="O7" s="27">
+      <c r="P7" s="27">
         <v>2865</v>
       </c>
-      <c r="P7" s="27"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="Q7" s="27"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>155</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="27">
+        <v>311</v>
+      </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="27">
+        <v>362</v>
+      </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="27">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27">
         <v>108.1</v>
       </c>
-      <c r="J8" s="27">
+      <c r="K8" s="27">
         <v>120</v>
       </c>
-      <c r="K8" s="27">
+      <c r="L8" s="27">
         <v>108.2</v>
       </c>
-      <c r="L8" s="27">
+      <c r="M8" s="27">
         <v>156</v>
       </c>
-      <c r="M8" s="27">
+      <c r="N8" s="27">
         <v>207</v>
       </c>
-      <c r="N8" s="27">
+      <c r="O8" s="27">
         <v>299</v>
       </c>
-      <c r="O8" s="27">
+      <c r="P8" s="27">
         <v>627</v>
       </c>
-      <c r="P8" s="27"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="Q8" s="27"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -3010,40 +3051,42 @@
         <v>2780</v>
       </c>
       <c r="D9" s="27">
-        <f>N9-C9</f>
+        <f>O9-C9</f>
         <v>2767</v>
       </c>
       <c r="E9" s="27">
         <v>3215</v>
       </c>
       <c r="F9" s="27">
-        <f>+O9-E9</f>
+        <f>+P9-E9</f>
         <v>3242</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="27">
+        <v>3578</v>
+      </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="27">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27">
         <v>2976</v>
       </c>
-      <c r="J9" s="27">
+      <c r="K9" s="27">
         <v>3414</v>
       </c>
-      <c r="K9" s="27">
+      <c r="L9" s="27">
         <v>3209</v>
       </c>
-      <c r="L9" s="27">
+      <c r="M9" s="27">
         <v>4091</v>
       </c>
-      <c r="M9" s="27">
+      <c r="N9" s="27">
         <v>4963</v>
       </c>
-      <c r="N9" s="27">
+      <c r="O9" s="27">
         <v>5547</v>
       </c>
-      <c r="O9" s="27">
+      <c r="P9" s="27">
         <v>6457</v>
       </c>
-      <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
@@ -3080,8 +3123,9 @@
       <c r="AX9" s="27"/>
       <c r="AY9" s="27"/>
       <c r="AZ9" s="27"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA9" s="27"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -3089,40 +3133,42 @@
         <v>1922</v>
       </c>
       <c r="D10" s="27">
-        <f t="shared" ref="D10:D29" si="0">N10-C10</f>
+        <f t="shared" ref="D10:D29" si="0">O10-C10</f>
         <v>1957</v>
       </c>
       <c r="E10" s="27">
         <v>2162</v>
       </c>
       <c r="F10" s="27">
-        <f t="shared" ref="F10:F15" si="1">+O10-E10</f>
+        <f t="shared" ref="F10:F15" si="1">+P10-E10</f>
         <v>2243</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="27">
+        <v>2255</v>
+      </c>
       <c r="H10" s="27"/>
-      <c r="I10" s="27">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27">
         <v>1310</v>
       </c>
-      <c r="J10" s="27">
+      <c r="K10" s="27">
         <v>1574</v>
       </c>
-      <c r="K10" s="27">
+      <c r="L10" s="27">
         <v>1409</v>
       </c>
-      <c r="L10" s="27">
+      <c r="M10" s="27">
         <v>2219</v>
       </c>
-      <c r="M10" s="27">
+      <c r="N10" s="27">
         <v>3152</v>
       </c>
-      <c r="N10" s="27">
+      <c r="O10" s="27">
         <v>3879</v>
       </c>
-      <c r="O10" s="27">
+      <c r="P10" s="27">
         <v>4405</v>
       </c>
-      <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
       <c r="S10" s="27"/>
@@ -3159,8 +3205,9 @@
       <c r="AX10" s="27"/>
       <c r="AY10" s="27"/>
       <c r="AZ10" s="27"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA10" s="27"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -3178,30 +3225,32 @@
         <f t="shared" si="1"/>
         <v>514</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="27">
+        <v>447</v>
+      </c>
       <c r="H11" s="27"/>
-      <c r="I11" s="27">
+      <c r="I11" s="27"/>
+      <c r="J11" s="27">
         <v>537</v>
       </c>
-      <c r="J11" s="27">
+      <c r="K11" s="27">
         <v>592</v>
       </c>
-      <c r="K11" s="27">
+      <c r="L11" s="27">
         <v>452</v>
       </c>
-      <c r="L11" s="27">
+      <c r="M11" s="27">
         <v>669</v>
       </c>
-      <c r="M11" s="27">
+      <c r="N11" s="27">
         <v>842</v>
       </c>
-      <c r="N11" s="27">
+      <c r="O11" s="27">
         <v>932</v>
       </c>
-      <c r="O11" s="27">
+      <c r="P11" s="27">
         <v>950</v>
       </c>
-      <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
       <c r="S11" s="27"/>
@@ -3238,8 +3287,9 @@
       <c r="AX11" s="27"/>
       <c r="AY11" s="27"/>
       <c r="AZ11" s="27"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA11" s="27"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -3257,30 +3307,32 @@
         <f t="shared" si="1"/>
         <v>942</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="27">
+        <v>1056</v>
+      </c>
       <c r="H12" s="27"/>
-      <c r="I12" s="27">
+      <c r="I12" s="27"/>
+      <c r="J12" s="27">
         <v>425</v>
       </c>
-      <c r="J12" s="27">
+      <c r="K12" s="27">
         <v>525</v>
       </c>
-      <c r="K12" s="27">
+      <c r="L12" s="27">
         <v>643</v>
       </c>
-      <c r="L12" s="27">
+      <c r="M12" s="27">
         <v>1001</v>
       </c>
-      <c r="M12" s="27">
+      <c r="N12" s="27">
         <v>1371</v>
       </c>
-      <c r="N12" s="27">
+      <c r="O12" s="27">
         <v>1653</v>
       </c>
-      <c r="O12" s="27">
+      <c r="P12" s="27">
         <v>1909</v>
       </c>
-      <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
       <c r="S12" s="27"/>
@@ -3317,8 +3369,9 @@
       <c r="AX12" s="27"/>
       <c r="AY12" s="27"/>
       <c r="AZ12" s="27"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA12" s="27"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -3336,30 +3389,32 @@
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="27">
+        <v>248</v>
+      </c>
       <c r="H13" s="27"/>
-      <c r="I13" s="27">
+      <c r="I13" s="27"/>
+      <c r="J13" s="27">
         <v>312</v>
       </c>
-      <c r="J13" s="27">
+      <c r="K13" s="27">
         <v>326</v>
       </c>
-      <c r="K13" s="27">
+      <c r="L13" s="27">
         <v>263</v>
       </c>
-      <c r="L13" s="27">
+      <c r="M13" s="27">
         <v>385</v>
       </c>
-      <c r="M13" s="27">
+      <c r="N13" s="27">
         <v>448</v>
       </c>
-      <c r="N13" s="27">
+      <c r="O13" s="27">
         <v>492</v>
       </c>
-      <c r="O13" s="27">
+      <c r="P13" s="27">
         <v>535</v>
       </c>
-      <c r="P13" s="27"/>
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
@@ -3396,8 +3451,9 @@
       <c r="AX13" s="27"/>
       <c r="AY13" s="27"/>
       <c r="AZ13" s="27"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA13" s="27"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -3415,30 +3471,32 @@
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="27">
+        <v>281</v>
+      </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="27">
+      <c r="I14" s="27"/>
+      <c r="J14" s="27">
         <v>169</v>
       </c>
-      <c r="J14" s="27">
+      <c r="K14" s="27">
         <v>193</v>
       </c>
-      <c r="K14" s="27">
+      <c r="L14" s="27">
         <v>196</v>
       </c>
-      <c r="L14" s="27">
+      <c r="M14" s="27">
         <v>337</v>
       </c>
-      <c r="M14" s="27">
+      <c r="N14" s="27">
         <v>519</v>
       </c>
-      <c r="N14" s="27">
+      <c r="O14" s="27">
         <v>611</v>
       </c>
-      <c r="O14" s="27">
+      <c r="P14" s="27">
         <v>577</v>
       </c>
-      <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
@@ -3475,8 +3533,9 @@
       <c r="AX14" s="27"/>
       <c r="AY14" s="27"/>
       <c r="AZ14" s="27"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA14" s="27"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -3494,30 +3553,32 @@
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="27">
+        <v>168</v>
+      </c>
       <c r="H15" s="27"/>
-      <c r="I15" s="27">
+      <c r="I15" s="27"/>
+      <c r="J15" s="27">
         <v>238</v>
       </c>
-      <c r="J15" s="27">
+      <c r="K15" s="27">
         <v>258</v>
       </c>
-      <c r="K15" s="27">
+      <c r="L15" s="27">
         <v>218</v>
       </c>
-      <c r="L15" s="27">
+      <c r="M15" s="27">
         <v>279</v>
       </c>
-      <c r="M15" s="27">
+      <c r="N15" s="27">
         <v>306</v>
       </c>
-      <c r="N15" s="27">
+      <c r="O15" s="27">
         <v>313</v>
       </c>
-      <c r="O15" s="27">
+      <c r="P15" s="27">
         <v>337</v>
       </c>
-      <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
       <c r="S15" s="27"/>
@@ -3554,8 +3615,9 @@
       <c r="AX15" s="27"/>
       <c r="AY15" s="27"/>
       <c r="AZ15" s="27"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA15" s="27"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -3575,30 +3637,32 @@
         <f>SUM(F9:F15)</f>
         <v>7666</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="28">
+        <v>8034</v>
+      </c>
       <c r="H16" s="28"/>
-      <c r="I16" s="28">
+      <c r="I16" s="28"/>
+      <c r="J16" s="28">
         <v>5966.1</v>
       </c>
-      <c r="J16" s="28">
+      <c r="K16" s="28">
         <v>6883.4</v>
       </c>
-      <c r="K16" s="28">
+      <c r="L16" s="28">
         <v>6389</v>
       </c>
-      <c r="L16" s="28">
+      <c r="M16" s="28">
         <v>8982</v>
       </c>
-      <c r="M16" s="28">
+      <c r="N16" s="28">
         <v>11602</v>
       </c>
-      <c r="N16" s="28">
+      <c r="O16" s="28">
         <v>13427</v>
       </c>
-      <c r="O16" s="28">
+      <c r="P16" s="28">
         <v>15170</v>
       </c>
-      <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
       <c r="S16" s="27"/>
@@ -3635,8 +3699,9 @@
       <c r="AX16" s="27"/>
       <c r="AY16" s="27"/>
       <c r="AZ16" s="27"/>
-    </row>
-    <row r="17" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA16" s="27"/>
+    </row>
+    <row r="17" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3651,33 +3716,35 @@
         <v>2206</v>
       </c>
       <c r="F17" s="27">
-        <f>+O17-E17</f>
+        <f>+P17-E17</f>
         <v>2305</v>
       </c>
-      <c r="G17" s="27"/>
+      <c r="G17" s="27">
+        <v>2356</v>
+      </c>
       <c r="H17" s="27"/>
-      <c r="I17" s="27">
+      <c r="I17" s="27"/>
+      <c r="J17" s="27">
         <v>1791.8</v>
       </c>
-      <c r="J17" s="27">
+      <c r="K17" s="27">
         <v>2124.9</v>
       </c>
-      <c r="K17" s="27">
+      <c r="L17" s="27">
         <v>2013</v>
       </c>
-      <c r="L17" s="27">
+      <c r="M17" s="27">
         <v>2580</v>
       </c>
-      <c r="M17" s="27">
+      <c r="N17" s="27">
         <v>3389</v>
       </c>
-      <c r="N17" s="27">
+      <c r="O17" s="27">
         <v>3719</v>
       </c>
-      <c r="O17" s="27">
+      <c r="P17" s="27">
         <v>4511</v>
       </c>
-      <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
@@ -3714,13 +3781,14 @@
       <c r="AX17" s="27"/>
       <c r="AY17" s="27"/>
       <c r="AZ17" s="27"/>
-    </row>
-    <row r="18" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA17" s="27"/>
+    </row>
+    <row r="18" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="27">
-        <f t="shared" ref="C18:F18" si="3">C16-C17</f>
+        <f t="shared" ref="C18:G18" si="3">C16-C17</f>
         <v>4835</v>
       </c>
       <c r="D18" s="27">
@@ -3735,37 +3803,40 @@
         <f t="shared" si="3"/>
         <v>5361</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="27">
+        <f t="shared" si="3"/>
+        <v>5678</v>
+      </c>
       <c r="H18" s="27"/>
-      <c r="I18" s="27">
-        <f t="shared" ref="I18:M18" si="4">I16-I17</f>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27">
+        <f t="shared" ref="J18:N18" si="4">J16-J17</f>
         <v>4174.3</v>
       </c>
-      <c r="J18" s="27">
+      <c r="K18" s="27">
         <f t="shared" si="4"/>
         <v>4758.5</v>
       </c>
-      <c r="K18" s="27">
+      <c r="L18" s="27">
         <f t="shared" si="4"/>
         <v>4376</v>
       </c>
-      <c r="L18" s="27">
+      <c r="M18" s="27">
         <f t="shared" si="4"/>
         <v>6402</v>
       </c>
-      <c r="M18" s="27">
+      <c r="N18" s="27">
         <f t="shared" si="4"/>
         <v>8213</v>
       </c>
-      <c r="N18" s="27">
-        <f>N16-N17</f>
-        <v>9708</v>
-      </c>
       <c r="O18" s="27">
         <f>O16-O17</f>
+        <v>9708</v>
+      </c>
+      <c r="P18" s="27">
+        <f>P16-P17</f>
         <v>10659</v>
       </c>
-      <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="27"/>
@@ -3802,8 +3873,9 @@
       <c r="AX18" s="27"/>
       <c r="AY18" s="27"/>
       <c r="AZ18" s="27"/>
-    </row>
-    <row r="19" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA18" s="27"/>
+    </row>
+    <row r="19" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -3818,33 +3890,35 @@
         <v>1682</v>
       </c>
       <c r="F19" s="27">
-        <f>+O19-E19</f>
+        <f>+P19-E19</f>
         <v>1887</v>
       </c>
-      <c r="G19" s="27"/>
+      <c r="G19" s="27">
+        <v>1832</v>
+      </c>
       <c r="H19" s="27"/>
-      <c r="I19" s="27">
+      <c r="I19" s="27"/>
+      <c r="J19" s="27">
         <v>1562.3</v>
       </c>
-      <c r="J19" s="27">
+      <c r="K19" s="27">
         <v>1815.7</v>
       </c>
-      <c r="K19" s="27">
+      <c r="L19" s="27">
         <v>1699</v>
       </c>
-      <c r="L19" s="27">
+      <c r="M19" s="27">
         <v>2137</v>
       </c>
-      <c r="M19" s="27">
+      <c r="N19" s="27">
         <v>2680</v>
       </c>
-      <c r="N19" s="27">
+      <c r="O19" s="27">
         <v>3169</v>
       </c>
-      <c r="O19" s="27">
+      <c r="P19" s="27">
         <v>3569</v>
       </c>
-      <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
@@ -3881,8 +3955,9 @@
       <c r="AX19" s="27"/>
       <c r="AY19" s="27"/>
       <c r="AZ19" s="27"/>
-    </row>
-    <row r="20" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA19" s="27"/>
+    </row>
+    <row r="20" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -3897,33 +3972,35 @@
         <v>467</v>
       </c>
       <c r="F20" s="27">
-        <f>+O20-E20</f>
+        <f>+P20-E20</f>
         <v>475</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="27">
+        <v>519</v>
+      </c>
       <c r="H20" s="27"/>
-      <c r="I20" s="27">
+      <c r="I20" s="27"/>
+      <c r="J20" s="27">
         <v>536.70000000000005</v>
       </c>
-      <c r="J20" s="27">
+      <c r="K20" s="27">
         <v>604</v>
       </c>
-      <c r="K20" s="27">
+      <c r="L20" s="27">
         <v>696</v>
       </c>
-      <c r="L20" s="27">
+      <c r="M20" s="27">
         <v>734</v>
       </c>
-      <c r="M20" s="27">
+      <c r="N20" s="27">
         <v>836</v>
       </c>
-      <c r="N20" s="27">
+      <c r="O20" s="27">
         <v>889</v>
       </c>
-      <c r="O20" s="27">
+      <c r="P20" s="27">
         <v>942</v>
       </c>
-      <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
@@ -3960,8 +4037,9 @@
       <c r="AX20" s="27"/>
       <c r="AY20" s="27"/>
       <c r="AZ20" s="27"/>
-    </row>
-    <row r="21" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA20" s="27"/>
+    </row>
+    <row r="21" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -3981,37 +4059,40 @@
         <f>F18-F19-F20</f>
         <v>2999</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="27">
+        <f>G18-G19-G20</f>
+        <v>3327</v>
+      </c>
       <c r="H21" s="27"/>
-      <c r="I21" s="27">
-        <f t="shared" ref="I21:M21" si="5">I18-I19-I20</f>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27">
+        <f t="shared" ref="J21:N21" si="5">J18-J19-J20</f>
         <v>2075.3000000000002</v>
       </c>
-      <c r="J21" s="27">
+      <c r="K21" s="27">
         <f t="shared" si="5"/>
         <v>2338.8000000000002</v>
       </c>
-      <c r="K21" s="27">
+      <c r="L21" s="27">
         <f t="shared" si="5"/>
         <v>1981</v>
       </c>
-      <c r="L21" s="27">
-        <f>L18-L19-L20-1</f>
+      <c r="M21" s="27">
+        <f>M18-M19-M20-1</f>
         <v>3530</v>
       </c>
-      <c r="M21" s="27">
+      <c r="N21" s="27">
         <f t="shared" si="5"/>
         <v>4697</v>
       </c>
-      <c r="N21" s="27">
-        <f>N18-N19-N20</f>
-        <v>5650</v>
-      </c>
       <c r="O21" s="27">
         <f>O18-O19-O20</f>
+        <v>5650</v>
+      </c>
+      <c r="P21" s="27">
+        <f>P18-P19-P20</f>
         <v>6148</v>
       </c>
-      <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
@@ -4048,9 +4129,9 @@
       <c r="AX21" s="27"/>
       <c r="AY21" s="27"/>
       <c r="AZ21" s="27"/>
-      <c r="XFD21" s="27"/>
-    </row>
-    <row r="22" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA21" s="27"/>
+    </row>
+    <row r="22" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -4065,22 +4146,22 @@
         <v>0</v>
       </c>
       <c r="F22" s="27">
-        <f>+O22-E22</f>
+        <f>+P22-E22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="27">
+        <v>0</v>
+      </c>
       <c r="H22" s="27"/>
-      <c r="I22" s="27">
+      <c r="I22" s="27"/>
+      <c r="J22" s="27">
         <v>52.7</v>
       </c>
-      <c r="J22" s="27">
+      <c r="K22" s="27">
         <v>0</v>
       </c>
-      <c r="K22" s="27">
+      <c r="L22" s="27">
         <v>91</v>
-      </c>
-      <c r="L22" s="27">
-        <v>0</v>
       </c>
       <c r="M22" s="27">
         <v>0</v>
@@ -4091,7 +4172,9 @@
       <c r="O22" s="27">
         <v>0</v>
       </c>
-      <c r="P22" s="27"/>
+      <c r="P22" s="27">
+        <v>0</v>
+      </c>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
@@ -4128,13 +4211,14 @@
       <c r="AX22" s="27"/>
       <c r="AY22" s="27"/>
       <c r="AZ22" s="27"/>
-    </row>
-    <row r="23" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA22" s="27"/>
+    </row>
+    <row r="23" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="27">
-        <f t="shared" ref="C23:F23" si="6">C21+C22</f>
+        <f t="shared" ref="C23:G23" si="6">C21+C22</f>
         <v>2947</v>
       </c>
       <c r="D23" s="27">
@@ -4149,37 +4233,40 @@
         <f t="shared" si="6"/>
         <v>2999</v>
       </c>
-      <c r="G23" s="27"/>
+      <c r="G23" s="27">
+        <f t="shared" si="6"/>
+        <v>3327</v>
+      </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="27">
-        <f>I21+I22</f>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27">
+        <f>J21+J22</f>
         <v>2128</v>
       </c>
-      <c r="J23" s="27">
-        <f>J21+J22+0.1</f>
+      <c r="K23" s="27">
+        <f>K21+K22+0.1</f>
         <v>2338.9</v>
       </c>
-      <c r="K23" s="27">
-        <f>K21+K22+1</f>
+      <c r="L23" s="27">
+        <f>L21+L22+1</f>
         <v>2073</v>
-      </c>
-      <c r="L23" s="27">
-        <f>L21+L22</f>
-        <v>3530</v>
       </c>
       <c r="M23" s="27">
         <f>M21+M22</f>
-        <v>4697</v>
+        <v>3530</v>
       </c>
       <c r="N23" s="27">
         <f>N21+N22</f>
-        <v>5650</v>
+        <v>4697</v>
       </c>
       <c r="O23" s="27">
         <f>O21+O22</f>
+        <v>5650</v>
+      </c>
+      <c r="P23" s="27">
+        <f>P21+P22</f>
         <v>6148</v>
       </c>
-      <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
@@ -4216,8 +4303,9 @@
       <c r="AX23" s="27"/>
       <c r="AY23" s="27"/>
       <c r="AZ23" s="27"/>
-    </row>
-    <row r="24" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA23" s="27"/>
+    </row>
+    <row r="24" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -4232,33 +4320,35 @@
         <v>141</v>
       </c>
       <c r="F24" s="27">
-        <f>+O24-E24</f>
+        <f>+P24-E24</f>
         <v>142</v>
       </c>
-      <c r="G24" s="27"/>
+      <c r="G24" s="27">
+        <v>148</v>
+      </c>
       <c r="H24" s="27"/>
-      <c r="I24" s="27">
+      <c r="I24" s="27"/>
+      <c r="J24" s="27">
         <v>-61.8</v>
       </c>
-      <c r="J24" s="27">
+      <c r="K24" s="27">
         <v>-68.599999999999994</v>
       </c>
-      <c r="K24" s="27">
+      <c r="L24" s="27">
         <v>-86</v>
       </c>
-      <c r="L24" s="27">
+      <c r="M24" s="27">
         <v>-96</v>
       </c>
-      <c r="M24" s="27">
+      <c r="N24" s="27">
         <v>-62</v>
       </c>
-      <c r="N24" s="27">
+      <c r="O24" s="27">
         <v>190</v>
       </c>
-      <c r="O24" s="27">
+      <c r="P24" s="27">
         <v>283</v>
       </c>
-      <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
@@ -4295,13 +4385,14 @@
       <c r="AX24" s="27"/>
       <c r="AY24" s="27"/>
       <c r="AZ24" s="27"/>
-    </row>
-    <row r="25" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA24" s="27"/>
+    </row>
+    <row r="25" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="27">
-        <f t="shared" ref="C25:F25" si="7">C23+C24</f>
+        <f t="shared" ref="C25:G25" si="7">C23+C24</f>
         <v>3022</v>
       </c>
       <c r="D25" s="27">
@@ -4316,37 +4407,40 @@
         <f t="shared" si="7"/>
         <v>3141</v>
       </c>
-      <c r="G25" s="27"/>
+      <c r="G25" s="27">
+        <f t="shared" si="7"/>
+        <v>3475</v>
+      </c>
       <c r="H25" s="27"/>
-      <c r="I25" s="27">
-        <f t="shared" ref="I25:M25" si="8">I23+I24</f>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27">
+        <f t="shared" ref="J25:N25" si="8">J23+J24</f>
         <v>2066.1999999999998</v>
       </c>
-      <c r="J25" s="27">
+      <c r="K25" s="27">
         <f t="shared" si="8"/>
         <v>2270.3000000000002</v>
       </c>
-      <c r="K25" s="27">
+      <c r="L25" s="27">
         <f t="shared" si="8"/>
         <v>1987</v>
       </c>
-      <c r="L25" s="27">
+      <c r="M25" s="27">
         <f t="shared" si="8"/>
         <v>3434</v>
       </c>
-      <c r="M25" s="27">
+      <c r="N25" s="27">
         <f t="shared" si="8"/>
         <v>4635</v>
       </c>
-      <c r="N25" s="27">
-        <f>N23+N24</f>
-        <v>5840</v>
-      </c>
       <c r="O25" s="27">
         <f>O23+O24</f>
+        <v>5840</v>
+      </c>
+      <c r="P25" s="27">
+        <f>P23+P24</f>
         <v>6431</v>
       </c>
-      <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
@@ -4383,8 +4477,9 @@
       <c r="AX25" s="27"/>
       <c r="AY25" s="27"/>
       <c r="AZ25" s="27"/>
-    </row>
-    <row r="26" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA25" s="27"/>
+    </row>
+    <row r="26" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -4399,33 +4494,35 @@
         <v>927</v>
       </c>
       <c r="F26" s="27">
-        <f>+O26-E26</f>
+        <f>+P26-E26</f>
         <v>918</v>
       </c>
-      <c r="G26" s="27"/>
+      <c r="G26" s="27">
+        <v>1230</v>
+      </c>
       <c r="H26" s="27"/>
-      <c r="I26" s="27">
+      <c r="I26" s="27"/>
+      <c r="J26" s="27">
         <v>672.2</v>
       </c>
-      <c r="J26" s="27">
+      <c r="K26" s="27">
         <v>751</v>
       </c>
-      <c r="K26" s="27">
+      <c r="L26" s="27">
         <v>613</v>
       </c>
-      <c r="L26" s="27">
+      <c r="M26" s="27">
         <v>1015</v>
       </c>
-      <c r="M26" s="27">
+      <c r="N26" s="27">
         <v>1305</v>
       </c>
-      <c r="N26" s="27">
+      <c r="O26" s="27">
         <v>1623</v>
       </c>
-      <c r="O26" s="27">
+      <c r="P26" s="27">
         <v>1845</v>
       </c>
-      <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
@@ -4462,8 +4559,9 @@
       <c r="AX26" s="27"/>
       <c r="AY26" s="27"/>
       <c r="AZ26" s="27"/>
-    </row>
-    <row r="27" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA26" s="27"/>
+    </row>
+    <row r="27" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -4478,33 +4576,35 @@
         <v>16</v>
       </c>
       <c r="F27" s="27">
-        <f>+O27-E27</f>
+        <f>+P27-E27</f>
         <v>28</v>
       </c>
-      <c r="G27" s="27"/>
+      <c r="G27" s="27">
+        <v>26</v>
+      </c>
       <c r="H27" s="27"/>
-      <c r="I27" s="27">
+      <c r="I27" s="27"/>
+      <c r="J27" s="27">
         <v>16.600000000000001</v>
       </c>
-      <c r="J27" s="27">
+      <c r="K27" s="27">
         <v>15.9</v>
       </c>
-      <c r="K27" s="27">
+      <c r="L27" s="27">
         <v>16</v>
       </c>
-      <c r="L27" s="27">
+      <c r="M27" s="27">
         <v>34</v>
       </c>
-      <c r="M27" s="27">
+      <c r="N27" s="27">
         <v>50</v>
       </c>
-      <c r="N27" s="27">
+      <c r="O27" s="27">
         <v>105</v>
       </c>
-      <c r="O27" s="27">
+      <c r="P27" s="27">
         <v>44</v>
       </c>
-      <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
@@ -4541,13 +4641,14 @@
       <c r="AX27" s="27"/>
       <c r="AY27" s="27"/>
       <c r="AZ27" s="27"/>
-    </row>
-    <row r="28" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA27" s="27"/>
+    </row>
+    <row r="28" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="27">
-        <f t="shared" ref="C28:F28" si="9">C25-C26+C27</f>
+        <f t="shared" ref="C28:G28" si="9">C25-C26+C27</f>
         <v>2234</v>
       </c>
       <c r="D28" s="27">
@@ -4562,37 +4663,40 @@
         <f t="shared" si="9"/>
         <v>2251</v>
       </c>
-      <c r="G28" s="27"/>
+      <c r="G28" s="27">
+        <f t="shared" si="9"/>
+        <v>2271</v>
+      </c>
       <c r="H28" s="27"/>
-      <c r="I28" s="27">
-        <f t="shared" ref="I28:M28" si="10">I25-I26+I27</f>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27">
+        <f t="shared" ref="J28:N28" si="10">J25-J26+J27</f>
         <v>1410.5999999999997</v>
       </c>
-      <c r="J28" s="27">
-        <f>J25-J26+J27+0.1</f>
+      <c r="K28" s="27">
+        <f>K25-K26+K27+0.1</f>
         <v>1535.3000000000002</v>
       </c>
-      <c r="K28" s="27">
-        <f>K25-K26+K27</f>
+      <c r="L28" s="27">
+        <f>L25-L26+L27</f>
         <v>1390</v>
       </c>
-      <c r="L28" s="27">
-        <f>L25-L26+L27+1</f>
+      <c r="M28" s="27">
+        <f>M25-M26+M27+1</f>
         <v>2454</v>
       </c>
-      <c r="M28" s="27">
+      <c r="N28" s="27">
         <f t="shared" si="10"/>
         <v>3380</v>
       </c>
-      <c r="N28" s="27">
-        <f>N25-N26+N27</f>
-        <v>4322</v>
-      </c>
       <c r="O28" s="27">
         <f>O25-O26+O27</f>
+        <v>4322</v>
+      </c>
+      <c r="P28" s="27">
+        <f>P25-P26+P27</f>
         <v>4630</v>
       </c>
-      <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
@@ -4629,8 +4733,9 @@
       <c r="AX28" s="27"/>
       <c r="AY28" s="27"/>
       <c r="AZ28" s="27"/>
-    </row>
-    <row r="29" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA28" s="27"/>
+    </row>
+    <row r="29" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -4645,33 +4750,35 @@
         <v>-10</v>
       </c>
       <c r="F29" s="27">
-        <f>+O29-E29</f>
+        <f>+P29-E29</f>
         <v>-18</v>
       </c>
-      <c r="G29" s="27"/>
+      <c r="G29" s="27">
+        <v>-25</v>
+      </c>
       <c r="H29" s="27"/>
-      <c r="I29" s="27">
+      <c r="I29" s="27"/>
+      <c r="J29" s="27">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="J29" s="27">
+      <c r="K29" s="27">
         <v>-7</v>
       </c>
-      <c r="K29" s="27">
+      <c r="L29" s="27">
         <v>-4</v>
       </c>
-      <c r="L29" s="27">
+      <c r="M29" s="27">
         <v>-8</v>
       </c>
-      <c r="M29" s="27">
+      <c r="N29" s="27">
         <v>-13</v>
       </c>
-      <c r="N29" s="27">
+      <c r="O29" s="27">
         <v>-11</v>
       </c>
-      <c r="O29" s="27">
+      <c r="P29" s="27">
         <v>-28</v>
       </c>
-      <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
@@ -4708,13 +4815,14 @@
       <c r="AX29" s="27"/>
       <c r="AY29" s="27"/>
       <c r="AZ29" s="27"/>
-    </row>
-    <row r="30" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA29" s="27"/>
+    </row>
+    <row r="30" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="27">
-        <f t="shared" ref="C30:F30" si="11">C28+C29</f>
+        <f t="shared" ref="C30:G30" si="11">C28+C29</f>
         <v>2226</v>
       </c>
       <c r="D30" s="27">
@@ -4729,37 +4837,40 @@
         <f t="shared" si="11"/>
         <v>2233</v>
       </c>
-      <c r="G30" s="27"/>
+      <c r="G30" s="27">
+        <f t="shared" si="11"/>
+        <v>2246</v>
+      </c>
       <c r="H30" s="27"/>
-      <c r="I30" s="27">
-        <f t="shared" ref="I30:M30" si="12">I28+I29</f>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27">
+        <f t="shared" ref="J30:N30" si="12">J28+J29</f>
         <v>1405.4999999999998</v>
       </c>
-      <c r="J30" s="27">
-        <f>J28+J29-0.1</f>
+      <c r="K30" s="27">
+        <f>K28+K29-0.1</f>
         <v>1528.2000000000003</v>
-      </c>
-      <c r="K30" s="27">
-        <f>K28+K29-1</f>
-        <v>1385</v>
       </c>
       <c r="L30" s="27">
         <f>L28+L29-1</f>
+        <v>1385</v>
+      </c>
+      <c r="M30" s="27">
+        <f>M28+M29-1</f>
         <v>2445</v>
       </c>
-      <c r="M30" s="27">
+      <c r="N30" s="27">
         <f t="shared" si="12"/>
         <v>3367</v>
       </c>
-      <c r="N30" s="27">
-        <f>N28+N29</f>
-        <v>4311</v>
-      </c>
       <c r="O30" s="27">
         <f>O28+O29</f>
+        <v>4311</v>
+      </c>
+      <c r="P30" s="27">
+        <f>P28+P29</f>
         <v>4602</v>
       </c>
-      <c r="P30" s="27"/>
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
@@ -4796,8 +4907,9 @@
       <c r="AX30" s="27"/>
       <c r="AY30" s="27"/>
       <c r="AZ30" s="27"/>
-    </row>
-    <row r="31" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA30" s="27"/>
+    </row>
+    <row r="31" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -4848,8 +4960,9 @@
       <c r="AX31" s="27"/>
       <c r="AY31" s="27"/>
       <c r="AZ31" s="27"/>
-    </row>
-    <row r="32" spans="2:52 16384:16384" x14ac:dyDescent="0.25">
+      <c r="BA31" s="27"/>
+    </row>
+    <row r="32" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -4866,40 +4979,43 @@
         <v>22.637778186066846</v>
       </c>
       <c r="F32" s="83">
-        <f t="shared" ref="F32" si="16">+F30/F33</f>
+        <f t="shared" ref="F32:G32" si="16">+F30/F33</f>
         <v>21.338184334946082</v>
       </c>
-      <c r="G32" s="83"/>
+      <c r="G32" s="83">
+        <f t="shared" si="16"/>
+        <v>21.423903396853365</v>
+      </c>
       <c r="H32" s="83"/>
-      <c r="I32" s="83">
-        <f t="shared" ref="I32:M32" si="17">+I30/I33</f>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83">
+        <f t="shared" ref="J32:N32" si="17">+J30/J33</f>
         <v>13.484183110774275</v>
       </c>
-      <c r="J32" s="83">
+      <c r="K32" s="83">
         <f t="shared" si="17"/>
         <v>14.6613508572645</v>
       </c>
-      <c r="K32" s="83">
+      <c r="L32" s="83">
         <f t="shared" si="17"/>
         <v>13.262374427338333</v>
       </c>
-      <c r="L32" s="83">
+      <c r="M32" s="83">
         <f t="shared" si="17"/>
         <v>23.369548646559043</v>
       </c>
-      <c r="M32" s="83">
+      <c r="N32" s="83">
         <f t="shared" si="17"/>
         <v>32.20015039679393</v>
       </c>
-      <c r="N32" s="83">
-        <f>+N30/N33</f>
-        <v>41.195213913100119</v>
-      </c>
       <c r="O32" s="83">
         <f>+O30/O33</f>
+        <v>41.195213913100119</v>
+      </c>
+      <c r="P32" s="83">
+        <f>+P30/P33</f>
         <v>43.975962521012931</v>
       </c>
-      <c r="P32" s="27"/>
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
@@ -4936,8 +5052,9 @@
       <c r="AX32" s="27"/>
       <c r="AY32" s="27"/>
       <c r="AZ32" s="27"/>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA32" s="27"/>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -4953,30 +5070,32 @@
       <c r="F33" s="27">
         <v>104.648079</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="26">
+        <v>104.83617099999999</v>
+      </c>
       <c r="H33" s="27"/>
-      <c r="I33" s="27">
-        <v>104.233233</v>
-      </c>
+      <c r="I33" s="27"/>
       <c r="J33" s="27">
         <v>104.233233</v>
       </c>
       <c r="K33" s="27">
+        <v>104.233233</v>
+      </c>
+      <c r="L33" s="27">
         <v>104.430772</v>
       </c>
-      <c r="L33" s="27">
+      <c r="M33" s="27">
         <v>104.62333</v>
       </c>
-      <c r="M33" s="27">
+      <c r="N33" s="27">
         <v>104.564729</v>
-      </c>
-      <c r="N33" s="27">
-        <v>104.648079</v>
       </c>
       <c r="O33" s="27">
         <v>104.648079</v>
       </c>
-      <c r="P33" s="27"/>
+      <c r="P33" s="27">
+        <v>104.648079</v>
+      </c>
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
@@ -5013,8 +5132,9 @@
       <c r="AX33" s="27"/>
       <c r="AY33" s="27"/>
       <c r="AZ33" s="27"/>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA33" s="27"/>
+    </row>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -5065,8 +5185,9 @@
       <c r="AX34" s="27"/>
       <c r="AY34" s="27"/>
       <c r="AZ34" s="27"/>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA34" s="27"/>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>335</v>
       </c>
@@ -5077,31 +5198,31 @@
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="7">
-        <f t="shared" ref="J35:O40" si="18">J3/I3-1</f>
+      <c r="J35" s="27"/>
+      <c r="K35" s="7">
+        <f t="shared" ref="K35:P40" si="18">K3/J3-1</f>
         <v>8.1151832460732765E-2</v>
       </c>
-      <c r="K35" s="7">
+      <c r="L35" s="7">
         <f t="shared" si="18"/>
         <v>-0.28559898535685457</v>
       </c>
-      <c r="L35" s="7">
+      <c r="M35" s="7">
         <f t="shared" si="18"/>
         <v>0.35248547449967726</v>
       </c>
-      <c r="M35" s="7">
+      <c r="N35" s="7">
         <f t="shared" si="18"/>
         <v>0.269689737470167</v>
       </c>
-      <c r="N35" s="7">
+      <c r="O35" s="7">
         <f t="shared" si="18"/>
         <v>0.19736842105263164</v>
       </c>
-      <c r="O35" s="7">
+      <c r="P35" s="7">
         <f t="shared" si="18"/>
         <v>0.13579277864992156</v>
       </c>
-      <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
@@ -5138,8 +5259,9 @@
       <c r="AX35" s="27"/>
       <c r="AY35" s="27"/>
       <c r="AZ35" s="27"/>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA35" s="27"/>
+    </row>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>336</v>
       </c>
@@ -5150,31 +5272,31 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="7">
+      <c r="J36" s="27"/>
+      <c r="K36" s="7">
         <f t="shared" si="18"/>
         <v>8.6217803886127431E-2</v>
       </c>
-      <c r="K36" s="7">
+      <c r="L36" s="7">
         <f t="shared" si="18"/>
         <v>-0.20675596971461863</v>
       </c>
-      <c r="L36" s="7">
+      <c r="M36" s="7">
         <f t="shared" si="18"/>
         <v>0.46108663729809107</v>
       </c>
-      <c r="M36" s="7">
+      <c r="N36" s="7">
         <f t="shared" si="18"/>
         <v>0.10265613783201721</v>
       </c>
-      <c r="N36" s="7">
+      <c r="O36" s="7">
         <f t="shared" si="18"/>
         <v>0.18359375</v>
       </c>
-      <c r="O36" s="7">
+      <c r="P36" s="7">
         <f t="shared" si="18"/>
         <v>0.18096809680968096</v>
       </c>
-      <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
@@ -5211,8 +5333,9 @@
       <c r="AX36" s="27"/>
       <c r="AY36" s="27"/>
       <c r="AZ36" s="27"/>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA36" s="27"/>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>337</v>
       </c>
@@ -5223,31 +5346,31 @@
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="7">
+      <c r="J37" s="27"/>
+      <c r="K37" s="7">
         <f t="shared" si="18"/>
         <v>0.1305626085794469</v>
       </c>
-      <c r="K37" s="7">
+      <c r="L37" s="7">
         <f t="shared" si="18"/>
         <v>-1.4302600472813287E-2</v>
       </c>
-      <c r="L37" s="7">
+      <c r="M37" s="7">
         <f t="shared" si="18"/>
         <v>5.1684854299076655E-2</v>
       </c>
-      <c r="M37" s="7">
+      <c r="N37" s="7">
         <f t="shared" si="18"/>
         <v>0.25541619156214357</v>
       </c>
-      <c r="N37" s="7">
+      <c r="O37" s="7">
         <f t="shared" si="18"/>
         <v>0.15258855585831066</v>
       </c>
-      <c r="O37" s="7">
+      <c r="P37" s="7">
         <f t="shared" si="18"/>
         <v>0.13238770685579193</v>
       </c>
-      <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
@@ -5284,8 +5407,9 @@
       <c r="AX37" s="27"/>
       <c r="AY37" s="27"/>
       <c r="AZ37" s="27"/>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA37" s="27"/>
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>338</v>
       </c>
@@ -5296,31 +5420,31 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="7">
+      <c r="J38" s="27"/>
+      <c r="K38" s="7">
         <f t="shared" si="18"/>
         <v>0.20873786407766981</v>
       </c>
-      <c r="K38" s="7">
+      <c r="L38" s="7">
         <f t="shared" si="18"/>
         <v>0.12581093605189997</v>
       </c>
-      <c r="L38" s="7">
+      <c r="M38" s="7">
         <f t="shared" si="18"/>
         <v>0.45811895451739026</v>
       </c>
-      <c r="M38" s="7">
+      <c r="N38" s="7">
         <f t="shared" si="18"/>
         <v>0.30698659139026119</v>
       </c>
-      <c r="N38" s="7">
+      <c r="O38" s="7">
         <f t="shared" si="18"/>
         <v>0.12904967602591788</v>
       </c>
-      <c r="O38" s="7">
+      <c r="P38" s="7">
         <f t="shared" si="18"/>
         <v>5.9780009564801562E-2</v>
       </c>
-      <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
@@ -5357,8 +5481,9 @@
       <c r="AX38" s="27"/>
       <c r="AY38" s="27"/>
       <c r="AZ38" s="27"/>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA38" s="27"/>
+    </row>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>339</v>
       </c>
@@ -5369,31 +5494,31 @@
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="7">
+      <c r="J39" s="27"/>
+      <c r="K39" s="7">
         <f t="shared" si="18"/>
         <v>0.17201964859248076</v>
       </c>
-      <c r="K39" s="7">
+      <c r="L39" s="7">
         <f t="shared" si="18"/>
         <v>-0.22704924639316515</v>
       </c>
-      <c r="L39" s="7">
+      <c r="M39" s="7">
         <f t="shared" si="18"/>
         <v>0.52033368091762244</v>
       </c>
-      <c r="M39" s="7">
+      <c r="N39" s="7">
         <f t="shared" si="18"/>
         <v>0.46639231824417005</v>
       </c>
-      <c r="N39" s="7">
+      <c r="O39" s="7">
         <f t="shared" si="18"/>
         <v>0.21234798877455563</v>
       </c>
-      <c r="O39" s="7">
+      <c r="P39" s="7">
         <f t="shared" si="18"/>
         <v>0.10532407407407418</v>
       </c>
-      <c r="P39" s="27"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
@@ -5430,8 +5555,9 @@
       <c r="AX39" s="27"/>
       <c r="AY39" s="27"/>
       <c r="AZ39" s="27"/>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA39" s="27"/>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>340</v>
       </c>
@@ -5442,31 +5568,31 @@
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="7">
+      <c r="J40" s="27"/>
+      <c r="K40" s="7">
         <f t="shared" si="18"/>
         <v>0.11008325624421844</v>
       </c>
-      <c r="K40" s="7">
+      <c r="L40" s="7">
         <f t="shared" si="18"/>
         <v>-9.8333333333333273E-2</v>
       </c>
-      <c r="L40" s="7">
+      <c r="M40" s="7">
         <f t="shared" si="18"/>
         <v>0.44177449168207028</v>
       </c>
-      <c r="M40" s="7">
+      <c r="N40" s="7">
         <f t="shared" si="18"/>
         <v>0.32692307692307687</v>
       </c>
-      <c r="N40" s="7">
+      <c r="O40" s="7">
         <f t="shared" si="18"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="O40" s="7">
+      <c r="P40" s="7">
         <f t="shared" si="18"/>
         <v>1.0969899665551841</v>
       </c>
-      <c r="P40" s="27"/>
       <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
       <c r="S40" s="27"/>
@@ -5503,8 +5629,9 @@
       <c r="AX40" s="27"/>
       <c r="AY40" s="27"/>
       <c r="AZ40" s="27"/>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA40" s="27"/>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
         <v>13</v>
@@ -5516,37 +5643,40 @@
         <v>0.15647482014388481</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" ref="F41:F47" si="20">F9/D9-1</f>
+        <f t="shared" ref="F41:G47" si="20">F9/D9-1</f>
         <v>0.17166606432959886</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <f t="shared" si="20"/>
+        <v>0.11290824261275278</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="7">
-        <f t="shared" ref="J41:J47" si="21">J9/I9-1</f>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7">
+        <f t="shared" ref="K41:K47" si="21">K9/J9-1</f>
         <v>0.14717741935483875</v>
       </c>
-      <c r="K41" s="7">
-        <f t="shared" ref="K41:O41" si="22">K9/J9-1</f>
+      <c r="L41" s="7">
+        <f t="shared" ref="L41:P41" si="22">L9/K9-1</f>
         <v>-6.0046865846514308E-2</v>
       </c>
-      <c r="L41" s="7">
+      <c r="M41" s="7">
         <f t="shared" si="22"/>
         <v>0.274851978809598</v>
       </c>
-      <c r="M41" s="7">
+      <c r="N41" s="7">
         <f t="shared" si="22"/>
         <v>0.21315081887069187</v>
       </c>
-      <c r="N41" s="7">
+      <c r="O41" s="7">
         <f t="shared" si="22"/>
         <v>0.11767076365101747</v>
       </c>
-      <c r="O41" s="7">
+      <c r="P41" s="7">
         <f t="shared" si="22"/>
         <v>0.1640526410672436</v>
       </c>
-      <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
@@ -5583,8 +5713,9 @@
       <c r="AX41" s="27"/>
       <c r="AY41" s="27"/>
       <c r="AZ41" s="27"/>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA41" s="27"/>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" t="s">
         <v>14</v>
@@ -5599,34 +5730,37 @@
         <f t="shared" si="20"/>
         <v>0.14614205416453752</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <f t="shared" si="20"/>
+        <v>4.3015726179463476E-2</v>
+      </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="7">
+      <c r="J42" s="7"/>
+      <c r="K42" s="7">
         <f t="shared" si="21"/>
         <v>0.20152671755725193</v>
       </c>
-      <c r="K42" s="7">
-        <f t="shared" ref="K42:O47" si="23">K10/J10-1</f>
+      <c r="L42" s="7">
+        <f t="shared" ref="L42:P47" si="23">L10/K10-1</f>
         <v>-0.10482846251588307</v>
       </c>
-      <c r="L42" s="7">
+      <c r="M42" s="7">
         <f t="shared" si="23"/>
         <v>0.57487579843860903</v>
       </c>
-      <c r="M42" s="7">
+      <c r="N42" s="7">
         <f t="shared" si="23"/>
         <v>0.42045966651644884</v>
       </c>
-      <c r="N42" s="7">
+      <c r="O42" s="7">
         <f t="shared" si="23"/>
         <v>0.23064720812182737</v>
       </c>
-      <c r="O42" s="7">
+      <c r="P42" s="7">
         <f t="shared" si="23"/>
         <v>0.13560195926785257</v>
       </c>
-      <c r="P42" s="27"/>
       <c r="Q42" s="27"/>
       <c r="R42" s="27"/>
       <c r="S42" s="27"/>
@@ -5663,8 +5797,9 @@
       <c r="AX42" s="27"/>
       <c r="AY42" s="27"/>
       <c r="AZ42" s="27"/>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA42" s="27"/>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" t="s">
         <v>15</v>
@@ -5679,34 +5814,37 @@
         <f t="shared" si="20"/>
         <v>5.3278688524590168E-2</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <f t="shared" si="20"/>
+        <v>2.5229357798165042E-2</v>
+      </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="7">
+      <c r="J43" s="7"/>
+      <c r="K43" s="7">
         <f t="shared" si="21"/>
         <v>0.10242085661080069</v>
       </c>
-      <c r="K43" s="7">
+      <c r="L43" s="7">
         <f t="shared" si="23"/>
         <v>-0.23648648648648651</v>
       </c>
-      <c r="L43" s="7">
+      <c r="M43" s="7">
         <f t="shared" si="23"/>
         <v>0.48008849557522115</v>
       </c>
-      <c r="M43" s="7">
+      <c r="N43" s="7">
         <f t="shared" si="23"/>
         <v>0.25859491778774291</v>
       </c>
-      <c r="N43" s="7">
+      <c r="O43" s="7">
         <f t="shared" si="23"/>
         <v>0.10688836104513055</v>
       </c>
-      <c r="O43" s="7">
+      <c r="P43" s="7">
         <f t="shared" si="23"/>
         <v>1.93133047210301E-2</v>
       </c>
-      <c r="P43" s="27"/>
       <c r="Q43" s="27"/>
       <c r="R43" s="27"/>
       <c r="S43" s="27"/>
@@ -5743,8 +5881,9 @@
       <c r="AX43" s="27"/>
       <c r="AY43" s="27"/>
       <c r="AZ43" s="27"/>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA43" s="27"/>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" t="s">
         <v>16</v>
@@ -5759,34 +5898,37 @@
         <f t="shared" si="20"/>
         <v>0.15299877600979195</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <f t="shared" si="20"/>
+        <v>9.203722854188201E-2</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="7">
+      <c r="J44" s="7"/>
+      <c r="K44" s="7">
         <f t="shared" si="21"/>
         <v>0.23529411764705888</v>
       </c>
-      <c r="K44" s="7">
+      <c r="L44" s="7">
         <f t="shared" si="23"/>
         <v>0.22476190476190472</v>
       </c>
-      <c r="L44" s="7">
+      <c r="M44" s="7">
         <f t="shared" si="23"/>
         <v>0.55676516329704517</v>
       </c>
-      <c r="M44" s="7">
+      <c r="N44" s="7">
         <f t="shared" si="23"/>
         <v>0.36963036963036955</v>
       </c>
-      <c r="N44" s="7">
+      <c r="O44" s="7">
         <f t="shared" si="23"/>
         <v>0.20568927789934355</v>
       </c>
-      <c r="O44" s="7">
+      <c r="P44" s="7">
         <f t="shared" si="23"/>
         <v>0.15486993345432554</v>
       </c>
-      <c r="P44" s="27"/>
       <c r="Q44" s="27"/>
       <c r="R44" s="27"/>
       <c r="S44" s="27"/>
@@ -5823,8 +5965,9 @@
       <c r="AX44" s="27"/>
       <c r="AY44" s="27"/>
       <c r="AZ44" s="27"/>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA44" s="27"/>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" t="s">
         <v>17</v>
@@ -5839,34 +5982,37 @@
         <f t="shared" si="20"/>
         <v>0.13580246913580241</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <f t="shared" si="20"/>
+        <v>-4.2471042471042497E-2</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="7">
+      <c r="J45" s="7"/>
+      <c r="K45" s="7">
         <f t="shared" si="21"/>
         <v>4.4871794871794934E-2</v>
       </c>
-      <c r="K45" s="7">
+      <c r="L45" s="7">
         <f t="shared" si="23"/>
         <v>-0.19325153374233128</v>
       </c>
-      <c r="L45" s="7">
+      <c r="M45" s="7">
         <f t="shared" si="23"/>
         <v>0.46387832699619769</v>
       </c>
-      <c r="M45" s="7">
+      <c r="N45" s="7">
         <f t="shared" si="23"/>
         <v>0.16363636363636358</v>
       </c>
-      <c r="N45" s="7">
+      <c r="O45" s="7">
         <f t="shared" si="23"/>
         <v>9.8214285714285809E-2</v>
       </c>
-      <c r="O45" s="7">
+      <c r="P45" s="7">
         <f t="shared" si="23"/>
         <v>8.7398373983739841E-2</v>
       </c>
-      <c r="P45" s="27"/>
       <c r="Q45" s="27"/>
       <c r="R45" s="27"/>
       <c r="S45" s="27"/>
@@ -5903,8 +6049,9 @@
       <c r="AX45" s="27"/>
       <c r="AY45" s="27"/>
       <c r="AZ45" s="27"/>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA45" s="27"/>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
         <v>18</v>
@@ -5919,34 +6066,37 @@
         <f t="shared" si="20"/>
         <v>-8.503401360544216E-2</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <f t="shared" si="20"/>
+        <v>-8.7662337662337664E-2</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="7">
+      <c r="J46" s="7"/>
+      <c r="K46" s="7">
         <f t="shared" si="21"/>
         <v>0.14201183431952669</v>
       </c>
-      <c r="K46" s="7">
+      <c r="L46" s="7">
         <f t="shared" si="23"/>
         <v>1.5544041450777257E-2</v>
       </c>
-      <c r="L46" s="7">
+      <c r="M46" s="7">
         <f t="shared" si="23"/>
         <v>0.71938775510204089</v>
       </c>
-      <c r="M46" s="7">
+      <c r="N46" s="7">
         <f t="shared" si="23"/>
         <v>0.5400593471810089</v>
       </c>
-      <c r="N46" s="7">
+      <c r="O46" s="7">
         <f t="shared" si="23"/>
         <v>0.17726396917148368</v>
       </c>
-      <c r="O46" s="7">
+      <c r="P46" s="7">
         <f t="shared" si="23"/>
         <v>-5.5646481178396101E-2</v>
       </c>
-      <c r="P46" s="27"/>
       <c r="Q46" s="27"/>
       <c r="R46" s="27"/>
       <c r="S46" s="27"/>
@@ -5983,8 +6133,9 @@
       <c r="AX46" s="27"/>
       <c r="AY46" s="27"/>
       <c r="AZ46" s="27"/>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA46" s="27"/>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" t="s">
         <v>19</v>
@@ -5999,34 +6150,37 @@
         <f t="shared" si="20"/>
         <v>0.10429447852760743</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <f t="shared" si="20"/>
+        <v>7.0063694267515908E-2</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="7">
+      <c r="J47" s="7"/>
+      <c r="K47" s="7">
         <f t="shared" si="21"/>
         <v>8.4033613445378075E-2</v>
       </c>
-      <c r="K47" s="7">
+      <c r="L47" s="7">
         <f t="shared" si="23"/>
         <v>-0.15503875968992253</v>
       </c>
-      <c r="L47" s="7">
+      <c r="M47" s="7">
         <f t="shared" si="23"/>
         <v>0.27981651376146788</v>
       </c>
-      <c r="M47" s="7">
+      <c r="N47" s="7">
         <f t="shared" si="23"/>
         <v>9.6774193548387011E-2</v>
       </c>
-      <c r="N47" s="7">
+      <c r="O47" s="7">
         <f t="shared" si="23"/>
         <v>2.2875816993463971E-2</v>
       </c>
-      <c r="O47" s="7">
+      <c r="P47" s="7">
         <f t="shared" si="23"/>
         <v>7.667731629392982E-2</v>
       </c>
-      <c r="P47" s="27"/>
       <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
       <c r="S47" s="27"/>
@@ -6063,49 +6217,53 @@
       <c r="AX47" s="27"/>
       <c r="AY47" s="27"/>
       <c r="AZ47" s="27"/>
-    </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="BA47" s="27"/>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7">
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85">
         <f>E16/C16-1</f>
         <v>0.12033442818751872</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="85">
         <f>F16/D16-1</f>
         <v>0.13924803091098226</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="85">
+        <f>G16/E16-1</f>
+        <v>7.0628997867803855E-2</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="7">
-        <f t="shared" ref="J48:O48" si="24">J16/I16-1</f>
+      <c r="J48" s="7"/>
+      <c r="K48" s="85">
+        <f t="shared" ref="K48:P48" si="24">K16/J16-1</f>
         <v>0.15375203231591805</v>
       </c>
-      <c r="K48" s="7">
+      <c r="L48" s="85">
         <f t="shared" si="24"/>
         <v>-7.1824970218206108E-2</v>
       </c>
-      <c r="L48" s="7">
+      <c r="M48" s="85">
         <f t="shared" si="24"/>
         <v>0.40585381123806541</v>
       </c>
-      <c r="M48" s="7">
+      <c r="N48" s="85">
         <f t="shared" si="24"/>
         <v>0.2916945001113338</v>
       </c>
-      <c r="N48" s="7">
+      <c r="O48" s="85">
         <f t="shared" si="24"/>
         <v>0.15730046543699361</v>
       </c>
-      <c r="O48" s="7">
+      <c r="P48" s="85">
         <f t="shared" si="24"/>
         <v>0.12981306323080366</v>
       </c>
-      <c r="P48" s="27"/>
       <c r="Q48" s="27"/>
       <c r="R48" s="27"/>
       <c r="S48" s="27"/>
@@ -6142,8 +6300,9 @@
       <c r="AX48" s="27"/>
       <c r="AY48" s="27"/>
       <c r="AZ48" s="27"/>
-    </row>
-    <row r="49" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA48" s="27"/>
+    </row>
+    <row r="49" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>39</v>
       </c>
@@ -6160,37 +6319,40 @@
         <f>F18/F16</f>
         <v>0.69932168014609963</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <f>G18/G16</f>
+        <v>0.70674632810555138</v>
+      </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="7">
-        <f t="shared" ref="I49:O49" si="25">I18/I16</f>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7">
+        <f t="shared" ref="J49:P49" si="25">J18/J16</f>
         <v>0.69966980104255705</v>
       </c>
-      <c r="J49" s="7">
+      <c r="K49" s="7">
         <f t="shared" si="25"/>
         <v>0.69130081064590176</v>
       </c>
-      <c r="K49" s="7">
+      <c r="L49" s="7">
         <f t="shared" si="25"/>
         <v>0.68492721865706685</v>
       </c>
-      <c r="L49" s="7">
+      <c r="M49" s="7">
         <f t="shared" si="25"/>
         <v>0.71275885103540415</v>
       </c>
-      <c r="M49" s="7">
+      <c r="N49" s="7">
         <f t="shared" si="25"/>
         <v>0.70789519048439919</v>
       </c>
-      <c r="N49" s="7">
+      <c r="O49" s="7">
         <f t="shared" si="25"/>
         <v>0.72302077902733297</v>
       </c>
-      <c r="O49" s="7">
+      <c r="P49" s="7">
         <f t="shared" si="25"/>
         <v>0.70263678312458799</v>
       </c>
-      <c r="P49" s="27"/>
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
       <c r="S49" s="27"/>
@@ -6227,8 +6389,9 @@
       <c r="AX49" s="27"/>
       <c r="AY49" s="27"/>
       <c r="AZ49" s="27"/>
-    </row>
-    <row r="50" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA49" s="27"/>
+    </row>
+    <row r="50" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>40</v>
       </c>
@@ -6245,37 +6408,40 @@
         <f>F23/F16</f>
         <v>0.39120793112444563</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <f>G23/G16</f>
+        <v>0.41411501120238986</v>
+      </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="7">
-        <f t="shared" ref="I50:O50" si="26">I23/I16</f>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7">
+        <f t="shared" ref="J50:P50" si="26">J23/J16</f>
         <v>0.35668191951190892</v>
       </c>
-      <c r="J50" s="7">
+      <c r="K50" s="7">
         <f t="shared" si="26"/>
         <v>0.33978847662492379</v>
       </c>
-      <c r="K50" s="7">
+      <c r="L50" s="7">
         <f t="shared" si="26"/>
         <v>0.32446392236656751</v>
       </c>
-      <c r="L50" s="7">
+      <c r="M50" s="7">
         <f t="shared" si="26"/>
         <v>0.39300823869962148</v>
       </c>
-      <c r="M50" s="7">
+      <c r="N50" s="7">
         <f t="shared" si="26"/>
         <v>0.40484399241510083</v>
       </c>
-      <c r="N50" s="7">
+      <c r="O50" s="7">
         <f t="shared" si="26"/>
         <v>0.42079392269308108</v>
       </c>
-      <c r="O50" s="7">
+      <c r="P50" s="7">
         <f t="shared" si="26"/>
         <v>0.40527356624917599</v>
       </c>
-      <c r="P50" s="27"/>
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
       <c r="S50" s="27"/>
@@ -6312,8 +6478,9 @@
       <c r="AX50" s="27"/>
       <c r="AY50" s="27"/>
       <c r="AZ50" s="27"/>
-    </row>
-    <row r="51" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA50" s="27"/>
+    </row>
+    <row r="51" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>41</v>
       </c>
@@ -6330,37 +6497,40 @@
         <f>F28/F16</f>
         <v>0.29363422906339681</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <f>G28/G16</f>
+        <v>0.28267363704256909</v>
+      </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="7">
-        <f t="shared" ref="I51:O51" si="27">I28/I16</f>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7">
+        <f t="shared" ref="J51:P51" si="27">J28/J16</f>
         <v>0.23643586262382454</v>
       </c>
-      <c r="J51" s="7">
+      <c r="K51" s="7">
         <f t="shared" si="27"/>
         <v>0.22304384461167451</v>
       </c>
-      <c r="K51" s="7">
+      <c r="L51" s="7">
         <f t="shared" si="27"/>
         <v>0.21756143371419628</v>
       </c>
-      <c r="L51" s="7">
+      <c r="M51" s="7">
         <f t="shared" si="27"/>
         <v>0.27321309285237139</v>
       </c>
-      <c r="M51" s="7">
+      <c r="N51" s="7">
         <f t="shared" si="27"/>
         <v>0.2913290811928978</v>
       </c>
-      <c r="N51" s="7">
+      <c r="O51" s="7">
         <f t="shared" si="27"/>
         <v>0.32188873166008786</v>
       </c>
-      <c r="O51" s="7">
+      <c r="P51" s="7">
         <f t="shared" si="27"/>
         <v>0.30520764667106132</v>
       </c>
-      <c r="P51" s="27"/>
       <c r="Q51" s="27"/>
       <c r="R51" s="27"/>
       <c r="S51" s="27"/>
@@ -6397,8 +6567,9 @@
       <c r="AX51" s="27"/>
       <c r="AY51" s="27"/>
       <c r="AZ51" s="27"/>
-    </row>
-    <row r="52" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA51" s="27"/>
+    </row>
+    <row r="52" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>42</v>
       </c>
@@ -6415,37 +6586,40 @@
         <f>F26/F25</f>
         <v>0.29226361031518627</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7">
+        <f>G26/G25</f>
+        <v>0.35395683453237409</v>
+      </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="7">
-        <f t="shared" ref="I52:O52" si="28">I26/I25</f>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7">
+        <f t="shared" ref="J52:P52" si="28">J26/J25</f>
         <v>0.32533152647371993</v>
       </c>
-      <c r="J52" s="7">
+      <c r="K52" s="7">
         <f t="shared" si="28"/>
         <v>0.3307932872307624</v>
       </c>
-      <c r="K52" s="7">
+      <c r="L52" s="7">
         <f t="shared" si="28"/>
         <v>0.30850528434826369</v>
       </c>
-      <c r="L52" s="7">
+      <c r="M52" s="7">
         <f t="shared" si="28"/>
         <v>0.29557367501456028</v>
       </c>
-      <c r="M52" s="7">
+      <c r="N52" s="7">
         <f t="shared" si="28"/>
         <v>0.28155339805825241</v>
       </c>
-      <c r="N52" s="7">
+      <c r="O52" s="7">
         <f t="shared" si="28"/>
         <v>0.27791095890410961</v>
       </c>
-      <c r="O52" s="7">
+      <c r="P52" s="7">
         <f t="shared" si="28"/>
         <v>0.28689161872181618</v>
       </c>
-      <c r="P52" s="27"/>
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
@@ -6482,8 +6656,9 @@
       <c r="AX52" s="27"/>
       <c r="AY52" s="27"/>
       <c r="AZ52" s="27"/>
-    </row>
-    <row r="53" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA52" s="27"/>
+    </row>
+    <row r="53" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
@@ -6534,8 +6709,9 @@
       <c r="AX53" s="27"/>
       <c r="AY53" s="27"/>
       <c r="AZ53" s="27"/>
-    </row>
-    <row r="54" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA53" s="27"/>
+    </row>
+    <row r="54" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>44</v>
       </c>
@@ -6545,28 +6721,28 @@
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
-      <c r="I54" s="27">
+      <c r="I54" s="27"/>
+      <c r="J54" s="27">
         <v>15.7</v>
       </c>
-      <c r="J54" s="27">
+      <c r="K54" s="27">
         <v>16.2</v>
-      </c>
-      <c r="K54" s="27">
-        <v>42</v>
       </c>
       <c r="L54" s="27">
         <v>42</v>
       </c>
       <c r="M54" s="27">
+        <v>42</v>
+      </c>
+      <c r="N54" s="27">
         <v>0</v>
       </c>
-      <c r="N54" s="27">
+      <c r="O54" s="27">
         <v>72</v>
       </c>
-      <c r="O54" s="27">
+      <c r="P54" s="27">
         <v>228</v>
       </c>
-      <c r="P54" s="27"/>
       <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
       <c r="S54" s="27"/>
@@ -6603,8 +6779,9 @@
       <c r="AX54" s="27"/>
       <c r="AY54" s="27"/>
       <c r="AZ54" s="27"/>
-    </row>
-    <row r="55" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA54" s="27"/>
+    </row>
+    <row r="55" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>45</v>
       </c>
@@ -6614,28 +6791,28 @@
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
-      <c r="I55" s="27">
+      <c r="I55" s="27"/>
+      <c r="J55" s="27">
         <v>142</v>
       </c>
-      <c r="J55" s="27">
+      <c r="K55" s="27">
         <v>184.1</v>
       </c>
-      <c r="K55" s="27">
+      <c r="L55" s="27">
         <v>221</v>
       </c>
-      <c r="L55" s="27">
+      <c r="M55" s="27">
         <v>258</v>
       </c>
-      <c r="M55" s="27">
+      <c r="N55" s="27">
         <v>213</v>
       </c>
-      <c r="N55" s="27">
+      <c r="O55" s="27">
         <v>225</v>
       </c>
-      <c r="O55" s="27">
+      <c r="P55" s="27">
         <v>237</v>
       </c>
-      <c r="P55" s="27"/>
       <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
       <c r="S55" s="27"/>
@@ -6672,8 +6849,9 @@
       <c r="AX55" s="27"/>
       <c r="AY55" s="27"/>
       <c r="AZ55" s="27"/>
-    </row>
-    <row r="56" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA55" s="27"/>
+    </row>
+    <row r="56" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>46</v>
       </c>
@@ -6683,28 +6861,28 @@
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
-      <c r="I56" s="27">
+      <c r="I56" s="27"/>
+      <c r="J56" s="27">
         <v>982.9</v>
       </c>
-      <c r="J56" s="27">
+      <c r="K56" s="27">
         <v>954.3</v>
       </c>
-      <c r="K56" s="27">
+      <c r="L56" s="27">
         <v>1446</v>
       </c>
-      <c r="L56" s="27">
+      <c r="M56" s="27">
         <v>1517</v>
       </c>
-      <c r="M56" s="27">
+      <c r="N56" s="27">
         <v>1582</v>
       </c>
-      <c r="N56" s="27">
+      <c r="O56" s="27">
         <v>1716</v>
       </c>
-      <c r="O56" s="27">
+      <c r="P56" s="27">
         <v>1786</v>
       </c>
-      <c r="P56" s="27"/>
       <c r="Q56" s="27"/>
       <c r="R56" s="27"/>
       <c r="S56" s="27"/>
@@ -6741,8 +6919,9 @@
       <c r="AX56" s="27"/>
       <c r="AY56" s="27"/>
       <c r="AZ56" s="27"/>
-    </row>
-    <row r="57" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA56" s="27"/>
+    </row>
+    <row r="57" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>47</v>
       </c>
@@ -6752,28 +6931,28 @@
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
-      <c r="I57" s="27">
+      <c r="I57" s="27"/>
+      <c r="J57" s="27">
         <v>1345.4</v>
       </c>
-      <c r="J57" s="27">
+      <c r="K57" s="27">
         <v>1541.8</v>
       </c>
-      <c r="K57" s="27">
+      <c r="L57" s="27">
         <v>1646</v>
       </c>
-      <c r="L57" s="27">
+      <c r="M57" s="27">
         <v>1881</v>
       </c>
-      <c r="M57" s="27">
+      <c r="N57" s="27">
         <v>2007</v>
       </c>
-      <c r="N57" s="27">
+      <c r="O57" s="27">
         <v>2340</v>
       </c>
-      <c r="O57" s="27">
+      <c r="P57" s="27">
         <v>2980</v>
       </c>
-      <c r="P57" s="27"/>
       <c r="Q57" s="27"/>
       <c r="R57" s="27"/>
       <c r="S57" s="27"/>
@@ -6810,8 +6989,9 @@
       <c r="AX57" s="27"/>
       <c r="AY57" s="27"/>
       <c r="AZ57" s="27"/>
-    </row>
-    <row r="58" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA57" s="27"/>
+    </row>
+    <row r="58" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>48</v>
       </c>
@@ -6821,28 +7001,28 @@
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
-      <c r="I58" s="27">
+      <c r="I58" s="27"/>
+      <c r="J58" s="27">
         <v>76.900000000000006</v>
       </c>
-      <c r="J58" s="27">
+      <c r="K58" s="27">
         <v>78</v>
       </c>
-      <c r="K58" s="27">
+      <c r="L58" s="27">
         <v>73</v>
       </c>
-      <c r="L58" s="27">
+      <c r="M58" s="27">
         <v>9</v>
       </c>
-      <c r="M58" s="27">
+      <c r="N58" s="27">
         <v>8</v>
       </c>
-      <c r="N58" s="27">
+      <c r="O58" s="27">
         <v>7</v>
       </c>
-      <c r="O58" s="27">
+      <c r="P58" s="27">
         <v>0</v>
       </c>
-      <c r="P58" s="27"/>
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
       <c r="S58" s="27"/>
@@ -6879,8 +7059,9 @@
       <c r="AX58" s="27"/>
       <c r="AY58" s="27"/>
       <c r="AZ58" s="27"/>
-    </row>
-    <row r="59" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA58" s="27"/>
+    </row>
+    <row r="59" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>49</v>
       </c>
@@ -6890,28 +7071,28 @@
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
-      <c r="I59" s="27">
+      <c r="I59" s="27"/>
+      <c r="J59" s="27">
         <v>313.89999999999998</v>
       </c>
-      <c r="J59" s="27">
+      <c r="K59" s="27">
         <v>357.4</v>
       </c>
-      <c r="K59" s="27">
+      <c r="L59" s="27">
         <v>368</v>
       </c>
-      <c r="L59" s="27">
+      <c r="M59" s="27">
         <v>617</v>
       </c>
-      <c r="M59" s="27">
+      <c r="N59" s="27">
         <v>1109</v>
       </c>
-      <c r="N59" s="27">
+      <c r="O59" s="27">
         <v>1141</v>
       </c>
-      <c r="O59" s="27">
+      <c r="P59" s="27">
         <v>1050</v>
       </c>
-      <c r="P59" s="27"/>
       <c r="Q59" s="27"/>
       <c r="R59" s="27"/>
       <c r="S59" s="27"/>
@@ -6948,8 +7129,9 @@
       <c r="AX59" s="27"/>
       <c r="AY59" s="27"/>
       <c r="AZ59" s="27"/>
-    </row>
-    <row r="60" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA59" s="27"/>
+    </row>
+    <row r="60" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>50</v>
       </c>
@@ -6959,28 +7141,28 @@
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
-      <c r="I60" s="27">
+      <c r="I60" s="27"/>
+      <c r="J60" s="27">
         <v>75.099999999999994</v>
       </c>
-      <c r="J60" s="27">
+      <c r="K60" s="27">
         <v>79.3</v>
       </c>
-      <c r="K60" s="27">
+      <c r="L60" s="27">
         <v>49</v>
       </c>
-      <c r="L60" s="27">
+      <c r="M60" s="27">
         <v>51</v>
       </c>
-      <c r="M60" s="27">
+      <c r="N60" s="27">
         <v>54</v>
       </c>
-      <c r="N60" s="27">
+      <c r="O60" s="27">
         <v>200</v>
       </c>
-      <c r="O60" s="27">
+      <c r="P60" s="27">
         <v>238</v>
       </c>
-      <c r="P60" s="27"/>
       <c r="Q60" s="27"/>
       <c r="R60" s="27"/>
       <c r="S60" s="27"/>
@@ -7017,8 +7199,9 @@
       <c r="AX60" s="27"/>
       <c r="AY60" s="27"/>
       <c r="AZ60" s="27"/>
-    </row>
-    <row r="61" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA60" s="27"/>
+    </row>
+    <row r="61" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>51</v>
       </c>
@@ -7028,28 +7211,28 @@
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
-      <c r="I61" s="27">
+      <c r="I61" s="27"/>
+      <c r="J61" s="27">
         <v>46.7</v>
       </c>
-      <c r="J61" s="27">
+      <c r="K61" s="27">
         <v>58.1</v>
       </c>
-      <c r="K61" s="27">
+      <c r="L61" s="27">
         <v>56</v>
       </c>
-      <c r="L61" s="27">
+      <c r="M61" s="27">
         <v>59</v>
       </c>
-      <c r="M61" s="27">
+      <c r="N61" s="27">
         <v>65</v>
       </c>
-      <c r="N61" s="27">
+      <c r="O61" s="27">
         <v>70</v>
       </c>
-      <c r="O61" s="27">
+      <c r="P61" s="27">
         <v>0</v>
       </c>
-      <c r="P61" s="27"/>
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
       <c r="S61" s="27"/>
@@ -7086,8 +7269,9 @@
       <c r="AX61" s="27"/>
       <c r="AY61" s="27"/>
       <c r="AZ61" s="27"/>
-    </row>
-    <row r="62" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA61" s="27"/>
+    </row>
+    <row r="62" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>52</v>
       </c>
@@ -7097,28 +7281,28 @@
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
-      <c r="I62" s="27">
+      <c r="I62" s="27"/>
+      <c r="J62" s="27">
         <v>562.4</v>
       </c>
-      <c r="J62" s="27">
+      <c r="K62" s="27">
         <v>510.8</v>
       </c>
-      <c r="K62" s="27">
+      <c r="L62" s="27">
         <v>475</v>
       </c>
-      <c r="L62" s="27">
+      <c r="M62" s="27">
         <v>546</v>
       </c>
-      <c r="M62" s="27">
+      <c r="N62" s="27">
         <v>555</v>
       </c>
-      <c r="N62" s="27">
+      <c r="O62" s="27">
         <v>631</v>
       </c>
-      <c r="O62" s="27">
+      <c r="P62" s="27">
         <v>929</v>
       </c>
-      <c r="P62" s="27"/>
       <c r="Q62" s="27"/>
       <c r="R62" s="27"/>
       <c r="S62" s="27"/>
@@ -7155,8 +7339,9 @@
       <c r="AX62" s="27"/>
       <c r="AY62" s="27"/>
       <c r="AZ62" s="27"/>
-    </row>
-    <row r="63" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA62" s="27"/>
+    </row>
+    <row r="63" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>53</v>
       </c>
@@ -7166,28 +7351,28 @@
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
-      <c r="I63" s="27">
+      <c r="I63" s="27"/>
+      <c r="J63" s="27">
         <v>15.3</v>
       </c>
-      <c r="J63" s="27">
+      <c r="K63" s="27">
         <v>10.5</v>
       </c>
-      <c r="K63" s="27">
+      <c r="L63" s="27">
         <v>24</v>
       </c>
-      <c r="L63" s="27">
+      <c r="M63" s="27">
         <v>22</v>
       </c>
-      <c r="M63" s="27">
+      <c r="N63" s="27">
         <v>39</v>
       </c>
-      <c r="N63" s="27">
+      <c r="O63" s="27">
         <v>37</v>
       </c>
-      <c r="O63" s="27">
+      <c r="P63" s="27">
         <v>159</v>
       </c>
-      <c r="P63" s="27"/>
       <c r="Q63" s="27"/>
       <c r="R63" s="27"/>
       <c r="S63" s="27"/>
@@ -7224,8 +7409,9 @@
       <c r="AX63" s="27"/>
       <c r="AY63" s="27"/>
       <c r="AZ63" s="27"/>
-    </row>
-    <row r="64" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA63" s="27"/>
+    </row>
+    <row r="64" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>54</v>
       </c>
@@ -7235,35 +7421,35 @@
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
-      <c r="I64" s="27">
-        <f t="shared" ref="I64:N64" si="29">SUM(I54:I63)</f>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27">
+        <f t="shared" ref="J64:O64" si="29">SUM(J54:J63)</f>
         <v>3576.3</v>
       </c>
-      <c r="J64" s="27">
+      <c r="K64" s="27">
         <f t="shared" si="29"/>
         <v>3790.5</v>
       </c>
-      <c r="K64" s="27">
+      <c r="L64" s="27">
         <f t="shared" si="29"/>
         <v>4400</v>
       </c>
-      <c r="L64" s="27">
+      <c r="M64" s="27">
         <f t="shared" si="29"/>
         <v>5002</v>
       </c>
-      <c r="M64" s="27">
+      <c r="N64" s="27">
         <f t="shared" si="29"/>
         <v>5632</v>
       </c>
-      <c r="N64" s="27">
+      <c r="O64" s="27">
         <f t="shared" si="29"/>
         <v>6439</v>
       </c>
-      <c r="O64" s="27">
-        <f>SUM(O54:O63)</f>
+      <c r="P64" s="27">
+        <f>SUM(P54:P63)</f>
         <v>7607</v>
       </c>
-      <c r="P64" s="27"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="27"/>
       <c r="S64" s="27"/>
@@ -7300,8 +7486,9 @@
       <c r="AX64" s="27"/>
       <c r="AY64" s="27"/>
       <c r="AZ64" s="27"/>
-    </row>
-    <row r="65" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA64" s="27"/>
+    </row>
+    <row r="65" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>55</v>
       </c>
@@ -7311,28 +7498,28 @@
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
-      <c r="I65" s="27">
+      <c r="I65" s="27"/>
+      <c r="J65" s="27">
         <v>963.6</v>
       </c>
-      <c r="J65" s="27">
+      <c r="K65" s="27">
         <v>1132.5999999999999</v>
       </c>
-      <c r="K65" s="27">
+      <c r="L65" s="27">
         <v>1289</v>
       </c>
-      <c r="L65" s="27">
+      <c r="M65" s="27">
         <v>1449</v>
       </c>
-      <c r="M65" s="27">
+      <c r="N65" s="27">
         <v>1779</v>
       </c>
-      <c r="N65" s="27">
+      <c r="O65" s="27">
         <v>2414</v>
       </c>
-      <c r="O65" s="27">
+      <c r="P65" s="27">
         <v>2797</v>
       </c>
-      <c r="P65" s="27"/>
       <c r="Q65" s="27"/>
       <c r="R65" s="27"/>
       <c r="S65" s="27"/>
@@ -7369,8 +7556,9 @@
       <c r="AX65" s="27"/>
       <c r="AY65" s="27"/>
       <c r="AZ65" s="27"/>
-    </row>
-    <row r="66" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA65" s="27"/>
+    </row>
+    <row r="66" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>56</v>
       </c>
@@ -7380,28 +7568,28 @@
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
-      <c r="I66" s="27">
+      <c r="I66" s="27"/>
+      <c r="J66" s="27">
         <v>280.7</v>
       </c>
-      <c r="J66" s="27">
+      <c r="K66" s="27">
         <v>317.89999999999998</v>
       </c>
-      <c r="K66" s="27">
+      <c r="L66" s="27">
         <v>250</v>
       </c>
-      <c r="L66" s="27">
+      <c r="M66" s="27">
         <v>333</v>
       </c>
-      <c r="M66" s="27">
+      <c r="N66" s="27">
         <v>383</v>
       </c>
-      <c r="N66" s="27">
+      <c r="O66" s="27">
         <v>431</v>
       </c>
-      <c r="O66" s="27">
+      <c r="P66" s="27">
         <v>478</v>
       </c>
-      <c r="P66" s="27"/>
       <c r="Q66" s="27"/>
       <c r="R66" s="27"/>
       <c r="S66" s="27"/>
@@ -7438,8 +7626,9 @@
       <c r="AX66" s="27"/>
       <c r="AY66" s="27"/>
       <c r="AZ66" s="27"/>
-    </row>
-    <row r="67" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA66" s="27"/>
+    </row>
+    <row r="67" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>57</v>
       </c>
@@ -7449,28 +7638,28 @@
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
-      <c r="I67" s="27">
+      <c r="I67" s="27"/>
+      <c r="J67" s="27">
         <v>17.899999999999999</v>
       </c>
-      <c r="J67" s="27">
+      <c r="K67" s="27">
         <v>20.7</v>
       </c>
-      <c r="K67" s="27">
+      <c r="L67" s="27">
         <v>63</v>
       </c>
-      <c r="L67" s="27">
+      <c r="M67" s="27">
         <v>58</v>
       </c>
-      <c r="M67" s="27">
+      <c r="N67" s="27">
         <v>19</v>
       </c>
-      <c r="N67" s="27">
+      <c r="O67" s="27">
         <v>51</v>
       </c>
-      <c r="O67" s="27">
+      <c r="P67" s="27">
         <v>28</v>
       </c>
-      <c r="P67" s="27"/>
       <c r="Q67" s="27"/>
       <c r="R67" s="27"/>
       <c r="S67" s="27"/>
@@ -7507,8 +7696,9 @@
       <c r="AX67" s="27"/>
       <c r="AY67" s="27"/>
       <c r="AZ67" s="27"/>
-    </row>
-    <row r="68" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA67" s="27"/>
+    </row>
+    <row r="68" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>58</v>
       </c>
@@ -7518,28 +7708,28 @@
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
-      <c r="I68" s="27">
+      <c r="I68" s="27"/>
+      <c r="J68" s="27">
         <v>199.4</v>
       </c>
-      <c r="J68" s="27">
+      <c r="K68" s="27">
         <v>198.6</v>
       </c>
-      <c r="K68" s="27">
+      <c r="L68" s="27">
         <v>193</v>
       </c>
-      <c r="L68" s="27">
+      <c r="M68" s="27">
         <v>257</v>
       </c>
-      <c r="M68" s="27">
+      <c r="N68" s="27">
         <v>263</v>
       </c>
-      <c r="N68" s="27">
+      <c r="O68" s="27">
         <v>300</v>
       </c>
-      <c r="O68" s="27">
+      <c r="P68" s="27">
         <v>398</v>
       </c>
-      <c r="P68" s="27"/>
       <c r="Q68" s="27"/>
       <c r="R68" s="27"/>
       <c r="S68" s="27"/>
@@ -7576,8 +7766,9 @@
       <c r="AX68" s="27"/>
       <c r="AY68" s="27"/>
       <c r="AZ68" s="27"/>
-    </row>
-    <row r="69" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA68" s="27"/>
+    </row>
+    <row r="69" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>59</v>
       </c>
@@ -7587,28 +7778,28 @@
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
-      <c r="I69" s="27">
+      <c r="I69" s="27"/>
+      <c r="J69" s="27">
         <v>34.9</v>
       </c>
-      <c r="J69" s="27">
+      <c r="K69" s="27">
         <v>36.5</v>
       </c>
-      <c r="K69" s="27">
+      <c r="L69" s="27">
         <v>121</v>
       </c>
-      <c r="L69" s="27">
+      <c r="M69" s="27">
         <v>53</v>
       </c>
-      <c r="M69" s="27">
+      <c r="N69" s="27">
         <v>160</v>
       </c>
-      <c r="N69" s="27">
+      <c r="O69" s="27">
         <v>188</v>
       </c>
-      <c r="O69" s="27">
+      <c r="P69" s="27">
         <v>132</v>
       </c>
-      <c r="P69" s="27"/>
       <c r="Q69" s="27"/>
       <c r="R69" s="27"/>
       <c r="S69" s="27"/>
@@ -7645,8 +7836,9 @@
       <c r="AX69" s="27"/>
       <c r="AY69" s="27"/>
       <c r="AZ69" s="27"/>
-    </row>
-    <row r="70" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA69" s="27"/>
+    </row>
+    <row r="70" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>43</v>
       </c>
@@ -7656,28 +7848,28 @@
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
-      <c r="I70" s="27">
+      <c r="I70" s="27"/>
+      <c r="J70" s="27">
         <v>3479.1</v>
       </c>
-      <c r="J70" s="27">
+      <c r="K70" s="27">
         <v>4384.2</v>
       </c>
-      <c r="K70" s="27">
+      <c r="L70" s="27">
         <v>4733</v>
       </c>
-      <c r="L70" s="27">
+      <c r="M70" s="27">
         <v>6696</v>
       </c>
-      <c r="M70" s="27">
+      <c r="N70" s="27">
         <v>9225</v>
       </c>
-      <c r="N70" s="27">
+      <c r="O70" s="27">
         <v>10625</v>
       </c>
-      <c r="O70" s="27">
+      <c r="P70" s="27">
         <v>11642</v>
       </c>
-      <c r="P70" s="27"/>
       <c r="Q70" s="27"/>
       <c r="R70" s="27"/>
       <c r="S70" s="27"/>
@@ -7714,8 +7906,9 @@
       <c r="AX70" s="27"/>
       <c r="AY70" s="27"/>
       <c r="AZ70" s="27"/>
-    </row>
-    <row r="71" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA70" s="27"/>
+    </row>
+    <row r="71" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>60</v>
       </c>
@@ -7725,35 +7918,35 @@
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
-      <c r="I71" s="27">
-        <f t="shared" ref="I71:N71" si="30">SUM(I65:I70)</f>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27">
+        <f t="shared" ref="J71:O71" si="30">SUM(J65:J70)</f>
         <v>4975.6000000000004</v>
       </c>
-      <c r="J71" s="27">
+      <c r="K71" s="27">
         <f t="shared" si="30"/>
         <v>6090.5</v>
       </c>
-      <c r="K71" s="27">
+      <c r="L71" s="27">
         <f t="shared" si="30"/>
         <v>6649</v>
       </c>
-      <c r="L71" s="27">
+      <c r="M71" s="27">
         <f t="shared" si="30"/>
         <v>8846</v>
       </c>
-      <c r="M71" s="27">
+      <c r="N71" s="27">
         <f t="shared" si="30"/>
         <v>11829</v>
       </c>
-      <c r="N71" s="27">
+      <c r="O71" s="27">
         <f t="shared" si="30"/>
         <v>14009</v>
       </c>
-      <c r="O71" s="27">
-        <f>SUM(O65:O70)</f>
+      <c r="P71" s="27">
+        <f>SUM(P65:P70)</f>
         <v>15475</v>
       </c>
-      <c r="P71" s="27"/>
       <c r="Q71" s="27"/>
       <c r="R71" s="27"/>
       <c r="S71" s="27"/>
@@ -7790,8 +7983,9 @@
       <c r="AX71" s="27"/>
       <c r="AY71" s="27"/>
       <c r="AZ71" s="27"/>
-    </row>
-    <row r="72" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA71" s="27"/>
+    </row>
+    <row r="72" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>61</v>
       </c>
@@ -7801,36 +7995,36 @@
       <c r="F72" s="28"/>
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
-      <c r="I72" s="28">
-        <f t="shared" ref="I72:M72" si="31">I64+I71</f>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28">
+        <f t="shared" ref="J72:N72" si="31">J64+J71</f>
         <v>8551.9000000000015</v>
       </c>
-      <c r="J72" s="28">
+      <c r="K72" s="28">
         <f t="shared" si="31"/>
         <v>9881</v>
       </c>
-      <c r="K72" s="28">
+      <c r="L72" s="28">
         <f t="shared" si="31"/>
         <v>11049</v>
       </c>
-      <c r="L72" s="28">
+      <c r="M72" s="28">
         <f t="shared" si="31"/>
         <v>13848</v>
       </c>
-      <c r="M72" s="28">
+      <c r="N72" s="28">
         <f t="shared" si="31"/>
         <v>17461</v>
       </c>
-      <c r="N72" s="28">
-        <f>N64+N71</f>
-        <v>20448</v>
-      </c>
       <c r="O72" s="28">
         <f>O64+O71</f>
+        <v>20448</v>
+      </c>
+      <c r="P72" s="28">
+        <f>P64+P71</f>
         <v>23082</v>
       </c>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="27"/>
+      <c r="Q72" s="28"/>
       <c r="R72" s="27"/>
       <c r="S72" s="27"/>
       <c r="T72" s="27"/>
@@ -7866,8 +8060,9 @@
       <c r="AX72" s="27"/>
       <c r="AY72" s="27"/>
       <c r="AZ72" s="27"/>
-    </row>
-    <row r="73" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA72" s="27"/>
+    </row>
+    <row r="73" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
@@ -7918,8 +8113,9 @@
       <c r="AX73" s="27"/>
       <c r="AY73" s="27"/>
       <c r="AZ73" s="27"/>
-    </row>
-    <row r="74" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA73" s="27"/>
+    </row>
+    <row r="74" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>62</v>
       </c>
@@ -7929,14 +8125,12 @@
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
-      <c r="I74" s="27">
-        <v>53.8</v>
-      </c>
+      <c r="I74" s="27"/>
       <c r="J74" s="27">
         <v>53.8</v>
       </c>
       <c r="K74" s="27">
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="L74" s="27">
         <v>54</v>
@@ -7950,7 +8144,9 @@
       <c r="O74" s="27">
         <v>54</v>
       </c>
-      <c r="P74" s="27"/>
+      <c r="P74" s="27">
+        <v>54</v>
+      </c>
       <c r="Q74" s="27"/>
       <c r="R74" s="27"/>
       <c r="S74" s="27"/>
@@ -7987,8 +8183,9 @@
       <c r="AX74" s="27"/>
       <c r="AY74" s="27"/>
       <c r="AZ74" s="27"/>
-    </row>
-    <row r="75" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA74" s="27"/>
+    </row>
+    <row r="75" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>63</v>
       </c>
@@ -7998,14 +8195,12 @@
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
-      <c r="I75" s="27">
-        <v>49.6</v>
-      </c>
+      <c r="I75" s="27"/>
       <c r="J75" s="27">
         <v>49.6</v>
       </c>
       <c r="K75" s="27">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="L75" s="27">
         <v>50</v>
@@ -8019,7 +8214,9 @@
       <c r="O75" s="27">
         <v>50</v>
       </c>
-      <c r="P75" s="27"/>
+      <c r="P75" s="27">
+        <v>50</v>
+      </c>
       <c r="Q75" s="27"/>
       <c r="R75" s="27"/>
       <c r="S75" s="27"/>
@@ -8056,8 +8253,9 @@
       <c r="AX75" s="27"/>
       <c r="AY75" s="27"/>
       <c r="AZ75" s="27"/>
-    </row>
-    <row r="76" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA75" s="27"/>
+    </row>
+    <row r="76" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>64</v>
       </c>
@@ -8067,28 +8265,28 @@
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
-      <c r="I76" s="27">
+      <c r="I76" s="27"/>
+      <c r="J76" s="27">
         <v>-465.2</v>
       </c>
-      <c r="J76" s="27">
+      <c r="K76" s="27">
         <v>-508.8</v>
       </c>
-      <c r="K76" s="27">
+      <c r="L76" s="27">
         <v>-464</v>
       </c>
-      <c r="L76" s="27">
+      <c r="M76" s="27">
         <v>-551</v>
       </c>
-      <c r="M76" s="27">
+      <c r="N76" s="27">
         <v>-674</v>
       </c>
-      <c r="N76" s="27">
+      <c r="O76" s="27">
         <v>-698</v>
       </c>
-      <c r="O76" s="27">
+      <c r="P76" s="27">
         <v>-670</v>
       </c>
-      <c r="P76" s="27"/>
       <c r="Q76" s="27"/>
       <c r="R76" s="27"/>
       <c r="S76" s="27"/>
@@ -8125,8 +8323,9 @@
       <c r="AX76" s="27"/>
       <c r="AY76" s="27"/>
       <c r="AZ76" s="27"/>
-    </row>
-    <row r="77" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA76" s="27"/>
+    </row>
+    <row r="77" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>65</v>
       </c>
@@ -8136,28 +8335,28 @@
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
-      <c r="I77" s="27">
+      <c r="I77" s="27"/>
+      <c r="J77" s="27">
         <v>4290.1000000000004</v>
       </c>
-      <c r="J77" s="27">
+      <c r="K77" s="27">
         <v>5255.7</v>
       </c>
-      <c r="K77" s="27">
+      <c r="L77" s="27">
         <v>6212</v>
       </c>
-      <c r="L77" s="27">
+      <c r="M77" s="27">
         <v>7142</v>
       </c>
-      <c r="M77" s="27">
+      <c r="N77" s="27">
         <v>8795</v>
       </c>
-      <c r="N77" s="27">
+      <c r="O77" s="27">
         <v>10744</v>
       </c>
-      <c r="O77" s="27">
+      <c r="P77" s="27">
         <v>12464</v>
       </c>
-      <c r="P77" s="27"/>
       <c r="Q77" s="27"/>
       <c r="R77" s="27"/>
       <c r="S77" s="27"/>
@@ -8194,8 +8393,9 @@
       <c r="AX77" s="27"/>
       <c r="AY77" s="27"/>
       <c r="AZ77" s="27"/>
-    </row>
-    <row r="78" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA77" s="27"/>
+    </row>
+    <row r="78" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>66</v>
       </c>
@@ -8205,28 +8405,28 @@
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
-      <c r="I78" s="27">
+      <c r="I78" s="27"/>
+      <c r="J78" s="27">
         <v>88</v>
       </c>
-      <c r="J78" s="27">
+      <c r="K78" s="27">
         <v>138.69999999999999</v>
       </c>
-      <c r="K78" s="27">
+      <c r="L78" s="27">
         <v>38</v>
       </c>
-      <c r="L78" s="27">
+      <c r="M78" s="27">
         <v>178</v>
       </c>
-      <c r="M78" s="27">
+      <c r="N78" s="27">
         <v>303</v>
       </c>
-      <c r="N78" s="27">
+      <c r="O78" s="27">
         <v>189</v>
       </c>
-      <c r="O78" s="27">
+      <c r="P78" s="27">
         <v>355</v>
       </c>
-      <c r="P78" s="27"/>
       <c r="Q78" s="27"/>
       <c r="R78" s="27"/>
       <c r="S78" s="27"/>
@@ -8263,8 +8463,9 @@
       <c r="AX78" s="27"/>
       <c r="AY78" s="27"/>
       <c r="AZ78" s="27"/>
-    </row>
-    <row r="79" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA78" s="27"/>
+    </row>
+    <row r="79" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>67</v>
       </c>
@@ -8274,28 +8475,28 @@
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
-      <c r="I79" s="27">
+      <c r="I79" s="27"/>
+      <c r="J79" s="27">
         <v>48</v>
       </c>
-      <c r="J79" s="27">
+      <c r="K79" s="27">
         <v>50.9</v>
       </c>
-      <c r="K79" s="27">
+      <c r="L79" s="27">
         <v>106</v>
       </c>
-      <c r="L79" s="27">
+      <c r="M79" s="27">
         <v>83</v>
       </c>
-      <c r="M79" s="27">
+      <c r="N79" s="27">
         <v>546</v>
       </c>
-      <c r="N79" s="27">
+      <c r="O79" s="27">
         <v>553</v>
       </c>
-      <c r="O79" s="27">
+      <c r="P79" s="27">
         <v>471</v>
       </c>
-      <c r="P79" s="27"/>
       <c r="Q79" s="27"/>
       <c r="R79" s="27"/>
       <c r="S79" s="27"/>
@@ -8332,8 +8533,9 @@
       <c r="AX79" s="27"/>
       <c r="AY79" s="27"/>
       <c r="AZ79" s="27"/>
-    </row>
-    <row r="80" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA79" s="27"/>
+    </row>
+    <row r="80" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>68</v>
       </c>
@@ -8343,28 +8545,28 @@
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
-      <c r="I80" s="27">
+      <c r="I80" s="27"/>
+      <c r="J80" s="27">
         <v>1405.5</v>
       </c>
-      <c r="J80" s="27">
+      <c r="K80" s="27">
         <v>1528.2</v>
       </c>
-      <c r="K80" s="27">
+      <c r="L80" s="27">
         <v>1385</v>
       </c>
-      <c r="L80" s="27">
+      <c r="M80" s="27">
         <v>2445</v>
       </c>
-      <c r="M80" s="27">
+      <c r="N80" s="27">
         <v>3367</v>
       </c>
-      <c r="N80" s="27">
+      <c r="O80" s="27">
         <v>4311</v>
       </c>
-      <c r="O80" s="27">
+      <c r="P80" s="27">
         <v>4603</v>
       </c>
-      <c r="P80" s="27"/>
       <c r="Q80" s="27"/>
       <c r="R80" s="27"/>
       <c r="S80" s="27"/>
@@ -8401,8 +8603,9 @@
       <c r="AX80" s="27"/>
       <c r="AY80" s="27"/>
       <c r="AZ80" s="27"/>
-    </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA80" s="27"/>
+    </row>
+    <row r="81" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>70</v>
       </c>
@@ -8412,28 +8615,28 @@
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
-      <c r="I81" s="27">
+      <c r="I81" s="27"/>
+      <c r="J81" s="27">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J81" s="27">
+      <c r="K81" s="27">
         <v>7.8</v>
       </c>
-      <c r="K81" s="27">
+      <c r="L81" s="27">
         <v>11</v>
       </c>
-      <c r="L81" s="27">
+      <c r="M81" s="27">
         <v>12</v>
       </c>
-      <c r="M81" s="27">
+      <c r="N81" s="27">
         <v>16</v>
       </c>
-      <c r="N81" s="27">
+      <c r="O81" s="27">
         <v>2</v>
       </c>
-      <c r="O81" s="27">
+      <c r="P81" s="27">
         <v>7</v>
       </c>
-      <c r="P81" s="27"/>
       <c r="Q81" s="27"/>
       <c r="R81" s="27"/>
       <c r="S81" s="27"/>
@@ -8470,8 +8673,9 @@
       <c r="AX81" s="27"/>
       <c r="AY81" s="27"/>
       <c r="AZ81" s="27"/>
-    </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA81" s="27"/>
+    </row>
+    <row r="82" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="1" t="s">
         <v>69</v>
@@ -8482,35 +8686,35 @@
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
-      <c r="I82" s="28">
-        <f t="shared" ref="I82:N82" si="32">SUM(I74:I81)</f>
+      <c r="I82" s="27"/>
+      <c r="J82" s="28">
+        <f t="shared" ref="J82:O82" si="32">SUM(J74:J81)</f>
         <v>5474.7</v>
       </c>
-      <c r="J82" s="28">
+      <c r="K82" s="28">
         <f t="shared" si="32"/>
         <v>6575.9</v>
       </c>
-      <c r="K82" s="28">
+      <c r="L82" s="28">
         <f t="shared" si="32"/>
         <v>7392</v>
       </c>
-      <c r="L82" s="28">
+      <c r="M82" s="28">
         <f t="shared" si="32"/>
         <v>9413</v>
       </c>
-      <c r="M82" s="28">
+      <c r="N82" s="28">
         <f t="shared" si="32"/>
         <v>12457</v>
       </c>
-      <c r="N82" s="28">
+      <c r="O82" s="28">
         <f t="shared" si="32"/>
         <v>15205</v>
       </c>
-      <c r="O82" s="28">
-        <f>SUM(O74:O81)</f>
+      <c r="P82" s="28">
+        <f>SUM(P74:P81)</f>
         <v>17334</v>
       </c>
-      <c r="P82" s="27"/>
       <c r="Q82" s="27"/>
       <c r="R82" s="27"/>
       <c r="S82" s="27"/>
@@ -8547,8 +8751,9 @@
       <c r="AX82" s="27"/>
       <c r="AY82" s="27"/>
       <c r="AZ82" s="27"/>
-    </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA82" s="27"/>
+    </row>
+    <row r="83" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
@@ -8600,8 +8805,9 @@
       <c r="AX83" s="27"/>
       <c r="AY83" s="27"/>
       <c r="AZ83" s="27"/>
-    </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA83" s="27"/>
+    </row>
+    <row r="84" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>73</v>
       </c>
@@ -8611,28 +8817,28 @@
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
-      <c r="I84" s="27">
+      <c r="I84" s="27"/>
+      <c r="J84" s="27">
         <v>27.5</v>
       </c>
-      <c r="J84" s="27">
+      <c r="K84" s="27">
         <v>29.6</v>
       </c>
-      <c r="K84" s="27">
+      <c r="L84" s="27">
         <v>18</v>
       </c>
-      <c r="L84" s="27">
+      <c r="M84" s="27">
         <v>24</v>
       </c>
-      <c r="M84" s="27">
+      <c r="N84" s="27">
         <v>35</v>
       </c>
-      <c r="N84" s="27">
+      <c r="O84" s="27">
         <v>50</v>
       </c>
-      <c r="O84" s="27">
+      <c r="P84" s="27">
         <v>61</v>
       </c>
-      <c r="P84" s="27"/>
       <c r="Q84" s="27"/>
       <c r="R84" s="27"/>
       <c r="S84" s="27"/>
@@ -8669,8 +8875,9 @@
       <c r="AX84" s="27"/>
       <c r="AY84" s="27"/>
       <c r="AZ84" s="27"/>
-    </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA84" s="27"/>
+    </row>
+    <row r="85" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>72</v>
       </c>
@@ -8680,28 +8887,28 @@
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
-      <c r="I85" s="27">
+      <c r="I85" s="27"/>
+      <c r="J85" s="27">
         <v>936.7</v>
       </c>
-      <c r="J85" s="27">
+      <c r="K85" s="27">
         <v>896</v>
       </c>
-      <c r="K85" s="27">
+      <c r="L85" s="27">
         <v>1447</v>
       </c>
-      <c r="L85" s="27">
+      <c r="M85" s="27">
         <v>1529</v>
       </c>
-      <c r="M85" s="27">
+      <c r="N85" s="27">
         <v>1629</v>
       </c>
-      <c r="N85" s="27">
+      <c r="O85" s="27">
         <v>1720</v>
       </c>
-      <c r="O85" s="27">
+      <c r="P85" s="27">
         <v>1781</v>
       </c>
-      <c r="P85" s="27"/>
       <c r="Q85" s="27"/>
       <c r="R85" s="27"/>
       <c r="S85" s="27"/>
@@ -8738,8 +8945,9 @@
       <c r="AX85" s="27"/>
       <c r="AY85" s="27"/>
       <c r="AZ85" s="27"/>
-    </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA85" s="27"/>
+    </row>
+    <row r="86" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>71</v>
       </c>
@@ -8749,28 +8957,28 @@
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
-      <c r="I86" s="27">
+      <c r="I86" s="27"/>
+      <c r="J86" s="27">
         <v>16.399999999999999</v>
       </c>
-      <c r="J86" s="27">
+      <c r="K86" s="27">
         <v>29</v>
       </c>
-      <c r="K86" s="27">
+      <c r="L86" s="27">
         <v>22</v>
       </c>
-      <c r="L86" s="27">
+      <c r="M86" s="27">
         <v>26</v>
       </c>
-      <c r="M86" s="27">
+      <c r="N86" s="27">
         <v>30</v>
       </c>
-      <c r="N86" s="27">
+      <c r="O86" s="27">
         <v>31</v>
       </c>
-      <c r="O86" s="27">
+      <c r="P86" s="27">
         <v>33</v>
       </c>
-      <c r="P86" s="27"/>
       <c r="Q86" s="27"/>
       <c r="R86" s="27"/>
       <c r="S86" s="27"/>
@@ -8807,8 +9015,9 @@
       <c r="AX86" s="27"/>
       <c r="AY86" s="27"/>
       <c r="AZ86" s="27"/>
-    </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA86" s="27"/>
+    </row>
+    <row r="87" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>74</v>
       </c>
@@ -8818,28 +9027,28 @@
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
-      <c r="I87" s="27">
+      <c r="I87" s="27"/>
+      <c r="J87" s="27">
         <v>196</v>
       </c>
-      <c r="J87" s="27">
+      <c r="K87" s="27">
         <v>270</v>
       </c>
-      <c r="K87" s="27">
+      <c r="L87" s="27">
         <v>275</v>
       </c>
-      <c r="L87" s="27">
+      <c r="M87" s="27">
         <v>220</v>
       </c>
-      <c r="M87" s="27">
+      <c r="N87" s="27">
         <v>181</v>
       </c>
-      <c r="N87" s="27">
+      <c r="O87" s="27">
         <v>151</v>
       </c>
-      <c r="O87" s="27">
+      <c r="P87" s="27">
         <v>173</v>
       </c>
-      <c r="P87" s="27"/>
       <c r="Q87" s="27"/>
       <c r="R87" s="27"/>
       <c r="S87" s="27"/>
@@ -8876,8 +9085,9 @@
       <c r="AX87" s="27"/>
       <c r="AY87" s="27"/>
       <c r="AZ87" s="27"/>
-    </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA87" s="27"/>
+    </row>
+    <row r="88" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>75</v>
       </c>
@@ -8887,28 +9097,28 @@
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
-      <c r="I88" s="27">
+      <c r="I88" s="27"/>
+      <c r="J88" s="27">
         <v>37.299999999999997</v>
       </c>
-      <c r="J88" s="27">
+      <c r="K88" s="27">
         <v>24.6</v>
       </c>
-      <c r="K88" s="27">
+      <c r="L88" s="27">
         <v>22</v>
       </c>
-      <c r="L88" s="27">
+      <c r="M88" s="27">
         <v>15</v>
       </c>
-      <c r="M88" s="27">
+      <c r="N88" s="27">
         <v>20</v>
       </c>
-      <c r="N88" s="27">
+      <c r="O88" s="27">
         <v>2</v>
       </c>
-      <c r="O88" s="27">
+      <c r="P88" s="27">
         <v>5</v>
       </c>
-      <c r="P88" s="27"/>
       <c r="Q88" s="27"/>
       <c r="R88" s="27"/>
       <c r="S88" s="27"/>
@@ -8945,8 +9155,9 @@
       <c r="AX88" s="27"/>
       <c r="AY88" s="27"/>
       <c r="AZ88" s="27"/>
-    </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA88" s="27"/>
+    </row>
+    <row r="89" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>76</v>
       </c>
@@ -8956,28 +9167,28 @@
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
-      <c r="I89" s="27">
+      <c r="I89" s="27"/>
+      <c r="J89" s="27">
         <v>46.5</v>
       </c>
-      <c r="J89" s="27">
+      <c r="K89" s="27">
         <v>32.5</v>
       </c>
-      <c r="K89" s="27">
+      <c r="L89" s="27">
         <v>36</v>
       </c>
-      <c r="L89" s="27">
+      <c r="M89" s="27">
         <v>45</v>
       </c>
-      <c r="M89" s="27">
+      <c r="N89" s="27">
         <v>103</v>
       </c>
-      <c r="N89" s="27">
+      <c r="O89" s="27">
         <v>106</v>
       </c>
-      <c r="O89" s="27">
+      <c r="P89" s="27">
         <v>69</v>
       </c>
-      <c r="P89" s="27"/>
       <c r="Q89" s="27"/>
       <c r="R89" s="27"/>
       <c r="S89" s="27"/>
@@ -9014,8 +9225,9 @@
       <c r="AX89" s="27"/>
       <c r="AY89" s="27"/>
       <c r="AZ89" s="27"/>
-    </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA89" s="27"/>
+    </row>
+    <row r="90" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>77</v>
       </c>
@@ -9025,35 +9237,35 @@
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
-      <c r="I90" s="27">
-        <f t="shared" ref="I90:N90" si="33">SUM(I84:I89)</f>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27">
+        <f t="shared" ref="J90:O90" si="33">SUM(J84:J89)</f>
         <v>1260.3999999999999</v>
       </c>
-      <c r="J90" s="27">
+      <c r="K90" s="27">
         <f t="shared" si="33"/>
         <v>1281.6999999999998</v>
       </c>
-      <c r="K90" s="27">
+      <c r="L90" s="27">
         <f t="shared" si="33"/>
         <v>1820</v>
       </c>
-      <c r="L90" s="27">
+      <c r="M90" s="27">
         <f t="shared" si="33"/>
         <v>1859</v>
       </c>
-      <c r="M90" s="27">
+      <c r="N90" s="27">
         <f t="shared" si="33"/>
         <v>1998</v>
       </c>
-      <c r="N90" s="27">
+      <c r="O90" s="27">
         <f t="shared" si="33"/>
         <v>2060</v>
       </c>
-      <c r="O90" s="27">
-        <f>SUM(O84:O89)</f>
+      <c r="P90" s="27">
+        <f>SUM(P84:P89)</f>
         <v>2122</v>
       </c>
-      <c r="P90" s="27"/>
       <c r="Q90" s="27"/>
       <c r="R90" s="27"/>
       <c r="S90" s="27"/>
@@ -9090,8 +9302,9 @@
       <c r="AX90" s="27"/>
       <c r="AY90" s="27"/>
       <c r="AZ90" s="27"/>
-    </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA90" s="27"/>
+    </row>
+    <row r="91" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>78</v>
       </c>
@@ -9101,28 +9314,28 @@
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
-      <c r="I91" s="27">
+      <c r="I91" s="27"/>
+      <c r="J91" s="27">
         <v>22.5</v>
       </c>
-      <c r="J91" s="27">
+      <c r="K91" s="27">
         <v>20.5</v>
       </c>
-      <c r="K91" s="27">
+      <c r="L91" s="27">
         <v>25</v>
       </c>
-      <c r="L91" s="27">
+      <c r="M91" s="27">
         <v>1</v>
       </c>
-      <c r="M91" s="27">
+      <c r="N91" s="27">
         <v>2</v>
       </c>
-      <c r="N91" s="27">
+      <c r="O91" s="27">
         <v>1</v>
       </c>
-      <c r="O91" s="27">
+      <c r="P91" s="27">
         <v>0</v>
       </c>
-      <c r="P91" s="27"/>
       <c r="Q91" s="27"/>
       <c r="R91" s="27"/>
       <c r="S91" s="27"/>
@@ -9159,8 +9372,9 @@
       <c r="AX91" s="27"/>
       <c r="AY91" s="27"/>
       <c r="AZ91" s="27"/>
-    </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA91" s="27"/>
+    </row>
+    <row r="92" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>79</v>
       </c>
@@ -9170,28 +9384,28 @@
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
-      <c r="I92" s="27">
+      <c r="I92" s="27"/>
+      <c r="J92" s="27">
         <v>179.3</v>
       </c>
-      <c r="J92" s="27">
+      <c r="K92" s="27">
         <v>195.6</v>
       </c>
-      <c r="K92" s="27">
+      <c r="L92" s="27">
         <v>196</v>
       </c>
-      <c r="L92" s="27">
+      <c r="M92" s="27">
         <v>248</v>
       </c>
-      <c r="M92" s="27">
+      <c r="N92" s="27">
         <v>268</v>
       </c>
-      <c r="N92" s="27">
+      <c r="O92" s="27">
         <v>289</v>
       </c>
-      <c r="O92" s="27">
+      <c r="P92" s="27">
         <v>332</v>
       </c>
-      <c r="P92" s="27"/>
       <c r="Q92" s="27"/>
       <c r="R92" s="27"/>
       <c r="S92" s="27"/>
@@ -9228,8 +9442,9 @@
       <c r="AX92" s="27"/>
       <c r="AY92" s="27"/>
       <c r="AZ92" s="27"/>
-    </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA92" s="27"/>
+    </row>
+    <row r="93" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>80</v>
       </c>
@@ -9239,28 +9454,28 @@
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
-      <c r="I93" s="27">
+      <c r="I93" s="27"/>
+      <c r="J93" s="27">
         <v>96.3</v>
       </c>
-      <c r="J93" s="27">
+      <c r="K93" s="27">
         <v>101.4</v>
       </c>
-      <c r="K93" s="27">
+      <c r="L93" s="27">
         <v>100</v>
       </c>
-      <c r="L93" s="27">
+      <c r="M93" s="27">
         <v>115</v>
       </c>
-      <c r="M93" s="27">
+      <c r="N93" s="27">
         <v>133</v>
       </c>
-      <c r="N93" s="27">
+      <c r="O93" s="27">
         <v>134</v>
       </c>
-      <c r="O93" s="27">
+      <c r="P93" s="27">
         <v>96</v>
       </c>
-      <c r="P93" s="27"/>
       <c r="Q93" s="27"/>
       <c r="R93" s="27"/>
       <c r="S93" s="27"/>
@@ -9297,8 +9512,9 @@
       <c r="AX93" s="27"/>
       <c r="AY93" s="27"/>
       <c r="AZ93" s="27"/>
-    </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA93" s="27"/>
+    </row>
+    <row r="94" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>81</v>
       </c>
@@ -9308,28 +9524,28 @@
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
-      <c r="I94" s="27">
+      <c r="I94" s="27"/>
+      <c r="J94" s="27">
         <v>6.9</v>
       </c>
-      <c r="J94" s="27">
+      <c r="K94" s="27">
         <v>18.2</v>
       </c>
-      <c r="K94" s="27">
+      <c r="L94" s="27">
         <v>28</v>
       </c>
-      <c r="L94" s="27">
+      <c r="M94" s="27">
         <v>40</v>
       </c>
-      <c r="M94" s="27">
+      <c r="N94" s="27">
         <v>15</v>
-      </c>
-      <c r="N94" s="27">
-        <v>16</v>
       </c>
       <c r="O94" s="27">
         <v>16</v>
       </c>
-      <c r="P94" s="27"/>
+      <c r="P94" s="27">
+        <v>16</v>
+      </c>
       <c r="Q94" s="27"/>
       <c r="R94" s="27"/>
       <c r="S94" s="27"/>
@@ -9366,8 +9582,9 @@
       <c r="AX94" s="27"/>
       <c r="AY94" s="27"/>
       <c r="AZ94" s="27"/>
-    </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA94" s="27"/>
+    </row>
+    <row r="95" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>82</v>
       </c>
@@ -9377,28 +9594,28 @@
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
-      <c r="I95" s="27">
+      <c r="I95" s="27"/>
+      <c r="J95" s="27">
         <v>467</v>
       </c>
-      <c r="J95" s="27">
+      <c r="K95" s="27">
         <v>480.4</v>
       </c>
-      <c r="K95" s="27">
+      <c r="L95" s="27">
         <v>448</v>
       </c>
-      <c r="L95" s="27">
+      <c r="M95" s="27">
         <v>535</v>
       </c>
-      <c r="M95" s="27">
+      <c r="N95" s="27">
         <v>777</v>
       </c>
-      <c r="N95" s="27">
+      <c r="O95" s="27">
         <v>880</v>
       </c>
-      <c r="O95" s="27">
+      <c r="P95" s="27">
         <v>832</v>
       </c>
-      <c r="P95" s="27"/>
       <c r="Q95" s="27"/>
       <c r="R95" s="27"/>
       <c r="S95" s="27"/>
@@ -9435,8 +9652,9 @@
       <c r="AX95" s="27"/>
       <c r="AY95" s="27"/>
       <c r="AZ95" s="27"/>
-    </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA95" s="27"/>
+    </row>
+    <row r="96" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>59</v>
       </c>
@@ -9446,28 +9664,28 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
-      <c r="I96" s="27">
+      <c r="I96" s="27"/>
+      <c r="J96" s="27">
         <v>57.8</v>
       </c>
-      <c r="J96" s="27">
+      <c r="K96" s="27">
         <v>47.1</v>
       </c>
-      <c r="K96" s="27">
+      <c r="L96" s="27">
         <v>29</v>
       </c>
-      <c r="L96" s="27">
+      <c r="M96" s="27">
         <v>122</v>
       </c>
-      <c r="M96" s="27">
+      <c r="N96" s="27">
         <v>74</v>
       </c>
-      <c r="N96" s="27">
+      <c r="O96" s="27">
         <v>45</v>
       </c>
-      <c r="O96" s="27">
+      <c r="P96" s="27">
         <v>161</v>
       </c>
-      <c r="P96" s="27"/>
       <c r="Q96" s="27"/>
       <c r="R96" s="27"/>
       <c r="S96" s="27"/>
@@ -9504,8 +9722,9 @@
       <c r="AX96" s="27"/>
       <c r="AY96" s="27"/>
       <c r="AZ96" s="27"/>
-    </row>
-    <row r="97" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA96" s="27"/>
+    </row>
+    <row r="97" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>83</v>
       </c>
@@ -9515,28 +9734,28 @@
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
-      <c r="I97" s="27">
+      <c r="I97" s="27"/>
+      <c r="J97" s="27">
         <v>314.60000000000002</v>
       </c>
-      <c r="J97" s="27">
+      <c r="K97" s="27">
         <v>360.1</v>
       </c>
-      <c r="K97" s="27">
+      <c r="L97" s="27">
         <v>218</v>
       </c>
-      <c r="L97" s="27">
+      <c r="M97" s="27">
         <v>347</v>
       </c>
-      <c r="M97" s="27">
+      <c r="N97" s="27">
         <v>496</v>
       </c>
-      <c r="N97" s="27">
+      <c r="O97" s="27">
         <v>586</v>
       </c>
-      <c r="O97" s="27">
+      <c r="P97" s="27">
         <v>773</v>
       </c>
-      <c r="P97" s="27"/>
       <c r="Q97" s="27"/>
       <c r="R97" s="27"/>
       <c r="S97" s="27"/>
@@ -9573,8 +9792,9 @@
       <c r="AX97" s="27"/>
       <c r="AY97" s="27"/>
       <c r="AZ97" s="27"/>
-    </row>
-    <row r="98" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA97" s="27"/>
+    </row>
+    <row r="98" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>84</v>
       </c>
@@ -9584,28 +9804,28 @@
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
-      <c r="I98" s="27">
+      <c r="I98" s="27"/>
+      <c r="J98" s="27">
         <v>572.20000000000005</v>
       </c>
-      <c r="J98" s="27">
+      <c r="K98" s="27">
         <v>800.2</v>
       </c>
-      <c r="K98" s="27">
+      <c r="L98" s="27">
         <v>795</v>
       </c>
-      <c r="L98" s="27">
+      <c r="M98" s="27">
         <v>1168</v>
       </c>
-      <c r="M98" s="27">
+      <c r="N98" s="27">
         <v>1239</v>
       </c>
-      <c r="N98" s="27">
+      <c r="O98" s="27">
         <v>1233</v>
       </c>
-      <c r="O98" s="27">
+      <c r="P98" s="27">
         <v>1419</v>
       </c>
-      <c r="P98" s="27"/>
       <c r="Q98" s="27"/>
       <c r="R98" s="27"/>
       <c r="S98" s="27"/>
@@ -9642,8 +9862,9 @@
       <c r="AX98" s="27"/>
       <c r="AY98" s="27"/>
       <c r="AZ98" s="27"/>
-    </row>
-    <row r="99" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA98" s="27"/>
+    </row>
+    <row r="99" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>85</v>
       </c>
@@ -9653,35 +9874,35 @@
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
-      <c r="I99" s="27">
-        <f t="shared" ref="I99:M99" si="34">SUM(I91:I98)</f>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27">
+        <f t="shared" ref="J99:N99" si="34">SUM(J91:J98)</f>
         <v>1716.6000000000001</v>
       </c>
-      <c r="J99" s="27">
+      <c r="K99" s="27">
         <f t="shared" si="34"/>
         <v>2023.5</v>
       </c>
-      <c r="K99" s="27">
+      <c r="L99" s="27">
         <f t="shared" si="34"/>
         <v>1839</v>
       </c>
-      <c r="L99" s="27">
+      <c r="M99" s="27">
         <f t="shared" si="34"/>
         <v>2576</v>
       </c>
-      <c r="M99" s="27">
+      <c r="N99" s="27">
         <f t="shared" si="34"/>
         <v>3004</v>
       </c>
-      <c r="N99" s="27">
-        <f>SUM(N91:N98)</f>
-        <v>3184</v>
-      </c>
       <c r="O99" s="27">
         <f>SUM(O91:O98)</f>
+        <v>3184</v>
+      </c>
+      <c r="P99" s="27">
+        <f>SUM(P91:P98)</f>
         <v>3629</v>
       </c>
-      <c r="P99" s="27"/>
       <c r="Q99" s="27"/>
       <c r="R99" s="27"/>
       <c r="S99" s="27"/>
@@ -9718,8 +9939,9 @@
       <c r="AX99" s="27"/>
       <c r="AY99" s="27"/>
       <c r="AZ99" s="27"/>
-    </row>
-    <row r="100" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA99" s="27"/>
+    </row>
+    <row r="100" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>87</v>
       </c>
@@ -9729,35 +9951,35 @@
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
       <c r="H100" s="27"/>
-      <c r="I100" s="27">
-        <f t="shared" ref="I100:N100" si="35">I99+I90</f>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27">
+        <f t="shared" ref="J100:O100" si="35">J99+J90</f>
         <v>2977</v>
       </c>
-      <c r="J100" s="27">
+      <c r="K100" s="27">
         <f t="shared" si="35"/>
         <v>3305.2</v>
       </c>
-      <c r="K100" s="27">
+      <c r="L100" s="27">
         <f t="shared" si="35"/>
         <v>3659</v>
       </c>
-      <c r="L100" s="27">
+      <c r="M100" s="27">
         <f t="shared" si="35"/>
         <v>4435</v>
       </c>
-      <c r="M100" s="27">
+      <c r="N100" s="27">
         <f t="shared" si="35"/>
         <v>5002</v>
       </c>
-      <c r="N100" s="27">
+      <c r="O100" s="27">
         <f t="shared" si="35"/>
         <v>5244</v>
       </c>
-      <c r="O100" s="27">
-        <f>O99+O90</f>
+      <c r="P100" s="27">
+        <f>P99+P90</f>
         <v>5751</v>
       </c>
-      <c r="P100" s="27"/>
       <c r="Q100" s="27"/>
       <c r="R100" s="27"/>
       <c r="S100" s="27"/>
@@ -9794,8 +10016,9 @@
       <c r="AX100" s="27"/>
       <c r="AY100" s="27"/>
       <c r="AZ100" s="27"/>
-    </row>
-    <row r="101" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA100" s="27"/>
+    </row>
+    <row r="101" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>86</v>
       </c>
@@ -9805,35 +10028,35 @@
       <c r="F101" s="27"/>
       <c r="G101" s="27"/>
       <c r="H101" s="27"/>
-      <c r="I101" s="28">
-        <f t="shared" ref="I101:N101" si="36">I100+I82</f>
+      <c r="I101" s="27"/>
+      <c r="J101" s="28">
+        <f t="shared" ref="J101:O101" si="36">J100+J82</f>
         <v>8451.7000000000007</v>
       </c>
-      <c r="J101" s="28">
+      <c r="K101" s="28">
         <f t="shared" si="36"/>
         <v>9881.0999999999985</v>
       </c>
-      <c r="K101" s="28">
+      <c r="L101" s="28">
         <f t="shared" si="36"/>
         <v>11051</v>
       </c>
-      <c r="L101" s="28">
+      <c r="M101" s="28">
         <f t="shared" si="36"/>
         <v>13848</v>
       </c>
-      <c r="M101" s="28">
+      <c r="N101" s="28">
         <f t="shared" si="36"/>
         <v>17459</v>
       </c>
-      <c r="N101" s="28">
+      <c r="O101" s="28">
         <f t="shared" si="36"/>
         <v>20449</v>
       </c>
-      <c r="O101" s="28">
-        <f>O100+O82</f>
+      <c r="P101" s="28">
+        <f>P100+P82</f>
         <v>23085</v>
       </c>
-      <c r="P101" s="27"/>
       <c r="Q101" s="27"/>
       <c r="R101" s="27"/>
       <c r="S101" s="27"/>
@@ -9870,15 +10093,16 @@
       <c r="AX101" s="27"/>
       <c r="AY101" s="27"/>
       <c r="AZ101" s="27"/>
-    </row>
-    <row r="102" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA101" s="27"/>
+    </row>
+    <row r="102" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
       <c r="E102" s="27"/>
       <c r="F102" s="27"/>
       <c r="G102" s="27"/>
       <c r="H102" s="27"/>
-      <c r="O102" s="27"/>
+      <c r="I102" s="27"/>
       <c r="P102" s="27"/>
       <c r="Q102" s="27"/>
       <c r="R102" s="27"/>
@@ -9916,8 +10140,9 @@
       <c r="AX102" s="27"/>
       <c r="AY102" s="27"/>
       <c r="AZ102" s="27"/>
-    </row>
-    <row r="103" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA102" s="27"/>
+    </row>
+    <row r="103" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>88</v>
       </c>
@@ -9927,35 +10152,35 @@
       <c r="F103" s="27"/>
       <c r="G103" s="27"/>
       <c r="H103" s="27"/>
-      <c r="I103" s="27">
-        <f t="shared" ref="I103:O103" si="37">I30</f>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27">
+        <f t="shared" ref="J103:P103" si="37">J30</f>
         <v>1405.4999999999998</v>
       </c>
-      <c r="J103" s="27">
+      <c r="K103" s="27">
         <f t="shared" si="37"/>
         <v>1528.2000000000003</v>
       </c>
-      <c r="K103" s="27">
+      <c r="L103" s="27">
         <f t="shared" si="37"/>
         <v>1385</v>
       </c>
-      <c r="L103" s="27">
+      <c r="M103" s="27">
         <f t="shared" si="37"/>
         <v>2445</v>
       </c>
-      <c r="M103" s="27">
+      <c r="N103" s="27">
         <f t="shared" si="37"/>
         <v>3367</v>
       </c>
-      <c r="N103" s="27">
+      <c r="O103" s="27">
         <f t="shared" si="37"/>
         <v>4311</v>
       </c>
-      <c r="O103" s="27">
+      <c r="P103" s="27">
         <f t="shared" si="37"/>
         <v>4602</v>
       </c>
-      <c r="P103" s="27"/>
       <c r="Q103" s="27"/>
       <c r="R103" s="27"/>
       <c r="S103" s="27"/>
@@ -9992,8 +10217,9 @@
       <c r="AX103" s="27"/>
       <c r="AY103" s="27"/>
       <c r="AZ103" s="27"/>
-    </row>
-    <row r="104" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA103" s="27"/>
+    </row>
+    <row r="104" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>89</v>
       </c>
@@ -10003,32 +10229,32 @@
       <c r="F104" s="27"/>
       <c r="G104" s="27"/>
       <c r="H104" s="27"/>
-      <c r="I104" s="27">
+      <c r="I104" s="27"/>
+      <c r="J104" s="27">
         <f>217+188.8</f>
         <v>405.8</v>
       </c>
-      <c r="J104" s="27">
+      <c r="K104" s="27">
         <f>236.2+211.5</f>
         <v>447.7</v>
       </c>
-      <c r="K104" s="27">
+      <c r="L104" s="27">
         <f>271+243</f>
         <v>514</v>
       </c>
-      <c r="L104" s="27">
+      <c r="M104" s="27">
         <f>312+251</f>
         <v>563</v>
       </c>
-      <c r="M104" s="27">
+      <c r="N104" s="27">
         <v>730</v>
       </c>
-      <c r="N104" s="27">
+      <c r="O104" s="27">
         <v>772</v>
       </c>
-      <c r="O104" s="27">
+      <c r="P104" s="27">
         <v>844</v>
       </c>
-      <c r="P104" s="27"/>
       <c r="Q104" s="27"/>
       <c r="R104" s="27"/>
       <c r="S104" s="27"/>
@@ -10065,8 +10291,9 @@
       <c r="AX104" s="27"/>
       <c r="AY104" s="27"/>
       <c r="AZ104" s="27"/>
-    </row>
-    <row r="105" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA104" s="27"/>
+    </row>
+    <row r="105" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>90</v>
       </c>
@@ -10076,32 +10303,32 @@
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
       <c r="H105" s="27"/>
-      <c r="I105" s="27">
+      <c r="I105" s="27"/>
+      <c r="J105" s="27">
         <f>70.3-0.2-3.6</f>
         <v>66.5</v>
       </c>
-      <c r="J105" s="27">
+      <c r="K105" s="27">
         <f>28.5-0.3-19</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="K105" s="27">
+      <c r="L105" s="27">
         <f>54+1+30</f>
         <v>85</v>
       </c>
-      <c r="L105" s="27">
+      <c r="M105" s="27">
         <f>61-1-46</f>
         <v>14</v>
       </c>
-      <c r="M105" s="27">
+      <c r="N105" s="27">
         <v>12</v>
       </c>
-      <c r="N105" s="27">
+      <c r="O105" s="27">
         <v>56</v>
       </c>
-      <c r="O105" s="27">
+      <c r="P105" s="27">
         <v>-56</v>
       </c>
-      <c r="P105" s="27"/>
       <c r="Q105" s="27"/>
       <c r="R105" s="27"/>
       <c r="S105" s="27"/>
@@ -10138,8 +10365,9 @@
       <c r="AX105" s="27"/>
       <c r="AY105" s="27"/>
       <c r="AZ105" s="27"/>
-    </row>
-    <row r="106" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA105" s="27"/>
+    </row>
+    <row r="106" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>91</v>
       </c>
@@ -10149,28 +10377,28 @@
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
-      <c r="I106" s="27">
+      <c r="I106" s="27"/>
+      <c r="J106" s="27">
         <v>30.3</v>
       </c>
-      <c r="J106" s="27">
+      <c r="K106" s="27">
         <v>41</v>
       </c>
-      <c r="K106" s="27">
+      <c r="L106" s="27">
         <v>26</v>
       </c>
-      <c r="L106" s="27">
+      <c r="M106" s="27">
         <v>28</v>
       </c>
-      <c r="M106" s="27">
+      <c r="N106" s="27">
         <v>12</v>
       </c>
-      <c r="N106" s="27">
+      <c r="O106" s="27">
         <v>15</v>
       </c>
-      <c r="O106" s="27">
+      <c r="P106" s="27">
         <v>-29</v>
       </c>
-      <c r="P106" s="27"/>
       <c r="Q106" s="27"/>
       <c r="R106" s="27"/>
       <c r="S106" s="27"/>
@@ -10207,8 +10435,9 @@
       <c r="AX106" s="27"/>
       <c r="AY106" s="27"/>
       <c r="AZ106" s="27"/>
-    </row>
-    <row r="107" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA106" s="27"/>
+    </row>
+    <row r="107" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>92</v>
       </c>
@@ -10218,28 +10447,28 @@
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
       <c r="H107" s="27"/>
-      <c r="I107" s="27">
+      <c r="I107" s="27"/>
+      <c r="J107" s="27">
         <v>-16.600000000000001</v>
       </c>
-      <c r="J107" s="27">
+      <c r="K107" s="27">
         <v>-15.9</v>
       </c>
-      <c r="K107" s="27">
+      <c r="L107" s="27">
         <v>-16</v>
       </c>
-      <c r="L107" s="27">
+      <c r="M107" s="27">
         <v>-34</v>
       </c>
-      <c r="M107" s="27">
+      <c r="N107" s="27">
         <v>-50</v>
       </c>
-      <c r="N107" s="27">
+      <c r="O107" s="27">
         <v>-105</v>
       </c>
-      <c r="O107" s="27">
+      <c r="P107" s="27">
         <v>-44</v>
       </c>
-      <c r="P107" s="27"/>
       <c r="Q107" s="27"/>
       <c r="R107" s="27"/>
       <c r="S107" s="27"/>
@@ -10276,8 +10505,9 @@
       <c r="AX107" s="27"/>
       <c r="AY107" s="27"/>
       <c r="AZ107" s="27"/>
-    </row>
-    <row r="108" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA107" s="27"/>
+    </row>
+    <row r="108" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>93</v>
       </c>
@@ -10287,28 +10517,28 @@
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
-      <c r="I108" s="27">
+      <c r="I108" s="27"/>
+      <c r="J108" s="27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J108" s="27">
+      <c r="K108" s="27">
         <v>7</v>
       </c>
-      <c r="K108" s="27">
+      <c r="L108" s="27">
         <v>4</v>
       </c>
-      <c r="L108" s="27">
+      <c r="M108" s="27">
         <v>8</v>
       </c>
-      <c r="M108" s="27">
+      <c r="N108" s="27">
         <v>13</v>
       </c>
-      <c r="N108" s="27">
+      <c r="O108" s="27">
         <v>12</v>
       </c>
-      <c r="O108" s="27">
+      <c r="P108" s="27">
         <v>28</v>
       </c>
-      <c r="P108" s="27"/>
       <c r="Q108" s="27"/>
       <c r="R108" s="27"/>
       <c r="S108" s="27"/>
@@ -10345,8 +10575,9 @@
       <c r="AX108" s="27"/>
       <c r="AY108" s="27"/>
       <c r="AZ108" s="27"/>
-    </row>
-    <row r="109" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA108" s="27"/>
+    </row>
+    <row r="109" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>94</v>
       </c>
@@ -10356,28 +10587,28 @@
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
-      <c r="I109" s="27">
+      <c r="I109" s="27"/>
+      <c r="J109" s="27">
         <v>-49.5</v>
       </c>
-      <c r="J109" s="27">
+      <c r="K109" s="27">
         <v>1.2</v>
       </c>
-      <c r="K109" s="27">
+      <c r="L109" s="27">
         <v>-90</v>
       </c>
-      <c r="L109" s="27">
+      <c r="M109" s="27">
         <v>-4</v>
       </c>
-      <c r="M109" s="27">
+      <c r="N109" s="27">
         <v>-1</v>
       </c>
-      <c r="N109" s="27">
+      <c r="O109" s="27">
         <v>-14</v>
       </c>
-      <c r="O109" s="27">
+      <c r="P109" s="27">
         <v>-2</v>
       </c>
-      <c r="P109" s="27"/>
       <c r="Q109" s="27"/>
       <c r="R109" s="27"/>
       <c r="S109" s="27"/>
@@ -10414,8 +10645,9 @@
       <c r="AX109" s="27"/>
       <c r="AY109" s="27"/>
       <c r="AZ109" s="27"/>
-    </row>
-    <row r="110" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA109" s="27"/>
+    </row>
+    <row r="110" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>95</v>
       </c>
@@ -10425,28 +10657,28 @@
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
-      <c r="I110" s="27">
+      <c r="I110" s="27"/>
+      <c r="J110" s="27">
         <v>-24.7</v>
       </c>
-      <c r="J110" s="27">
+      <c r="K110" s="27">
         <v>-29</v>
       </c>
-      <c r="K110" s="27">
+      <c r="L110" s="27">
         <v>5</v>
       </c>
-      <c r="L110" s="27">
+      <c r="M110" s="27">
         <v>-15</v>
       </c>
-      <c r="M110" s="27">
+      <c r="N110" s="27">
         <v>-16</v>
       </c>
-      <c r="N110" s="27">
+      <c r="O110" s="27">
         <v>-14</v>
       </c>
-      <c r="O110" s="27">
+      <c r="P110" s="27">
         <v>-93</v>
       </c>
-      <c r="P110" s="27"/>
       <c r="Q110" s="27"/>
       <c r="R110" s="27"/>
       <c r="S110" s="27"/>
@@ -10483,8 +10715,9 @@
       <c r="AX110" s="27"/>
       <c r="AY110" s="27"/>
       <c r="AZ110" s="27"/>
-    </row>
-    <row r="111" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA110" s="27"/>
+    </row>
+    <row r="111" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>96</v>
       </c>
@@ -10494,28 +10727,28 @@
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
-      <c r="I111" s="27">
+      <c r="I111" s="27"/>
+      <c r="J111" s="27">
         <v>51.4</v>
       </c>
-      <c r="J111" s="27">
+      <c r="K111" s="27">
         <v>87.7</v>
       </c>
-      <c r="K111" s="27">
+      <c r="L111" s="27">
         <v>79</v>
       </c>
-      <c r="L111" s="27">
+      <c r="M111" s="27">
         <v>59</v>
       </c>
-      <c r="M111" s="27">
+      <c r="N111" s="27">
         <v>55</v>
       </c>
-      <c r="N111" s="27">
+      <c r="O111" s="27">
         <v>104</v>
       </c>
-      <c r="O111" s="27">
+      <c r="P111" s="27">
         <v>142</v>
       </c>
-      <c r="P111" s="27"/>
       <c r="Q111" s="27"/>
       <c r="R111" s="27"/>
       <c r="S111" s="27"/>
@@ -10552,8 +10785,9 @@
       <c r="AX111" s="27"/>
       <c r="AY111" s="27"/>
       <c r="AZ111" s="27"/>
-    </row>
-    <row r="112" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA111" s="27"/>
+    </row>
+    <row r="112" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>97</v>
       </c>
@@ -10563,28 +10797,28 @@
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
       <c r="H112" s="27"/>
-      <c r="I112" s="27">
+      <c r="I112" s="27"/>
+      <c r="J112" s="27">
         <v>-10</v>
       </c>
-      <c r="J112" s="27">
+      <c r="K112" s="27">
         <v>-13.3</v>
       </c>
-      <c r="K112" s="27">
+      <c r="L112" s="27">
         <v>0</v>
       </c>
-      <c r="L112" s="27">
+      <c r="M112" s="27">
         <v>-10</v>
       </c>
-      <c r="M112" s="27">
+      <c r="N112" s="27">
         <v>-11</v>
       </c>
-      <c r="N112" s="27">
+      <c r="O112" s="27">
         <v>-12</v>
       </c>
-      <c r="O112" s="27">
+      <c r="P112" s="27">
         <v>-16</v>
       </c>
-      <c r="P112" s="27"/>
       <c r="Q112" s="27"/>
       <c r="R112" s="27"/>
       <c r="S112" s="27"/>
@@ -10621,8 +10855,9 @@
       <c r="AX112" s="27"/>
       <c r="AY112" s="27"/>
       <c r="AZ112" s="27"/>
-    </row>
-    <row r="113" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA112" s="27"/>
+    </row>
+    <row r="113" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>98</v>
       </c>
@@ -10632,14 +10867,12 @@
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
       <c r="H113" s="27"/>
-      <c r="I113" s="27">
-        <v>-0.3</v>
-      </c>
+      <c r="I113" s="27"/>
       <c r="J113" s="27">
         <v>-0.3</v>
       </c>
       <c r="K113" s="27">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="L113" s="27">
         <v>0</v>
@@ -10653,7 +10886,9 @@
       <c r="O113" s="27">
         <v>0</v>
       </c>
-      <c r="P113" s="27"/>
+      <c r="P113" s="27">
+        <v>0</v>
+      </c>
       <c r="Q113" s="27"/>
       <c r="R113" s="27"/>
       <c r="S113" s="27"/>
@@ -10690,8 +10925,9 @@
       <c r="AX113" s="27"/>
       <c r="AY113" s="27"/>
       <c r="AZ113" s="27"/>
-    </row>
-    <row r="114" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA113" s="27"/>
+    </row>
+    <row r="114" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>99</v>
       </c>
@@ -10701,28 +10937,28 @@
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
-      <c r="I114" s="27">
+      <c r="I114" s="27"/>
+      <c r="J114" s="27">
         <v>76.7</v>
       </c>
-      <c r="J114" s="27">
+      <c r="K114" s="27">
         <v>23.9</v>
       </c>
-      <c r="K114" s="27">
+      <c r="L114" s="27">
         <v>-350</v>
       </c>
-      <c r="L114" s="27">
+      <c r="M114" s="27">
         <v>346</v>
       </c>
-      <c r="M114" s="27">
+      <c r="N114" s="27">
         <v>73</v>
       </c>
-      <c r="N114" s="27">
+      <c r="O114" s="27">
         <v>-794</v>
       </c>
-      <c r="O114" s="27">
+      <c r="P114" s="27">
         <v>-239</v>
       </c>
-      <c r="P114" s="27"/>
       <c r="Q114" s="27"/>
       <c r="R114" s="27"/>
       <c r="S114" s="27"/>
@@ -10759,8 +10995,9 @@
       <c r="AX114" s="27"/>
       <c r="AY114" s="27"/>
       <c r="AZ114" s="27"/>
-    </row>
-    <row r="115" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA114" s="27"/>
+    </row>
+    <row r="115" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>100</v>
       </c>
@@ -10770,35 +11007,35 @@
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
-      <c r="I115" s="28">
-        <f t="shared" ref="I115:N115" si="38">SUM(I103:I114)</f>
+      <c r="I115" s="27"/>
+      <c r="J115" s="28">
+        <f t="shared" ref="J115:O115" si="38">SUM(J103:J114)</f>
         <v>1940.1999999999998</v>
       </c>
-      <c r="J115" s="28">
+      <c r="K115" s="28">
         <f t="shared" si="38"/>
         <v>2087.4</v>
       </c>
-      <c r="K115" s="28">
+      <c r="L115" s="28">
         <f t="shared" si="38"/>
         <v>1642</v>
       </c>
-      <c r="L115" s="28">
+      <c r="M115" s="28">
         <f t="shared" si="38"/>
         <v>3400</v>
       </c>
-      <c r="M115" s="28">
+      <c r="N115" s="28">
         <f t="shared" si="38"/>
         <v>4184</v>
       </c>
-      <c r="N115" s="28">
+      <c r="O115" s="28">
         <f t="shared" si="38"/>
         <v>4331</v>
       </c>
-      <c r="O115" s="28">
-        <f>SUM(O103:O114)</f>
+      <c r="P115" s="28">
+        <f>SUM(P103:P114)</f>
         <v>5137</v>
       </c>
-      <c r="P115" s="27"/>
       <c r="Q115" s="27"/>
       <c r="R115" s="27"/>
       <c r="S115" s="27"/>
@@ -10835,8 +11072,9 @@
       <c r="AX115" s="27"/>
       <c r="AY115" s="27"/>
       <c r="AZ115" s="27"/>
-    </row>
-    <row r="116" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA115" s="27"/>
+    </row>
+    <row r="116" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>101</v>
       </c>
@@ -10846,28 +11084,28 @@
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
-      <c r="I116" s="27">
+      <c r="I116" s="27"/>
+      <c r="J116" s="27">
         <v>-312.3</v>
       </c>
-      <c r="J116" s="27">
+      <c r="K116" s="27">
         <v>-478</v>
       </c>
-      <c r="K116" s="27">
+      <c r="L116" s="27">
         <v>-448</v>
       </c>
-      <c r="L116" s="27">
+      <c r="M116" s="27">
         <v>-532</v>
       </c>
-      <c r="M116" s="27">
+      <c r="N116" s="27">
         <v>-518</v>
       </c>
-      <c r="N116" s="27">
+      <c r="O116" s="27">
         <v>-859</v>
       </c>
-      <c r="O116" s="27">
+      <c r="P116" s="27">
         <v>-1067</v>
       </c>
-      <c r="P116" s="27"/>
       <c r="Q116" s="27"/>
       <c r="R116" s="27"/>
       <c r="S116" s="27"/>
@@ -10904,8 +11142,9 @@
       <c r="AX116" s="27"/>
       <c r="AY116" s="27"/>
       <c r="AZ116" s="27"/>
-    </row>
-    <row r="117" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA116" s="27"/>
+    </row>
+    <row r="117" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>102</v>
       </c>
@@ -10915,28 +11154,28 @@
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
-      <c r="I117" s="27">
+      <c r="I117" s="27"/>
+      <c r="J117" s="27">
         <v>-8.4</v>
       </c>
-      <c r="J117" s="27">
+      <c r="K117" s="27">
         <v>-12.8</v>
       </c>
-      <c r="K117" s="27">
+      <c r="L117" s="27">
         <v>-72</v>
       </c>
-      <c r="L117" s="27">
+      <c r="M117" s="27">
         <v>0</v>
       </c>
-      <c r="M117" s="27">
+      <c r="N117" s="27">
         <v>-1</v>
       </c>
-      <c r="N117" s="27">
+      <c r="O117" s="27">
         <v>-288</v>
       </c>
-      <c r="O117" s="27">
+      <c r="P117" s="27">
         <v>-229</v>
       </c>
-      <c r="P117" s="27"/>
       <c r="Q117" s="27"/>
       <c r="R117" s="27"/>
       <c r="S117" s="27"/>
@@ -10973,8 +11212,9 @@
       <c r="AX117" s="27"/>
       <c r="AY117" s="27"/>
       <c r="AZ117" s="27"/>
-    </row>
-    <row r="118" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA117" s="27"/>
+    </row>
+    <row r="118" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>103</v>
       </c>
@@ -10984,28 +11224,28 @@
       <c r="F118" s="27"/>
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
-      <c r="I118" s="27">
+      <c r="I118" s="27"/>
+      <c r="J118" s="27">
         <v>-80</v>
       </c>
-      <c r="J118" s="27">
+      <c r="K118" s="27">
         <v>-76.599999999999994</v>
       </c>
-      <c r="K118" s="27">
+      <c r="L118" s="27">
         <v>-36</v>
       </c>
-      <c r="L118" s="27">
+      <c r="M118" s="27">
         <v>-198</v>
       </c>
-      <c r="M118" s="27">
+      <c r="N118" s="27">
         <v>-165</v>
       </c>
-      <c r="N118" s="27">
+      <c r="O118" s="27">
         <v>-52</v>
       </c>
-      <c r="O118" s="27">
+      <c r="P118" s="27">
         <v>-27</v>
       </c>
-      <c r="P118" s="27"/>
       <c r="Q118" s="27"/>
       <c r="R118" s="27"/>
       <c r="S118" s="27"/>
@@ -11042,8 +11282,9 @@
       <c r="AX118" s="27"/>
       <c r="AY118" s="27"/>
       <c r="AZ118" s="27"/>
-    </row>
-    <row r="119" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA118" s="27"/>
+    </row>
+    <row r="119" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>104</v>
       </c>
@@ -11053,28 +11294,28 @@
       <c r="F119" s="27"/>
       <c r="G119" s="27"/>
       <c r="H119" s="27"/>
-      <c r="I119" s="27">
+      <c r="I119" s="27"/>
+      <c r="J119" s="27">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="J119" s="27">
+      <c r="K119" s="27">
         <v>23.5</v>
       </c>
-      <c r="K119" s="27">
+      <c r="L119" s="27">
         <v>0</v>
       </c>
-      <c r="L119" s="27">
+      <c r="M119" s="27">
         <v>3</v>
       </c>
-      <c r="M119" s="27">
+      <c r="N119" s="27">
         <v>1</v>
       </c>
-      <c r="N119" s="27">
+      <c r="O119" s="27">
         <v>0</v>
       </c>
-      <c r="O119" s="27">
+      <c r="P119" s="27">
         <v>1</v>
       </c>
-      <c r="P119" s="27"/>
       <c r="Q119" s="27"/>
       <c r="R119" s="27"/>
       <c r="S119" s="27"/>
@@ -11111,8 +11352,9 @@
       <c r="AX119" s="27"/>
       <c r="AY119" s="27"/>
       <c r="AZ119" s="27"/>
-    </row>
-    <row r="120" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA119" s="27"/>
+    </row>
+    <row r="120" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>105</v>
       </c>
@@ -11122,17 +11364,15 @@
       <c r="F120" s="27"/>
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
-      <c r="I120" s="27">
+      <c r="I120" s="27"/>
+      <c r="J120" s="27">
         <v>69.099999999999994</v>
       </c>
-      <c r="J120" s="27">
+      <c r="K120" s="27">
         <v>0.3</v>
       </c>
-      <c r="K120" s="27">
+      <c r="L120" s="27">
         <v>81</v>
-      </c>
-      <c r="L120" s="27">
-        <v>0</v>
       </c>
       <c r="M120" s="27">
         <v>0</v>
@@ -11143,7 +11383,9 @@
       <c r="O120" s="27">
         <v>0</v>
       </c>
-      <c r="P120" s="27"/>
+      <c r="P120" s="27">
+        <v>0</v>
+      </c>
       <c r="Q120" s="27"/>
       <c r="R120" s="27"/>
       <c r="S120" s="27"/>
@@ -11180,8 +11422,9 @@
       <c r="AX120" s="27"/>
       <c r="AY120" s="27"/>
       <c r="AZ120" s="27"/>
-    </row>
-    <row r="121" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA120" s="27"/>
+    </row>
+    <row r="121" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>106</v>
       </c>
@@ -11191,28 +11434,28 @@
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
-      <c r="I121" s="27">
+      <c r="I121" s="27"/>
+      <c r="J121" s="27">
         <v>69.099999999999994</v>
       </c>
-      <c r="J121" s="27">
+      <c r="K121" s="27">
         <v>35</v>
       </c>
-      <c r="K121" s="27">
+      <c r="L121" s="27">
         <v>10</v>
       </c>
-      <c r="L121" s="27">
+      <c r="M121" s="27">
         <v>6</v>
       </c>
-      <c r="M121" s="27">
+      <c r="N121" s="27">
         <v>5</v>
       </c>
-      <c r="N121" s="27">
+      <c r="O121" s="27">
         <v>0</v>
       </c>
-      <c r="O121" s="27">
+      <c r="P121" s="27">
         <v>145</v>
       </c>
-      <c r="P121" s="27"/>
       <c r="Q121" s="27"/>
       <c r="R121" s="27"/>
       <c r="S121" s="27"/>
@@ -11249,8 +11492,9 @@
       <c r="AX121" s="27"/>
       <c r="AY121" s="27"/>
       <c r="AZ121" s="27"/>
-    </row>
-    <row r="122" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA121" s="27"/>
+    </row>
+    <row r="122" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>107</v>
       </c>
@@ -11260,28 +11504,28 @@
       <c r="F122" s="27"/>
       <c r="G122" s="27"/>
       <c r="H122" s="27"/>
-      <c r="I122" s="27">
-        <v>0</v>
-      </c>
+      <c r="I122" s="27"/>
       <c r="J122" s="27">
         <v>0</v>
       </c>
       <c r="K122" s="27">
+        <v>0</v>
+      </c>
+      <c r="L122" s="27">
         <v>11</v>
       </c>
-      <c r="L122" s="27">
+      <c r="M122" s="27">
         <v>6</v>
       </c>
-      <c r="M122" s="27">
+      <c r="N122" s="27">
         <v>32</v>
       </c>
-      <c r="N122" s="27">
+      <c r="O122" s="27">
         <v>93</v>
       </c>
-      <c r="O122" s="27">
+      <c r="P122" s="27">
         <v>-49</v>
       </c>
-      <c r="P122" s="27"/>
       <c r="Q122" s="27"/>
       <c r="R122" s="27"/>
       <c r="S122" s="27"/>
@@ -11318,8 +11562,9 @@
       <c r="AX122" s="27"/>
       <c r="AY122" s="27"/>
       <c r="AZ122" s="27"/>
-    </row>
-    <row r="123" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA122" s="27"/>
+    </row>
+    <row r="123" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>108</v>
       </c>
@@ -11329,28 +11574,28 @@
       <c r="F123" s="27"/>
       <c r="G123" s="27"/>
       <c r="H123" s="27"/>
-      <c r="I123" s="27">
+      <c r="I123" s="27"/>
+      <c r="J123" s="27">
         <v>27.6</v>
       </c>
-      <c r="J123" s="27">
+      <c r="K123" s="27">
         <v>37.5</v>
       </c>
-      <c r="K123" s="27">
+      <c r="L123" s="27">
         <v>21</v>
       </c>
-      <c r="L123" s="27">
+      <c r="M123" s="27">
         <v>47</v>
       </c>
-      <c r="M123" s="27">
+      <c r="N123" s="27">
         <v>67</v>
       </c>
-      <c r="N123" s="27">
+      <c r="O123" s="27">
         <v>112</v>
       </c>
-      <c r="O123" s="27">
+      <c r="P123" s="27">
         <v>39</v>
       </c>
-      <c r="P123" s="27"/>
       <c r="Q123" s="27"/>
       <c r="R123" s="27"/>
       <c r="S123" s="27"/>
@@ -11387,8 +11632,9 @@
       <c r="AX123" s="27"/>
       <c r="AY123" s="27"/>
       <c r="AZ123" s="27"/>
-    </row>
-    <row r="124" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA123" s="27"/>
+    </row>
+    <row r="124" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>109</v>
       </c>
@@ -11398,35 +11644,35 @@
       <c r="F124" s="27"/>
       <c r="G124" s="27"/>
       <c r="H124" s="27"/>
-      <c r="I124" s="28">
-        <f t="shared" ref="I124:N124" si="39">SUM(I116:I123)</f>
+      <c r="I124" s="27"/>
+      <c r="J124" s="28">
+        <f t="shared" ref="J124:O124" si="39">SUM(J116:J123)</f>
         <v>-239.29999999999998</v>
       </c>
-      <c r="J124" s="28">
+      <c r="K124" s="28">
         <f t="shared" si="39"/>
         <v>-471.1</v>
       </c>
-      <c r="K124" s="28">
+      <c r="L124" s="28">
         <f t="shared" si="39"/>
         <v>-433</v>
       </c>
-      <c r="L124" s="28">
+      <c r="M124" s="28">
         <f t="shared" si="39"/>
         <v>-668</v>
       </c>
-      <c r="M124" s="28">
+      <c r="N124" s="28">
         <f t="shared" si="39"/>
         <v>-579</v>
       </c>
-      <c r="N124" s="28">
+      <c r="O124" s="28">
         <f t="shared" si="39"/>
         <v>-994</v>
       </c>
-      <c r="O124" s="28">
-        <f>SUM(O116:O123)</f>
+      <c r="P124" s="28">
+        <f>SUM(P116:P123)</f>
         <v>-1187</v>
       </c>
-      <c r="P124" s="27"/>
       <c r="Q124" s="27"/>
       <c r="R124" s="27"/>
       <c r="S124" s="27"/>
@@ -11463,8 +11709,9 @@
       <c r="AX124" s="27"/>
       <c r="AY124" s="27"/>
       <c r="AZ124" s="27"/>
-    </row>
-    <row r="125" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA124" s="27"/>
+    </row>
+    <row r="125" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>110</v>
       </c>
@@ -11474,28 +11721,28 @@
       <c r="F125" s="27"/>
       <c r="G125" s="27"/>
       <c r="H125" s="27"/>
-      <c r="I125" s="27">
+      <c r="I125" s="27"/>
+      <c r="J125" s="27">
         <v>-958.3</v>
       </c>
-      <c r="J125" s="27">
+      <c r="K125" s="27">
         <v>-486.6</v>
-      </c>
-      <c r="K125" s="27">
-        <v>-490</v>
       </c>
       <c r="L125" s="27">
         <v>-490</v>
       </c>
       <c r="M125" s="27">
+        <v>-490</v>
+      </c>
+      <c r="N125" s="27">
         <v>-852</v>
       </c>
-      <c r="N125" s="27">
+      <c r="O125" s="27">
         <v>-1386</v>
       </c>
-      <c r="O125" s="27">
+      <c r="P125" s="27">
         <v>-2705</v>
       </c>
-      <c r="P125" s="27"/>
       <c r="Q125" s="27"/>
       <c r="R125" s="27"/>
       <c r="S125" s="27"/>
@@ -11532,8 +11779,9 @@
       <c r="AX125" s="27"/>
       <c r="AY125" s="27"/>
       <c r="AZ125" s="27"/>
-    </row>
-    <row r="126" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA125" s="27"/>
+    </row>
+    <row r="126" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>111</v>
       </c>
@@ -11543,28 +11791,28 @@
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
-      <c r="I126" s="27">
+      <c r="I126" s="27"/>
+      <c r="J126" s="27">
         <v>-180.7</v>
       </c>
-      <c r="J126" s="27">
+      <c r="K126" s="27">
         <v>-202.8</v>
       </c>
-      <c r="K126" s="27">
+      <c r="L126" s="27">
         <v>-199</v>
       </c>
-      <c r="L126" s="27">
+      <c r="M126" s="27">
         <v>-212</v>
       </c>
-      <c r="M126" s="27">
+      <c r="N126" s="27">
         <v>-261</v>
       </c>
-      <c r="N126" s="27">
+      <c r="O126" s="27">
         <v>-277</v>
       </c>
-      <c r="O126" s="27">
+      <c r="P126" s="27">
         <v>-305</v>
       </c>
-      <c r="P126" s="27"/>
       <c r="Q126" s="27"/>
       <c r="R126" s="27"/>
       <c r="S126" s="27"/>
@@ -11601,8 +11849,9 @@
       <c r="AX126" s="27"/>
       <c r="AY126" s="27"/>
       <c r="AZ126" s="27"/>
-    </row>
-    <row r="127" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA126" s="27"/>
+    </row>
+    <row r="127" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>112</v>
       </c>
@@ -11612,28 +11861,28 @@
       <c r="F127" s="27"/>
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
-      <c r="I127" s="27">
+      <c r="I127" s="27"/>
+      <c r="J127" s="27">
         <v>-59.7</v>
       </c>
-      <c r="J127" s="27">
+      <c r="K127" s="27">
         <v>-53.1</v>
       </c>
-      <c r="K127" s="27">
+      <c r="L127" s="27">
         <v>-122</v>
       </c>
-      <c r="L127" s="27">
+      <c r="M127" s="27">
         <v>-158</v>
       </c>
-      <c r="M127" s="27">
+      <c r="N127" s="27">
         <v>-123</v>
       </c>
-      <c r="N127" s="27">
+      <c r="O127" s="27">
         <v>-130</v>
       </c>
-      <c r="O127" s="27">
+      <c r="P127" s="27">
         <v>-37</v>
       </c>
-      <c r="P127" s="27"/>
       <c r="Q127" s="27"/>
       <c r="R127" s="27"/>
       <c r="S127" s="27"/>
@@ -11670,8 +11919,9 @@
       <c r="AX127" s="27"/>
       <c r="AY127" s="27"/>
       <c r="AZ127" s="27"/>
-    </row>
-    <row r="128" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA127" s="27"/>
+    </row>
+    <row r="128" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>113</v>
       </c>
@@ -11681,17 +11931,15 @@
       <c r="F128" s="27"/>
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
-      <c r="I128" s="27">
+      <c r="I128" s="27"/>
+      <c r="J128" s="27">
         <v>0.2</v>
       </c>
-      <c r="J128" s="27">
+      <c r="K128" s="27">
         <v>0</v>
       </c>
-      <c r="K128" s="27">
+      <c r="L128" s="27">
         <v>8</v>
-      </c>
-      <c r="L128" s="27">
-        <v>0</v>
       </c>
       <c r="M128" s="27">
         <v>0</v>
@@ -11702,7 +11950,9 @@
       <c r="O128" s="27">
         <v>0</v>
       </c>
-      <c r="P128" s="27"/>
+      <c r="P128" s="27">
+        <v>0</v>
+      </c>
       <c r="Q128" s="27"/>
       <c r="R128" s="27"/>
       <c r="S128" s="27"/>
@@ -11739,8 +11989,9 @@
       <c r="AX128" s="27"/>
       <c r="AY128" s="27"/>
       <c r="AZ128" s="27"/>
-    </row>
-    <row r="129" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA128" s="27"/>
+    </row>
+    <row r="129" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>114</v>
       </c>
@@ -11750,28 +12001,28 @@
       <c r="F129" s="27"/>
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
-      <c r="I129" s="27">
+      <c r="I129" s="27"/>
+      <c r="J129" s="27">
         <v>-1.8</v>
       </c>
-      <c r="J129" s="27">
+      <c r="K129" s="27">
         <v>-0.3</v>
-      </c>
-      <c r="K129" s="27">
-        <v>-8</v>
       </c>
       <c r="L129" s="27">
         <v>-8</v>
       </c>
       <c r="M129" s="27">
+        <v>-8</v>
+      </c>
+      <c r="N129" s="27">
         <v>0</v>
-      </c>
-      <c r="N129" s="27">
-        <v>-1</v>
       </c>
       <c r="O129" s="27">
         <v>-1</v>
       </c>
-      <c r="P129" s="27"/>
+      <c r="P129" s="27">
+        <v>-1</v>
+      </c>
       <c r="Q129" s="27"/>
       <c r="R129" s="27"/>
       <c r="S129" s="27"/>
@@ -11808,8 +12059,9 @@
       <c r="AX129" s="27"/>
       <c r="AY129" s="27"/>
       <c r="AZ129" s="27"/>
-    </row>
-    <row r="130" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA129" s="27"/>
+    </row>
+    <row r="130" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>98</v>
       </c>
@@ -11819,9 +12071,7 @@
       <c r="F130" s="27"/>
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
-      <c r="I130" s="27">
-        <v>0</v>
-      </c>
+      <c r="I130" s="27"/>
       <c r="J130" s="27">
         <v>0</v>
       </c>
@@ -11838,9 +12088,11 @@
         <v>0</v>
       </c>
       <c r="O130" s="27">
+        <v>0</v>
+      </c>
+      <c r="P130" s="27">
         <v>2</v>
       </c>
-      <c r="P130" s="27"/>
       <c r="Q130" s="27"/>
       <c r="R130" s="27"/>
       <c r="S130" s="27"/>
@@ -11877,8 +12129,9 @@
       <c r="AX130" s="27"/>
       <c r="AY130" s="27"/>
       <c r="AZ130" s="27"/>
-    </row>
-    <row r="131" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA130" s="27"/>
+    </row>
+    <row r="131" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>115</v>
       </c>
@@ -11888,35 +12141,35 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
-      <c r="I131" s="28">
-        <f t="shared" ref="I131:N131" si="40">SUM(I125:I130)</f>
+      <c r="I131" s="27"/>
+      <c r="J131" s="28">
+        <f t="shared" ref="J131:O131" si="40">SUM(J125:J130)</f>
         <v>-1200.3</v>
       </c>
-      <c r="J131" s="28">
+      <c r="K131" s="28">
         <f t="shared" si="40"/>
         <v>-742.80000000000007</v>
       </c>
-      <c r="K131" s="28">
+      <c r="L131" s="28">
         <f t="shared" si="40"/>
         <v>-811</v>
       </c>
-      <c r="L131" s="28">
+      <c r="M131" s="28">
         <f t="shared" si="40"/>
         <v>-868</v>
       </c>
-      <c r="M131" s="28">
+      <c r="N131" s="28">
         <f t="shared" si="40"/>
         <v>-1236</v>
       </c>
-      <c r="N131" s="28">
+      <c r="O131" s="28">
         <f t="shared" si="40"/>
         <v>-1794</v>
       </c>
-      <c r="O131" s="28">
-        <f>SUM(O125:O130)</f>
+      <c r="P131" s="28">
+        <f>SUM(P125:P130)</f>
         <v>-3046</v>
       </c>
-      <c r="P131" s="27"/>
       <c r="Q131" s="27"/>
       <c r="R131" s="27"/>
       <c r="S131" s="27"/>
@@ -11953,8 +12206,9 @@
       <c r="AX131" s="27"/>
       <c r="AY131" s="27"/>
       <c r="AZ131" s="27"/>
-    </row>
-    <row r="132" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA131" s="27"/>
+    </row>
+    <row r="132" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>116</v>
       </c>
@@ -11964,28 +12218,28 @@
       <c r="F132" s="27"/>
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
-      <c r="I132" s="27">
+      <c r="I132" s="27"/>
+      <c r="J132" s="27">
         <v>52.8</v>
       </c>
-      <c r="J132" s="27">
+      <c r="K132" s="27">
         <v>33.1</v>
       </c>
-      <c r="K132" s="27">
+      <c r="L132" s="27">
         <v>-55</v>
       </c>
-      <c r="L132" s="27">
+      <c r="M132" s="27">
         <v>110</v>
       </c>
-      <c r="M132" s="27">
+      <c r="N132" s="27">
         <v>159</v>
       </c>
-      <c r="N132" s="27">
+      <c r="O132" s="27">
         <v>-138</v>
       </c>
-      <c r="O132" s="27">
+      <c r="P132" s="27">
         <v>119</v>
       </c>
-      <c r="P132" s="27"/>
       <c r="Q132" s="27"/>
       <c r="R132" s="27"/>
       <c r="S132" s="27"/>
@@ -12022,8 +12276,9 @@
       <c r="AX132" s="27"/>
       <c r="AY132" s="27"/>
       <c r="AZ132" s="27"/>
-    </row>
-    <row r="133" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA132" s="27"/>
+    </row>
+    <row r="133" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>117</v>
       </c>
@@ -12033,35 +12288,35 @@
       <c r="F133" s="27"/>
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
-      <c r="I133" s="27">
-        <f>I115+I124+I131+I132+0.1</f>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27">
+        <f>J115+J124+J131+J132+0.1</f>
         <v>553.49999999999989</v>
       </c>
-      <c r="J133" s="27">
-        <f t="shared" ref="J133:K133" si="41">J115+J124+J131+J132</f>
+      <c r="K133" s="27">
+        <f t="shared" ref="K133:L133" si="41">K115+K124+K131+K132</f>
         <v>906.60000000000014</v>
       </c>
-      <c r="K133" s="27">
+      <c r="L133" s="27">
         <f t="shared" si="41"/>
         <v>343</v>
       </c>
-      <c r="L133" s="27">
-        <f>L115+L124+L131+L132+1</f>
-        <v>1975</v>
-      </c>
       <c r="M133" s="27">
         <f>M115+M124+M131+M132+1</f>
+        <v>1975</v>
+      </c>
+      <c r="N133" s="27">
+        <f>N115+N124+N131+N132+1</f>
         <v>2529</v>
-      </c>
-      <c r="N133" s="27">
-        <f>N115+N124+N131+N132</f>
-        <v>1405</v>
       </c>
       <c r="O133" s="27">
         <f>O115+O124+O131+O132</f>
+        <v>1405</v>
+      </c>
+      <c r="P133" s="27">
+        <f>P115+P124+P131+P132</f>
         <v>1023</v>
       </c>
-      <c r="P133" s="27"/>
       <c r="Q133" s="27"/>
       <c r="R133" s="27"/>
       <c r="S133" s="27"/>
@@ -12098,8 +12353,9 @@
       <c r="AX133" s="27"/>
       <c r="AY133" s="27"/>
       <c r="AZ133" s="27"/>
-    </row>
-    <row r="134" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA133" s="27"/>
+    </row>
+    <row r="134" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C134" s="27"/>
       <c r="D134" s="27"/>
       <c r="E134" s="27"/>
@@ -12150,8 +12406,9 @@
       <c r="AX134" s="27"/>
       <c r="AY134" s="27"/>
       <c r="AZ134" s="27"/>
-    </row>
-    <row r="135" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA134" s="27"/>
+    </row>
+    <row r="135" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>118</v>
       </c>
@@ -12161,28 +12418,28 @@
       <c r="F135" s="27"/>
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
-      <c r="I135" s="27">
+      <c r="I135" s="27"/>
+      <c r="J135" s="27">
         <v>2911.7</v>
       </c>
-      <c r="J135" s="27">
+      <c r="K135" s="27">
         <v>3465.1</v>
       </c>
-      <c r="K135" s="27">
+      <c r="L135" s="27">
         <v>4372</v>
       </c>
-      <c r="L135" s="27">
+      <c r="M135" s="27">
         <v>4717</v>
       </c>
-      <c r="M135" s="27">
+      <c r="N135" s="27">
         <v>6695</v>
       </c>
-      <c r="N135" s="27">
+      <c r="O135" s="27">
         <v>9223</v>
       </c>
-      <c r="O135" s="27">
+      <c r="P135" s="27">
         <v>10625</v>
       </c>
-      <c r="P135" s="27"/>
       <c r="Q135" s="27"/>
       <c r="R135" s="27"/>
       <c r="S135" s="27"/>
@@ -12219,8 +12476,9 @@
       <c r="AX135" s="27"/>
       <c r="AY135" s="27"/>
       <c r="AZ135" s="27"/>
-    </row>
-    <row r="136" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA135" s="27"/>
+    </row>
+    <row r="136" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>119</v>
       </c>
@@ -12230,32 +12488,32 @@
       <c r="F136" s="27"/>
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
-      <c r="I136" s="27">
-        <f>J135</f>
-        <v>3465.1</v>
-      </c>
+      <c r="I136" s="27"/>
       <c r="J136" s="27">
         <f>K135</f>
-        <v>4372</v>
+        <v>3465.1</v>
       </c>
       <c r="K136" s="27">
         <f>L135</f>
-        <v>4717</v>
+        <v>4372</v>
       </c>
       <c r="L136" s="27">
         <f>M135</f>
+        <v>4717</v>
+      </c>
+      <c r="M136" s="27">
+        <f>N135</f>
         <v>6695</v>
       </c>
-      <c r="M136" s="27">
+      <c r="N136" s="27">
         <v>9223</v>
       </c>
-      <c r="N136" s="27">
+      <c r="O136" s="27">
         <v>10625</v>
       </c>
-      <c r="O136" s="27">
+      <c r="P136" s="27">
         <v>11642</v>
       </c>
-      <c r="P136" s="27"/>
       <c r="Q136" s="27"/>
       <c r="R136" s="27"/>
       <c r="S136" s="27"/>
@@ -12292,8 +12550,9 @@
       <c r="AX136" s="27"/>
       <c r="AY136" s="27"/>
       <c r="AZ136" s="27"/>
-    </row>
-    <row r="137" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA136" s="27"/>
+    </row>
+    <row r="137" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C137" s="27"/>
       <c r="D137" s="27"/>
       <c r="E137" s="27"/>
@@ -12344,8 +12603,9 @@
       <c r="AX137" s="27"/>
       <c r="AY137" s="27"/>
       <c r="AZ137" s="27"/>
-    </row>
-    <row r="138" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA137" s="27"/>
+    </row>
+    <row r="138" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C138" s="27"/>
       <c r="D138" s="27"/>
       <c r="E138" s="27"/>
@@ -12396,8 +12656,9 @@
       <c r="AX138" s="27"/>
       <c r="AY138" s="27"/>
       <c r="AZ138" s="27"/>
-    </row>
-    <row r="139" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA138" s="27"/>
+    </row>
+    <row r="139" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C139" s="27"/>
       <c r="D139" s="27"/>
       <c r="E139" s="27"/>
@@ -12448,8 +12709,9 @@
       <c r="AX139" s="27"/>
       <c r="AY139" s="27"/>
       <c r="AZ139" s="27"/>
-    </row>
-    <row r="140" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA139" s="27"/>
+    </row>
+    <row r="140" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C140" s="27"/>
       <c r="D140" s="27"/>
       <c r="E140" s="27"/>
@@ -12500,8 +12762,9 @@
       <c r="AX140" s="27"/>
       <c r="AY140" s="27"/>
       <c r="AZ140" s="27"/>
-    </row>
-    <row r="141" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA140" s="27"/>
+    </row>
+    <row r="141" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C141" s="27"/>
       <c r="D141" s="27"/>
       <c r="E141" s="27"/>
@@ -12552,8 +12815,9 @@
       <c r="AX141" s="27"/>
       <c r="AY141" s="27"/>
       <c r="AZ141" s="27"/>
-    </row>
-    <row r="142" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA141" s="27"/>
+    </row>
+    <row r="142" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C142" s="27"/>
       <c r="D142" s="27"/>
       <c r="E142" s="27"/>
@@ -12604,8 +12868,9 @@
       <c r="AX142" s="27"/>
       <c r="AY142" s="27"/>
       <c r="AZ142" s="27"/>
-    </row>
-    <row r="143" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA142" s="27"/>
+    </row>
+    <row r="143" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C143" s="27"/>
       <c r="D143" s="27"/>
       <c r="E143" s="27"/>
@@ -12656,8 +12921,9 @@
       <c r="AX143" s="27"/>
       <c r="AY143" s="27"/>
       <c r="AZ143" s="27"/>
-    </row>
-    <row r="144" spans="2:52" x14ac:dyDescent="0.25">
+      <c r="BA143" s="27"/>
+    </row>
+    <row r="144" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C144" s="27"/>
       <c r="D144" s="27"/>
       <c r="E144" s="27"/>
@@ -12708,8 +12974,9 @@
       <c r="AX144" s="27"/>
       <c r="AY144" s="27"/>
       <c r="AZ144" s="27"/>
-    </row>
-    <row r="145" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA144" s="27"/>
+    </row>
+    <row r="145" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C145" s="27"/>
       <c r="D145" s="27"/>
       <c r="E145" s="27"/>
@@ -12760,8 +13027,9 @@
       <c r="AX145" s="27"/>
       <c r="AY145" s="27"/>
       <c r="AZ145" s="27"/>
-    </row>
-    <row r="146" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA145" s="27"/>
+    </row>
+    <row r="146" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C146" s="27"/>
       <c r="D146" s="27"/>
       <c r="E146" s="27"/>
@@ -12812,8 +13080,9 @@
       <c r="AX146" s="27"/>
       <c r="AY146" s="27"/>
       <c r="AZ146" s="27"/>
-    </row>
-    <row r="147" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA146" s="27"/>
+    </row>
+    <row r="147" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C147" s="27"/>
       <c r="D147" s="27"/>
       <c r="E147" s="27"/>
@@ -12864,8 +13133,9 @@
       <c r="AX147" s="27"/>
       <c r="AY147" s="27"/>
       <c r="AZ147" s="27"/>
-    </row>
-    <row r="148" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA147" s="27"/>
+    </row>
+    <row r="148" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C148" s="27"/>
       <c r="D148" s="27"/>
       <c r="E148" s="27"/>
@@ -12916,8 +13186,9 @@
       <c r="AX148" s="27"/>
       <c r="AY148" s="27"/>
       <c r="AZ148" s="27"/>
-    </row>
-    <row r="149" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA148" s="27"/>
+    </row>
+    <row r="149" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C149" s="27"/>
       <c r="D149" s="27"/>
       <c r="E149" s="27"/>
@@ -12968,8 +13239,9 @@
       <c r="AX149" s="27"/>
       <c r="AY149" s="27"/>
       <c r="AZ149" s="27"/>
-    </row>
-    <row r="150" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA149" s="27"/>
+    </row>
+    <row r="150" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C150" s="27"/>
       <c r="D150" s="27"/>
       <c r="E150" s="27"/>
@@ -13020,8 +13292,9 @@
       <c r="AX150" s="27"/>
       <c r="AY150" s="27"/>
       <c r="AZ150" s="27"/>
-    </row>
-    <row r="151" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA150" s="27"/>
+    </row>
+    <row r="151" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C151" s="27"/>
       <c r="D151" s="27"/>
       <c r="E151" s="27"/>
@@ -13072,8 +13345,9 @@
       <c r="AX151" s="27"/>
       <c r="AY151" s="27"/>
       <c r="AZ151" s="27"/>
-    </row>
-    <row r="152" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA151" s="27"/>
+    </row>
+    <row r="152" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C152" s="27"/>
       <c r="D152" s="27"/>
       <c r="E152" s="27"/>
@@ -13124,8 +13398,9 @@
       <c r="AX152" s="27"/>
       <c r="AY152" s="27"/>
       <c r="AZ152" s="27"/>
-    </row>
-    <row r="153" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA152" s="27"/>
+    </row>
+    <row r="153" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C153" s="27"/>
       <c r="D153" s="27"/>
       <c r="E153" s="27"/>
@@ -13176,8 +13451,9 @@
       <c r="AX153" s="27"/>
       <c r="AY153" s="27"/>
       <c r="AZ153" s="27"/>
-    </row>
-    <row r="154" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA153" s="27"/>
+    </row>
+    <row r="154" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C154" s="27"/>
       <c r="D154" s="27"/>
       <c r="E154" s="27"/>
@@ -13228,8 +13504,9 @@
       <c r="AX154" s="27"/>
       <c r="AY154" s="27"/>
       <c r="AZ154" s="27"/>
-    </row>
-    <row r="155" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA154" s="27"/>
+    </row>
+    <row r="155" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C155" s="27"/>
       <c r="D155" s="27"/>
       <c r="E155" s="27"/>
@@ -13280,8 +13557,9 @@
       <c r="AX155" s="27"/>
       <c r="AY155" s="27"/>
       <c r="AZ155" s="27"/>
-    </row>
-    <row r="156" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA155" s="27"/>
+    </row>
+    <row r="156" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C156" s="27"/>
       <c r="D156" s="27"/>
       <c r="E156" s="27"/>
@@ -13332,8 +13610,9 @@
       <c r="AX156" s="27"/>
       <c r="AY156" s="27"/>
       <c r="AZ156" s="27"/>
-    </row>
-    <row r="157" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA156" s="27"/>
+    </row>
+    <row r="157" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C157" s="27"/>
       <c r="D157" s="27"/>
       <c r="E157" s="27"/>
@@ -13384,8 +13663,9 @@
       <c r="AX157" s="27"/>
       <c r="AY157" s="27"/>
       <c r="AZ157" s="27"/>
-    </row>
-    <row r="158" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA157" s="27"/>
+    </row>
+    <row r="158" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C158" s="27"/>
       <c r="D158" s="27"/>
       <c r="E158" s="27"/>
@@ -13436,8 +13716,9 @@
       <c r="AX158" s="27"/>
       <c r="AY158" s="27"/>
       <c r="AZ158" s="27"/>
-    </row>
-    <row r="159" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA158" s="27"/>
+    </row>
+    <row r="159" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C159" s="27"/>
       <c r="D159" s="27"/>
       <c r="E159" s="27"/>
@@ -13488,8 +13769,9 @@
       <c r="AX159" s="27"/>
       <c r="AY159" s="27"/>
       <c r="AZ159" s="27"/>
-    </row>
-    <row r="160" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA159" s="27"/>
+    </row>
+    <row r="160" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C160" s="27"/>
       <c r="D160" s="27"/>
       <c r="E160" s="27"/>
@@ -13540,8 +13822,9 @@
       <c r="AX160" s="27"/>
       <c r="AY160" s="27"/>
       <c r="AZ160" s="27"/>
-    </row>
-    <row r="161" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA160" s="27"/>
+    </row>
+    <row r="161" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C161" s="27"/>
       <c r="D161" s="27"/>
       <c r="E161" s="27"/>
@@ -13592,8 +13875,9 @@
       <c r="AX161" s="27"/>
       <c r="AY161" s="27"/>
       <c r="AZ161" s="27"/>
-    </row>
-    <row r="162" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA161" s="27"/>
+    </row>
+    <row r="162" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C162" s="27"/>
       <c r="D162" s="27"/>
       <c r="E162" s="27"/>
@@ -13644,8 +13928,9 @@
       <c r="AX162" s="27"/>
       <c r="AY162" s="27"/>
       <c r="AZ162" s="27"/>
-    </row>
-    <row r="163" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA162" s="27"/>
+    </row>
+    <row r="163" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C163" s="27"/>
       <c r="D163" s="27"/>
       <c r="E163" s="27"/>
@@ -13696,8 +13981,9 @@
       <c r="AX163" s="27"/>
       <c r="AY163" s="27"/>
       <c r="AZ163" s="27"/>
-    </row>
-    <row r="164" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA163" s="27"/>
+    </row>
+    <row r="164" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C164" s="27"/>
       <c r="D164" s="27"/>
       <c r="E164" s="27"/>
@@ -13748,8 +14034,9 @@
       <c r="AX164" s="27"/>
       <c r="AY164" s="27"/>
       <c r="AZ164" s="27"/>
-    </row>
-    <row r="165" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA164" s="27"/>
+    </row>
+    <row r="165" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C165" s="27"/>
       <c r="D165" s="27"/>
       <c r="E165" s="27"/>
@@ -13800,8 +14087,9 @@
       <c r="AX165" s="27"/>
       <c r="AY165" s="27"/>
       <c r="AZ165" s="27"/>
-    </row>
-    <row r="166" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA165" s="27"/>
+    </row>
+    <row r="166" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C166" s="27"/>
       <c r="D166" s="27"/>
       <c r="E166" s="27"/>
@@ -13852,8 +14140,9 @@
       <c r="AX166" s="27"/>
       <c r="AY166" s="27"/>
       <c r="AZ166" s="27"/>
-    </row>
-    <row r="167" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA166" s="27"/>
+    </row>
+    <row r="167" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C167" s="27"/>
       <c r="D167" s="27"/>
       <c r="E167" s="27"/>
@@ -13904,8 +14193,9 @@
       <c r="AX167" s="27"/>
       <c r="AY167" s="27"/>
       <c r="AZ167" s="27"/>
-    </row>
-    <row r="168" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA167" s="27"/>
+    </row>
+    <row r="168" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C168" s="27"/>
       <c r="D168" s="27"/>
       <c r="E168" s="27"/>
@@ -13956,8 +14246,9 @@
       <c r="AX168" s="27"/>
       <c r="AY168" s="27"/>
       <c r="AZ168" s="27"/>
-    </row>
-    <row r="169" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA168" s="27"/>
+    </row>
+    <row r="169" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C169" s="27"/>
       <c r="D169" s="27"/>
       <c r="E169" s="27"/>
@@ -14008,8 +14299,9 @@
       <c r="AX169" s="27"/>
       <c r="AY169" s="27"/>
       <c r="AZ169" s="27"/>
-    </row>
-    <row r="170" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA169" s="27"/>
+    </row>
+    <row r="170" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C170" s="27"/>
       <c r="D170" s="27"/>
       <c r="E170" s="27"/>
@@ -14060,8 +14352,9 @@
       <c r="AX170" s="27"/>
       <c r="AY170" s="27"/>
       <c r="AZ170" s="27"/>
-    </row>
-    <row r="171" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA170" s="27"/>
+    </row>
+    <row r="171" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C171" s="27"/>
       <c r="D171" s="27"/>
       <c r="E171" s="27"/>
@@ -14112,8 +14405,9 @@
       <c r="AX171" s="27"/>
       <c r="AY171" s="27"/>
       <c r="AZ171" s="27"/>
-    </row>
-    <row r="172" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA171" s="27"/>
+    </row>
+    <row r="172" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C172" s="27"/>
       <c r="D172" s="27"/>
       <c r="E172" s="27"/>
@@ -14164,8 +14458,9 @@
       <c r="AX172" s="27"/>
       <c r="AY172" s="27"/>
       <c r="AZ172" s="27"/>
-    </row>
-    <row r="173" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA172" s="27"/>
+    </row>
+    <row r="173" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C173" s="27"/>
       <c r="D173" s="27"/>
       <c r="E173" s="27"/>
@@ -14216,8 +14511,9 @@
       <c r="AX173" s="27"/>
       <c r="AY173" s="27"/>
       <c r="AZ173" s="27"/>
-    </row>
-    <row r="174" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA173" s="27"/>
+    </row>
+    <row r="174" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C174" s="27"/>
       <c r="D174" s="27"/>
       <c r="E174" s="27"/>
@@ -14268,8 +14564,9 @@
       <c r="AX174" s="27"/>
       <c r="AY174" s="27"/>
       <c r="AZ174" s="27"/>
-    </row>
-    <row r="175" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA174" s="27"/>
+    </row>
+    <row r="175" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C175" s="27"/>
       <c r="D175" s="27"/>
       <c r="E175" s="27"/>
@@ -14320,8 +14617,9 @@
       <c r="AX175" s="27"/>
       <c r="AY175" s="27"/>
       <c r="AZ175" s="27"/>
-    </row>
-    <row r="176" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA175" s="27"/>
+    </row>
+    <row r="176" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C176" s="27"/>
       <c r="D176" s="27"/>
       <c r="E176" s="27"/>
@@ -14372,8 +14670,9 @@
       <c r="AX176" s="27"/>
       <c r="AY176" s="27"/>
       <c r="AZ176" s="27"/>
-    </row>
-    <row r="177" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA176" s="27"/>
+    </row>
+    <row r="177" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C177" s="27"/>
       <c r="D177" s="27"/>
       <c r="E177" s="27"/>
@@ -14424,8 +14723,9 @@
       <c r="AX177" s="27"/>
       <c r="AY177" s="27"/>
       <c r="AZ177" s="27"/>
-    </row>
-    <row r="178" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA177" s="27"/>
+    </row>
+    <row r="178" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C178" s="27"/>
       <c r="D178" s="27"/>
       <c r="E178" s="27"/>
@@ -14476,8 +14776,9 @@
       <c r="AX178" s="27"/>
       <c r="AY178" s="27"/>
       <c r="AZ178" s="27"/>
-    </row>
-    <row r="179" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA178" s="27"/>
+    </row>
+    <row r="179" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C179" s="27"/>
       <c r="D179" s="27"/>
       <c r="E179" s="27"/>
@@ -14528,8 +14829,9 @@
       <c r="AX179" s="27"/>
       <c r="AY179" s="27"/>
       <c r="AZ179" s="27"/>
-    </row>
-    <row r="180" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA179" s="27"/>
+    </row>
+    <row r="180" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C180" s="27"/>
       <c r="D180" s="27"/>
       <c r="E180" s="27"/>
@@ -14580,8 +14882,9 @@
       <c r="AX180" s="27"/>
       <c r="AY180" s="27"/>
       <c r="AZ180" s="27"/>
-    </row>
-    <row r="181" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA180" s="27"/>
+    </row>
+    <row r="181" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C181" s="27"/>
       <c r="D181" s="27"/>
       <c r="E181" s="27"/>
@@ -14632,8 +14935,9 @@
       <c r="AX181" s="27"/>
       <c r="AY181" s="27"/>
       <c r="AZ181" s="27"/>
-    </row>
-    <row r="182" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA181" s="27"/>
+    </row>
+    <row r="182" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C182" s="27"/>
       <c r="D182" s="27"/>
       <c r="E182" s="27"/>
@@ -14684,8 +14988,9 @@
       <c r="AX182" s="27"/>
       <c r="AY182" s="27"/>
       <c r="AZ182" s="27"/>
-    </row>
-    <row r="183" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA182" s="27"/>
+    </row>
+    <row r="183" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C183" s="27"/>
       <c r="D183" s="27"/>
       <c r="E183" s="27"/>
@@ -14736,8 +15041,9 @@
       <c r="AX183" s="27"/>
       <c r="AY183" s="27"/>
       <c r="AZ183" s="27"/>
-    </row>
-    <row r="184" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA183" s="27"/>
+    </row>
+    <row r="184" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C184" s="27"/>
       <c r="D184" s="27"/>
       <c r="E184" s="27"/>
@@ -14788,8 +15094,9 @@
       <c r="AX184" s="27"/>
       <c r="AY184" s="27"/>
       <c r="AZ184" s="27"/>
-    </row>
-    <row r="185" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA184" s="27"/>
+    </row>
+    <row r="185" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C185" s="27"/>
       <c r="D185" s="27"/>
       <c r="E185" s="27"/>
@@ -14840,8 +15147,9 @@
       <c r="AX185" s="27"/>
       <c r="AY185" s="27"/>
       <c r="AZ185" s="27"/>
-    </row>
-    <row r="186" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA185" s="27"/>
+    </row>
+    <row r="186" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C186" s="27"/>
       <c r="D186" s="27"/>
       <c r="E186" s="27"/>
@@ -14892,8 +15200,9 @@
       <c r="AX186" s="27"/>
       <c r="AY186" s="27"/>
       <c r="AZ186" s="27"/>
-    </row>
-    <row r="187" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA186" s="27"/>
+    </row>
+    <row r="187" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C187" s="27"/>
       <c r="D187" s="27"/>
       <c r="E187" s="27"/>
@@ -14944,8 +15253,9 @@
       <c r="AX187" s="27"/>
       <c r="AY187" s="27"/>
       <c r="AZ187" s="27"/>
-    </row>
-    <row r="188" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA187" s="27"/>
+    </row>
+    <row r="188" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C188" s="27"/>
       <c r="D188" s="27"/>
       <c r="E188" s="27"/>
@@ -14996,8 +15306,9 @@
       <c r="AX188" s="27"/>
       <c r="AY188" s="27"/>
       <c r="AZ188" s="27"/>
-    </row>
-    <row r="189" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA188" s="27"/>
+    </row>
+    <row r="189" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C189" s="27"/>
       <c r="D189" s="27"/>
       <c r="E189" s="27"/>
@@ -15048,8 +15359,9 @@
       <c r="AX189" s="27"/>
       <c r="AY189" s="27"/>
       <c r="AZ189" s="27"/>
-    </row>
-    <row r="190" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA189" s="27"/>
+    </row>
+    <row r="190" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C190" s="27"/>
       <c r="D190" s="27"/>
       <c r="E190" s="27"/>
@@ -15100,8 +15412,9 @@
       <c r="AX190" s="27"/>
       <c r="AY190" s="27"/>
       <c r="AZ190" s="27"/>
-    </row>
-    <row r="191" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA190" s="27"/>
+    </row>
+    <row r="191" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C191" s="27"/>
       <c r="D191" s="27"/>
       <c r="E191" s="27"/>
@@ -15152,8 +15465,9 @@
       <c r="AX191" s="27"/>
       <c r="AY191" s="27"/>
       <c r="AZ191" s="27"/>
-    </row>
-    <row r="192" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA191" s="27"/>
+    </row>
+    <row r="192" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C192" s="27"/>
       <c r="D192" s="27"/>
       <c r="E192" s="27"/>
@@ -15204,8 +15518,9 @@
       <c r="AX192" s="27"/>
       <c r="AY192" s="27"/>
       <c r="AZ192" s="27"/>
-    </row>
-    <row r="193" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA192" s="27"/>
+    </row>
+    <row r="193" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C193" s="27"/>
       <c r="D193" s="27"/>
       <c r="E193" s="27"/>
@@ -15256,8 +15571,9 @@
       <c r="AX193" s="27"/>
       <c r="AY193" s="27"/>
       <c r="AZ193" s="27"/>
-    </row>
-    <row r="194" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA193" s="27"/>
+    </row>
+    <row r="194" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C194" s="27"/>
       <c r="D194" s="27"/>
       <c r="E194" s="27"/>
@@ -15308,8 +15624,9 @@
       <c r="AX194" s="27"/>
       <c r="AY194" s="27"/>
       <c r="AZ194" s="27"/>
-    </row>
-    <row r="195" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA194" s="27"/>
+    </row>
+    <row r="195" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C195" s="27"/>
       <c r="D195" s="27"/>
       <c r="E195" s="27"/>
@@ -15360,8 +15677,9 @@
       <c r="AX195" s="27"/>
       <c r="AY195" s="27"/>
       <c r="AZ195" s="27"/>
-    </row>
-    <row r="196" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA195" s="27"/>
+    </row>
+    <row r="196" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C196" s="27"/>
       <c r="D196" s="27"/>
       <c r="E196" s="27"/>
@@ -15412,8 +15730,9 @@
       <c r="AX196" s="27"/>
       <c r="AY196" s="27"/>
       <c r="AZ196" s="27"/>
-    </row>
-    <row r="197" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA196" s="27"/>
+    </row>
+    <row r="197" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C197" s="27"/>
       <c r="D197" s="27"/>
       <c r="E197" s="27"/>
@@ -15464,8 +15783,9 @@
       <c r="AX197" s="27"/>
       <c r="AY197" s="27"/>
       <c r="AZ197" s="27"/>
-    </row>
-    <row r="198" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA197" s="27"/>
+    </row>
+    <row r="198" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C198" s="27"/>
       <c r="D198" s="27"/>
       <c r="E198" s="27"/>
@@ -15516,8 +15836,9 @@
       <c r="AX198" s="27"/>
       <c r="AY198" s="27"/>
       <c r="AZ198" s="27"/>
-    </row>
-    <row r="199" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA198" s="27"/>
+    </row>
+    <row r="199" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C199" s="27"/>
       <c r="D199" s="27"/>
       <c r="E199" s="27"/>
@@ -15568,8 +15889,9 @@
       <c r="AX199" s="27"/>
       <c r="AY199" s="27"/>
       <c r="AZ199" s="27"/>
-    </row>
-    <row r="200" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA199" s="27"/>
+    </row>
+    <row r="200" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C200" s="27"/>
       <c r="D200" s="27"/>
       <c r="E200" s="27"/>
@@ -15620,8 +15942,9 @@
       <c r="AX200" s="27"/>
       <c r="AY200" s="27"/>
       <c r="AZ200" s="27"/>
-    </row>
-    <row r="201" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA200" s="27"/>
+    </row>
+    <row r="201" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C201" s="27"/>
       <c r="D201" s="27"/>
       <c r="E201" s="27"/>
@@ -15672,8 +15995,9 @@
       <c r="AX201" s="27"/>
       <c r="AY201" s="27"/>
       <c r="AZ201" s="27"/>
-    </row>
-    <row r="202" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA201" s="27"/>
+    </row>
+    <row r="202" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C202" s="27"/>
       <c r="D202" s="27"/>
       <c r="E202" s="27"/>
@@ -15724,8 +16048,9 @@
       <c r="AX202" s="27"/>
       <c r="AY202" s="27"/>
       <c r="AZ202" s="27"/>
-    </row>
-    <row r="203" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA202" s="27"/>
+    </row>
+    <row r="203" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C203" s="27"/>
       <c r="D203" s="27"/>
       <c r="E203" s="27"/>
@@ -15776,8 +16101,9 @@
       <c r="AX203" s="27"/>
       <c r="AY203" s="27"/>
       <c r="AZ203" s="27"/>
-    </row>
-    <row r="204" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA203" s="27"/>
+    </row>
+    <row r="204" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C204" s="27"/>
       <c r="D204" s="27"/>
       <c r="E204" s="27"/>
@@ -15828,8 +16154,9 @@
       <c r="AX204" s="27"/>
       <c r="AY204" s="27"/>
       <c r="AZ204" s="27"/>
-    </row>
-    <row r="205" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA204" s="27"/>
+    </row>
+    <row r="205" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C205" s="27"/>
       <c r="D205" s="27"/>
       <c r="E205" s="27"/>
@@ -15880,8 +16207,9 @@
       <c r="AX205" s="27"/>
       <c r="AY205" s="27"/>
       <c r="AZ205" s="27"/>
-    </row>
-    <row r="206" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA205" s="27"/>
+    </row>
+    <row r="206" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C206" s="27"/>
       <c r="D206" s="27"/>
       <c r="E206" s="27"/>
@@ -15932,8 +16260,9 @@
       <c r="AX206" s="27"/>
       <c r="AY206" s="27"/>
       <c r="AZ206" s="27"/>
-    </row>
-    <row r="207" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA206" s="27"/>
+    </row>
+    <row r="207" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C207" s="27"/>
       <c r="D207" s="27"/>
       <c r="E207" s="27"/>
@@ -15984,8 +16313,9 @@
       <c r="AX207" s="27"/>
       <c r="AY207" s="27"/>
       <c r="AZ207" s="27"/>
-    </row>
-    <row r="208" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA207" s="27"/>
+    </row>
+    <row r="208" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C208" s="27"/>
       <c r="D208" s="27"/>
       <c r="E208" s="27"/>
@@ -16036,8 +16366,9 @@
       <c r="AX208" s="27"/>
       <c r="AY208" s="27"/>
       <c r="AZ208" s="27"/>
-    </row>
-    <row r="209" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA208" s="27"/>
+    </row>
+    <row r="209" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C209" s="27"/>
       <c r="D209" s="27"/>
       <c r="E209" s="27"/>
@@ -16088,8 +16419,9 @@
       <c r="AX209" s="27"/>
       <c r="AY209" s="27"/>
       <c r="AZ209" s="27"/>
-    </row>
-    <row r="210" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA209" s="27"/>
+    </row>
+    <row r="210" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C210" s="27"/>
       <c r="D210" s="27"/>
       <c r="E210" s="27"/>
@@ -16140,8 +16472,9 @@
       <c r="AX210" s="27"/>
       <c r="AY210" s="27"/>
       <c r="AZ210" s="27"/>
-    </row>
-    <row r="211" spans="3:52" x14ac:dyDescent="0.25">
+      <c r="BA210" s="27"/>
+    </row>
+    <row r="211" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C211" s="27"/>
       <c r="D211" s="27"/>
       <c r="E211" s="27"/>
@@ -16192,6 +16525,7 @@
       <c r="AX211" s="27"/>
       <c r="AY211" s="27"/>
       <c r="AZ211" s="27"/>
+      <c r="BA211" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16207,11 +16541,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F936B46D-662B-4E09-95CB-83916B2C2340}">
   <dimension ref="A1:AD430"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16261,6 +16595,10 @@
       <c r="G3">
         <v>357</v>
       </c>
+      <c r="H3">
+        <f>+Model!G3-Quarters!G3</f>
+        <v>383</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -16275,7 +16613,10 @@
       <c r="G4" s="26">
         <v>501</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="26">
+        <f>+Model!G4-Quarters!G4</f>
+        <v>587</v>
+      </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
@@ -16312,7 +16653,10 @@
       <c r="G5" s="26">
         <v>421</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="26">
+        <f>+Model!G5-Quarters!G5</f>
+        <v>394</v>
+      </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -16349,7 +16693,10 @@
       <c r="G6" s="26">
         <v>1971</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="26">
+        <f>+Model!G6-Quarters!G6</f>
+        <v>1603</v>
+      </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
@@ -16386,7 +16733,10 @@
       <c r="G7" s="26">
         <v>695</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="26">
+        <f>+Model!G7-Quarters!G7</f>
+        <v>760</v>
+      </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
@@ -16423,7 +16773,10 @@
       <c r="G8" s="26">
         <v>185</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="26">
+        <f>+Model!G8-Quarters!G8</f>
+        <v>177</v>
+      </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -16460,7 +16813,10 @@
       <c r="G9" s="26">
         <v>1813</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="26">
+        <f>+Model!G9-Quarters!G9</f>
+        <v>1765</v>
+      </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
@@ -16497,7 +16853,10 @@
       <c r="G10" s="26">
         <v>1149</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="26">
+        <f>+Model!G10-Quarters!G10</f>
+        <v>1106</v>
+      </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
@@ -16534,7 +16893,10 @@
       <c r="G11" s="26">
         <v>256</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="26">
+        <f>+Model!G11-Quarters!G11</f>
+        <v>191</v>
+      </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
@@ -16571,7 +16933,10 @@
       <c r="G12" s="26">
         <v>544</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="26">
+        <f>+Model!G12-Quarters!G12</f>
+        <v>512</v>
+      </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -16608,7 +16973,10 @@
       <c r="G13" s="26">
         <v>129</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="26">
+        <f>+Model!G13-Quarters!G13</f>
+        <v>119</v>
+      </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
@@ -16645,7 +17013,10 @@
       <c r="G14" s="26">
         <v>151</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="26">
+        <f>+Model!G14-Quarters!G14</f>
+        <v>130</v>
+      </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
@@ -16682,7 +17053,10 @@
       <c r="G15" s="26">
         <v>87</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="26">
+        <f>+Model!G15-Quarters!G15</f>
+        <v>81</v>
+      </c>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
@@ -16710,29 +17084,32 @@
       <c r="B16" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="84">
         <f t="shared" ref="C16:F16" si="0">+SUM(C9:C15)</f>
         <v>3806</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="84">
         <f>+SUM(G9:G15)</f>
         <v>4129</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="H16" s="84">
+        <f>+Model!G16-Quarters!G16</f>
+        <v>3905</v>
+      </c>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
@@ -16756,11 +17133,11 @@
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
@@ -16794,10 +17171,13 @@
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="7">
-        <f>+G3/C3-1</f>
+        <f t="shared" ref="G18:H31" si="1">+G3/C3-1</f>
         <v>0.14423076923076916</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
@@ -16830,10 +17210,13 @@
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="7">
-        <f>+G4/C4-1</f>
+        <f t="shared" si="1"/>
         <v>0.12837837837837829</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
@@ -16866,10 +17249,13 @@
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="7">
-        <f>+G5/C5-1</f>
+        <f t="shared" si="1"/>
         <v>0.17927170868347342</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
@@ -16902,10 +17288,13 @@
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="7">
-        <f>+G6/C6-1</f>
+        <f t="shared" si="1"/>
         <v>2.6562500000000044E-2</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
@@ -16938,10 +17327,13 @@
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="7">
-        <f>+G7/C7-1</f>
+        <f t="shared" si="1"/>
         <v>0.13192182410423459</v>
       </c>
-      <c r="H22" s="26"/>
+      <c r="H22" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
@@ -16974,10 +17366,13 @@
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="7">
-        <f>+G8/C8-1</f>
+        <f t="shared" si="1"/>
         <v>0.17088607594936711</v>
       </c>
-      <c r="H23" s="26"/>
+      <c r="H23" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
@@ -17010,10 +17405,13 @@
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="7">
-        <f>+G9/C9-1</f>
+        <f t="shared" si="1"/>
         <v>0.11363636363636354</v>
       </c>
-      <c r="H24" s="26"/>
+      <c r="H24" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
@@ -17046,10 +17444,13 @@
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="7">
-        <f>+G10/C10-1</f>
+        <f t="shared" si="1"/>
         <v>8.2940622054665347E-2</v>
       </c>
-      <c r="H25" s="26"/>
+      <c r="H25" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
@@ -17082,10 +17483,13 @@
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="7">
-        <f>+G11/C11-1</f>
+        <f t="shared" si="1"/>
         <v>5.7851239669421517E-2</v>
       </c>
-      <c r="H26" s="26"/>
+      <c r="H26" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
@@ -17118,10 +17522,13 @@
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="7">
-        <f>+G12/C12-1</f>
+        <f t="shared" si="1"/>
         <v>7.7227722772277296E-2</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
@@ -17154,10 +17561,13 @@
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="7">
-        <f>+G13/C13-1</f>
+        <f t="shared" si="1"/>
         <v>-7.692307692307665E-3</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
@@ -17190,10 +17600,13 @@
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
       <c r="G29" s="7">
-        <f>+G14/C14-1</f>
+        <f t="shared" si="1"/>
         <v>-9.0361445783132543E-2</v>
       </c>
-      <c r="H29" s="26"/>
+      <c r="H29" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -17226,10 +17639,13 @@
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
       <c r="G30" s="7">
-        <f>+G15/C15-1</f>
+        <f t="shared" si="1"/>
         <v>0.17567567567567566</v>
       </c>
-      <c r="H30" s="26"/>
+      <c r="H30" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -17261,11 +17677,14 @@
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="91">
-        <f>+G16/C16-1</f>
+      <c r="G31" s="85">
+        <f t="shared" si="1"/>
         <v>8.4866001050972084E-2</v>
       </c>
-      <c r="H31" s="26"/>
+      <c r="H31" s="85" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="26"/>
@@ -29360,31 +29779,31 @@
         <v>259</v>
       </c>
       <c r="C4" s="27">
-        <f>+Model!I33</f>
-        <v>104.233233</v>
-      </c>
-      <c r="D4" s="27">
         <f>+Model!J33</f>
         <v>104.233233</v>
       </c>
+      <c r="D4" s="27">
+        <f>+Model!K33</f>
+        <v>104.233233</v>
+      </c>
       <c r="E4" s="27">
-        <f>+Model!K33</f>
+        <f>+Model!L33</f>
         <v>104.430772</v>
       </c>
       <c r="F4" s="27">
-        <f>+Model!L33</f>
+        <f>+Model!M33</f>
         <v>104.62333</v>
       </c>
       <c r="G4" s="27">
-        <f>+Model!M33</f>
+        <f>+Model!N33</f>
         <v>104.564729</v>
       </c>
       <c r="H4" s="27">
-        <f>+Model!N33</f>
+        <f>+Model!O33</f>
         <v>104.648079</v>
       </c>
       <c r="I4" s="27">
-        <f>+Model!O33</f>
+        <f>+Model!P33</f>
         <v>104.648079</v>
       </c>
       <c r="J4" s="27"/>
@@ -29430,31 +29849,31 @@
         <v>260</v>
       </c>
       <c r="C6" s="27">
-        <f>+Model!I84+Model!I91-Model!I70</f>
+        <f>+Model!J84+Model!J91-Model!J70</f>
         <v>-3429.1</v>
       </c>
       <c r="D6" s="27">
-        <f>+Model!J84+Model!J91-Model!J70</f>
+        <f>+Model!K84+Model!K91-Model!K70</f>
         <v>-4334.0999999999995</v>
       </c>
       <c r="E6" s="27">
-        <f>+Model!K84+Model!K91-Model!K70</f>
+        <f>+Model!L84+Model!L91-Model!L70</f>
         <v>-4690</v>
       </c>
       <c r="F6" s="27">
-        <f>+Model!L84+Model!L91-Model!L70</f>
+        <f>+Model!M84+Model!M91-Model!M70</f>
         <v>-6671</v>
       </c>
       <c r="G6" s="27">
-        <f>+Model!M84+Model!M91-Model!M70</f>
+        <f>+Model!N84+Model!N91-Model!N70</f>
         <v>-9188</v>
       </c>
       <c r="H6" s="27">
-        <f>+Model!N84+Model!N91-Model!N70</f>
+        <f>+Model!O84+Model!O91-Model!O70</f>
         <v>-10574</v>
       </c>
       <c r="I6" s="27">
-        <f>+Model!O84+Model!O91-Model!O70</f>
+        <f>+Model!P84+Model!P91-Model!P70</f>
         <v>-11581</v>
       </c>
       <c r="J6" s="27"/>
@@ -29528,31 +29947,31 @@
         <v>262</v>
       </c>
       <c r="C10" s="27">
-        <f>+Model!I64+Model!I66+Model!I67+Model!I68+Model!I69-Model!I95</f>
+        <f>+Model!J64+Model!J66+Model!J67+Model!J68+Model!J69-Model!J95</f>
         <v>3642.2</v>
       </c>
       <c r="D10" s="27">
-        <f>+Model!J64+Model!J66+Model!J67+Model!J68+Model!J69-Model!J95</f>
+        <f>+Model!K64+Model!K66+Model!K67+Model!K68+Model!K69-Model!K95</f>
         <v>3883.7999999999997</v>
       </c>
       <c r="E10" s="27">
-        <f>+Model!K64+Model!K66+Model!K67+Model!K68+Model!K69-Model!K95</f>
+        <f>+Model!L64+Model!L66+Model!L67+Model!L68+Model!L69-Model!L95</f>
         <v>4579</v>
       </c>
       <c r="F10" s="27">
-        <f>+Model!L64+Model!L66+Model!L67+Model!L68+Model!L69-Model!L95</f>
+        <f>+Model!M64+Model!M66+Model!M67+Model!M68+Model!M69-Model!M95</f>
         <v>5168</v>
       </c>
       <c r="G10" s="27">
-        <f>+Model!M64+Model!M66+Model!M67+Model!M68+Model!M69-Model!M95</f>
+        <f>+Model!N64+Model!N66+Model!N67+Model!N68+Model!N69-Model!N95</f>
         <v>5680</v>
       </c>
       <c r="H10" s="27">
-        <f>+Model!N64+Model!N66+Model!N67+Model!N68+Model!N69-Model!N95</f>
+        <f>+Model!O64+Model!O66+Model!O67+Model!O68+Model!O69-Model!O95</f>
         <v>6529</v>
       </c>
       <c r="I10" s="27">
-        <f>+Model!O64+Model!O66+Model!O67+Model!O68+Model!O69-Model!O95</f>
+        <f>+Model!P64+Model!P66+Model!P67+Model!P68+Model!P69-Model!P95</f>
         <v>7811</v>
       </c>
       <c r="L10" s="64" t="s">
@@ -29564,31 +29983,31 @@
         <v>264</v>
       </c>
       <c r="C11" s="27">
-        <f>+Model!I54+Model!I55+Model!I57+Model!I58+Model!I62+Model!I65+Model!I66+Model!I67+Model!I68+Model!I69-Model!I95</f>
+        <f>+Model!J54+Model!J55+Model!J57+Model!J58+Model!J62+Model!J65+Model!J66+Model!J67+Model!J68+Model!J69-Model!J95</f>
         <v>3171.9</v>
       </c>
       <c r="D11" s="27">
-        <f>+Model!J54+Model!J55+Model!J57+Model!J58+Model!J62+Model!J65+Model!J66+Model!J67+Model!J68+Model!J69-Model!J95</f>
+        <f>+Model!K54+Model!K55+Model!K57+Model!K58+Model!K62+Model!K65+Model!K66+Model!K67+Model!K68+Model!K69-Model!K95</f>
         <v>3556.7999999999997</v>
       </c>
       <c r="E11" s="27">
-        <f>+Model!K54+Model!K55+Model!K57+Model!K58+Model!K62+Model!K65+Model!K66+Model!K67+Model!K68+Model!K69-Model!K95</f>
+        <f>+Model!L54+Model!L55+Model!L57+Model!L58+Model!L62+Model!L65+Model!L66+Model!L67+Model!L68+Model!L69-Model!L95</f>
         <v>3925</v>
       </c>
       <c r="F11" s="27">
-        <f>+Model!L54+Model!L55+Model!L57+Model!L58+Model!L62+Model!L65+Model!L66+Model!L67+Model!L68+Model!L69-Model!L95</f>
+        <f>+Model!M54+Model!M55+Model!M57+Model!M58+Model!M62+Model!M65+Model!M66+Model!M67+Model!M68+Model!M69-Model!M95</f>
         <v>4351</v>
       </c>
       <c r="G11" s="27">
-        <f>+Model!M54+Model!M55+Model!M57+Model!M58+Model!M62+Model!M65+Model!M66+Model!M67+Model!M68+Model!M69-Model!M95</f>
+        <f>+Model!N54+Model!N55+Model!N57+Model!N58+Model!N62+Model!N65+Model!N66+Model!N67+Model!N68+Model!N69-Model!N95</f>
         <v>4610</v>
       </c>
       <c r="H11" s="27">
-        <f>+Model!N54+Model!N55+Model!N57+Model!N58+Model!N62+Model!N65+Model!N66+Model!N67+Model!N68+Model!N69-Model!N95</f>
+        <f>+Model!O54+Model!O55+Model!O57+Model!O58+Model!O62+Model!O65+Model!O66+Model!O67+Model!O68+Model!O69-Model!O95</f>
         <v>5779</v>
       </c>
       <c r="I11" s="27">
-        <f>+Model!O54+Model!O55+Model!O57+Model!O58+Model!O62+Model!O65+Model!O66+Model!O67+Model!O68+Model!O69-Model!O95</f>
+        <f>+Model!P54+Model!P55+Model!P57+Model!P58+Model!P62+Model!P65+Model!P66+Model!P67+Model!P68+Model!P69-Model!P95</f>
         <v>7375</v>
       </c>
       <c r="L11" s="64" t="s">
@@ -29719,31 +30138,31 @@
         <v>282</v>
       </c>
       <c r="C22" s="7">
-        <f>Model!I28/Model!I82</f>
+        <f>Model!J28/Model!J82</f>
         <v>0.25765795386048546</v>
       </c>
       <c r="D22" s="7">
-        <f>Model!J28/Model!J82</f>
+        <f>Model!K28/Model!K82</f>
         <v>0.23347374503870197</v>
       </c>
       <c r="E22" s="7">
-        <f>Model!K28/Model!K82</f>
+        <f>Model!L28/Model!L82</f>
         <v>0.18804112554112554</v>
       </c>
       <c r="F22" s="7">
-        <f>Model!L28/Model!L82</f>
+        <f>Model!M28/Model!M82</f>
         <v>0.26070328269414639</v>
       </c>
       <c r="G22" s="7">
-        <f>Model!M28/Model!M82</f>
+        <f>Model!N28/Model!N82</f>
         <v>0.27133338685076663</v>
       </c>
       <c r="H22" s="7">
-        <f>Model!N28/Model!N82</f>
+        <f>Model!O28/Model!O82</f>
         <v>0.28424860243341005</v>
       </c>
       <c r="I22" s="7">
-        <f>Model!O28/Model!O82</f>
+        <f>Model!P28/Model!P82</f>
         <v>0.26710511134187148</v>
       </c>
       <c r="L22" s="64" t="s">
@@ -29755,31 +30174,31 @@
         <v>122</v>
       </c>
       <c r="C23" s="7">
-        <f>+Model!I23/Ratios!C10</f>
+        <f>+Model!J23/Ratios!C10</f>
         <v>0.58426225907418594</v>
       </c>
       <c r="D23" s="7">
-        <f>+Model!J23/Ratios!D10</f>
+        <f>+Model!K23/Ratios!D10</f>
         <v>0.60221947577115198</v>
       </c>
       <c r="E23" s="7">
-        <f>+Model!K23/Ratios!E10</f>
+        <f>+Model!L23/Ratios!E10</f>
         <v>0.45271893426512338</v>
       </c>
       <c r="F23" s="7">
-        <f>+Model!L23/Ratios!F10</f>
+        <f>+Model!M23/Ratios!F10</f>
         <v>0.68304953560371517</v>
       </c>
       <c r="G23" s="7">
-        <f>+Model!M23/Ratios!G10</f>
+        <f>+Model!N23/Ratios!G10</f>
         <v>0.8269366197183099</v>
       </c>
       <c r="H23" s="7">
-        <f>+Model!N23/Ratios!H10</f>
+        <f>+Model!O23/Ratios!H10</f>
         <v>0.86536988819114724</v>
       </c>
       <c r="I23" s="7">
-        <f>+Model!O23/Ratios!I10</f>
+        <f>+Model!P23/Ratios!I10</f>
         <v>0.78709512226347456</v>
       </c>
       <c r="L23" s="64" t="s">
@@ -29791,31 +30210,31 @@
         <v>123</v>
       </c>
       <c r="C24" s="7">
-        <f>+Model!I23*(1-Model!I52)/Ratios!C11</f>
+        <f>+Model!J23*(1-Model!J52)/Ratios!C11</f>
         <v>0.45262918492509968</v>
       </c>
       <c r="D24" s="7">
-        <f>+Model!J23*(1-Model!J52)/Ratios!D11</f>
+        <f>+Model!K23*(1-Model!K52)/Ratios!D11</f>
         <v>0.44006061080071135</v>
       </c>
       <c r="E24" s="7">
-        <f>+Model!K23*(1-Model!K52)/Ratios!E11</f>
+        <f>+Model!L23*(1-Model!L52)/Ratios!E11</f>
         <v>0.36521491606268774</v>
       </c>
       <c r="F24" s="7">
-        <f>+Model!L23*(1-Model!L52)/Ratios!F11</f>
+        <f>+Model!M23*(1-Model!M52)/Ratios!F11</f>
         <v>0.57150653348623348</v>
       </c>
       <c r="G24" s="7">
-        <f>+Model!M23*(1-Model!M52)/Ratios!G11</f>
+        <f>+Model!N23*(1-Model!N52)/Ratios!G11</f>
         <v>0.7320051386812122</v>
       </c>
       <c r="H24" s="7">
-        <f>+Model!N23*(1-Model!N52)/Ratios!H11</f>
+        <f>+Model!O23*(1-Model!O52)/Ratios!H11</f>
         <v>0.70597042432804658</v>
       </c>
       <c r="I24" s="7">
-        <f>+Model!O23*(1-Model!O52)/Ratios!I11</f>
+        <f>+Model!P23*(1-Model!P52)/Ratios!I11</f>
         <v>0.59446648516586764</v>
       </c>
       <c r="L24" s="64" t="s">
@@ -29843,31 +30262,31 @@
         <v>341</v>
       </c>
       <c r="C27" s="7">
-        <f>+Model!I21/Model!I72</f>
+        <f>+Model!J21/Model!J72</f>
         <v>0.24267121926121679</v>
       </c>
       <c r="D27" s="7">
-        <f>+Model!J21/Model!J72</f>
+        <f>+Model!K21/Model!K72</f>
         <v>0.23669669061835849</v>
       </c>
       <c r="E27" s="7">
-        <f>+Model!K21/Model!K72</f>
+        <f>+Model!L21/Model!L72</f>
         <v>0.17929224364195856</v>
       </c>
       <c r="F27" s="7">
-        <f>+Model!L21/Model!L72</f>
+        <f>+Model!M21/Model!M72</f>
         <v>0.25491045638359328</v>
       </c>
       <c r="G27" s="7">
-        <f>+Model!M21/Model!M72</f>
+        <f>+Model!N21/Model!N72</f>
         <v>0.26899948456560335</v>
       </c>
       <c r="H27" s="7">
-        <f>+Model!N21/Model!N72</f>
+        <f>+Model!O21/Model!O72</f>
         <v>0.27631064162754304</v>
       </c>
       <c r="I27" s="7">
-        <f>+Model!O21/Model!O72</f>
+        <f>+Model!P21/Model!P72</f>
         <v>0.26635473529156917</v>
       </c>
       <c r="L27" s="64"/>
@@ -30265,7 +30684,7 @@
       </c>
       <c r="E3" s="34">
         <f>+Main!K2</f>
-        <v>2344</v>
+        <v>2078</v>
       </c>
       <c r="G3" t="s">
         <v>160</v>
@@ -30285,7 +30704,7 @@
       </c>
       <c r="E4" s="35">
         <f ca="1">+TODAY()</f>
-        <v>45764</v>
+        <v>45870</v>
       </c>
       <c r="G4" t="s">
         <v>162</v>
@@ -30653,27 +31072,27 @@
         <v>175</v>
       </c>
       <c r="G25" s="27">
-        <f>+Model!J16</f>
+        <f>+Model!K16</f>
         <v>6883.4</v>
       </c>
       <c r="H25" s="27">
-        <f>+Model!K16</f>
+        <f>+Model!L16</f>
         <v>6389</v>
       </c>
       <c r="I25" s="27">
-        <f>+Model!L16</f>
+        <f>+Model!M16</f>
         <v>8982</v>
       </c>
       <c r="J25" s="27">
-        <f>+Model!M16</f>
+        <f>+Model!N16</f>
         <v>11602</v>
       </c>
       <c r="K25" s="27">
-        <f>+Model!N16</f>
+        <f>+Model!O16</f>
         <v>13427</v>
       </c>
       <c r="L25" s="27">
-        <f>+Model!O16</f>
+        <f>+Model!P16</f>
         <v>15170</v>
       </c>
       <c r="M25" s="27">
@@ -30849,27 +31268,27 @@
         <v>176</v>
       </c>
       <c r="G31" s="27">
-        <f>+Model!J23</f>
+        <f>+Model!K23</f>
         <v>2338.9</v>
       </c>
       <c r="H31" s="27">
-        <f>+Model!K23</f>
+        <f>+Model!L23</f>
         <v>2073</v>
       </c>
       <c r="I31" s="27">
-        <f>+Model!L23</f>
+        <f>+Model!M23</f>
         <v>3530</v>
       </c>
       <c r="J31" s="27">
-        <f>+Model!M23</f>
+        <f>+Model!N23</f>
         <v>4697</v>
       </c>
       <c r="K31" s="27">
-        <f>+Model!N23</f>
+        <f>+Model!O23</f>
         <v>5650</v>
       </c>
       <c r="L31" s="27">
-        <f>+Model!O23</f>
+        <f>+Model!P23</f>
         <v>6148</v>
       </c>
       <c r="M31" s="27">
@@ -31032,27 +31451,27 @@
         <v>190</v>
       </c>
       <c r="G37" s="27">
-        <f>+Model!J26</f>
+        <f>+Model!K26</f>
         <v>751</v>
       </c>
       <c r="H37" s="27">
-        <f>+Model!K26</f>
+        <f>+Model!L26</f>
         <v>613</v>
       </c>
       <c r="I37" s="27">
-        <f>+Model!L26</f>
+        <f>+Model!M26</f>
         <v>1015</v>
       </c>
       <c r="J37" s="27">
-        <f>+Model!M26</f>
+        <f>+Model!N26</f>
         <v>1305</v>
       </c>
       <c r="K37" s="27">
-        <f>+Model!N26</f>
+        <f>+Model!O26</f>
         <v>1623</v>
       </c>
       <c r="L37" s="27">
-        <f>+Model!O26</f>
+        <f>+Model!P26</f>
         <v>1845</v>
       </c>
       <c r="M37" s="27">
@@ -31216,27 +31635,27 @@
         <v>193</v>
       </c>
       <c r="G42" s="27">
-        <f>+Model!J104</f>
+        <f>+Model!K104</f>
         <v>447.7</v>
       </c>
       <c r="H42" s="27">
-        <f>+Model!K104</f>
+        <f>+Model!L104</f>
         <v>514</v>
       </c>
       <c r="I42" s="27">
-        <f>+Model!L104</f>
+        <f>+Model!M104</f>
         <v>563</v>
       </c>
       <c r="J42" s="27">
-        <f>+Model!M104</f>
+        <f>+Model!N104</f>
         <v>730</v>
       </c>
       <c r="K42" s="27">
-        <f>+Model!N104</f>
+        <f>+Model!O104</f>
         <v>772</v>
       </c>
       <c r="L42" s="27">
-        <f>+Model!O104</f>
+        <f>+Model!P104</f>
         <v>844</v>
       </c>
       <c r="M42" s="27">
@@ -31328,27 +31747,27 @@
         <v>101</v>
       </c>
       <c r="G45" s="27">
-        <f>+Model!J116</f>
+        <f>+Model!K116</f>
         <v>-478</v>
       </c>
       <c r="H45" s="27">
-        <f>+Model!K116</f>
+        <f>+Model!L116</f>
         <v>-448</v>
       </c>
       <c r="I45" s="27">
-        <f>+Model!L116</f>
+        <f>+Model!M116</f>
         <v>-532</v>
       </c>
       <c r="J45" s="27">
-        <f>+Model!M116</f>
+        <f>+Model!N116</f>
         <v>-518</v>
       </c>
       <c r="K45" s="27">
-        <f>+Model!N116</f>
+        <f>+Model!O116</f>
         <v>-859</v>
       </c>
       <c r="L45" s="27">
-        <f>+Model!O116</f>
+        <f>+Model!P116</f>
         <v>-1067</v>
       </c>
       <c r="M45" s="27">
@@ -31436,27 +31855,27 @@
         <v>99</v>
       </c>
       <c r="G48" s="27">
-        <f>+Model!J114</f>
+        <f>+Model!K114</f>
         <v>23.9</v>
       </c>
       <c r="H48" s="27">
-        <f>+Model!K114</f>
+        <f>+Model!L114</f>
         <v>-350</v>
       </c>
       <c r="I48" s="27">
-        <f>+Model!L114</f>
+        <f>+Model!M114</f>
         <v>346</v>
       </c>
       <c r="J48" s="27">
-        <f>+Model!M114</f>
+        <f>+Model!N114</f>
         <v>73</v>
       </c>
       <c r="K48" s="27">
-        <f>+Model!N114</f>
+        <f>+Model!O114</f>
         <v>-794</v>
       </c>
       <c r="L48" s="27">
-        <f>+Model!O114</f>
+        <f>+Model!P114</f>
         <v>-239</v>
       </c>
       <c r="M48" s="27">
@@ -31673,43 +32092,43 @@
       </c>
       <c r="M53" s="10">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.7055555555555556</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="N53" s="10">
         <f ca="1">M53+1</f>
-        <v>1.7055555555555557</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="O53" s="10">
         <f ca="1">N53+1</f>
-        <v>2.7055555555555557</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="P53" s="10">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.7055555555555557</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="Q53" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>4.7055555555555557</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="R53" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>5.7055555555555557</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="S53" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>6.7055555555555557</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="T53" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>7.7055555555555557</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="U53" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>8.7055555555555557</v>
+        <v>8.4166666666666679</v>
       </c>
       <c r="V53" s="10">
         <f t="shared" ca="1" si="16"/>
-        <v>9.7055555555555557</v>
+        <v>9.4166666666666679</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -31909,30 +32328,30 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B68" s="70"/>
-      <c r="C68" s="84" t="s">
+      <c r="C68" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
-      <c r="J68" s="85"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="87"/>
       <c r="M68" s="70"/>
-      <c r="N68" s="86" t="s">
+      <c r="N68" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="O68" s="86"/>
-      <c r="P68" s="86"/>
-      <c r="Q68" s="86"/>
-      <c r="R68" s="86"/>
-      <c r="S68" s="86"/>
-      <c r="T68" s="86"/>
-      <c r="U68" s="87"/>
+      <c r="O68" s="88"/>
+      <c r="P68" s="88"/>
+      <c r="Q68" s="88"/>
+      <c r="R68" s="88"/>
+      <c r="S68" s="88"/>
+      <c r="T68" s="88"/>
+      <c r="U68" s="89"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B69" s="88" t="s">
+      <c r="B69" s="90" t="s">
         <v>177</v>
       </c>
       <c r="C69" s="71" t="e">
@@ -31946,7 +32365,7 @@
       <c r="H69" s="72"/>
       <c r="I69" s="72"/>
       <c r="J69" s="72"/>
-      <c r="M69" s="88" t="s">
+      <c r="M69" s="90" t="s">
         <v>177</v>
       </c>
       <c r="N69" s="71" t="e">
@@ -31962,7 +32381,7 @@
       <c r="U69" s="72"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="88"/>
+      <c r="B70" s="90"/>
       <c r="C70" s="73"/>
       <c r="D70" s="74"/>
       <c r="E70" s="74"/>
@@ -31971,7 +32390,7 @@
       <c r="H70" s="74"/>
       <c r="I70" s="74"/>
       <c r="J70" s="74"/>
-      <c r="M70" s="88"/>
+      <c r="M70" s="90"/>
       <c r="N70" s="73"/>
       <c r="O70" s="74"/>
       <c r="P70" s="74"/>
@@ -31982,7 +32401,7 @@
       <c r="U70" s="74"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="88"/>
+      <c r="B71" s="90"/>
       <c r="C71" s="73"/>
       <c r="D71" s="74"/>
       <c r="E71" s="74"/>
@@ -31991,7 +32410,7 @@
       <c r="H71" s="74"/>
       <c r="I71" s="74"/>
       <c r="J71" s="74"/>
-      <c r="M71" s="88"/>
+      <c r="M71" s="90"/>
       <c r="N71" s="73"/>
       <c r="O71" s="74"/>
       <c r="P71" s="74"/>
@@ -32002,7 +32421,7 @@
       <c r="U71" s="74"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="88"/>
+      <c r="B72" s="90"/>
       <c r="C72" s="73"/>
       <c r="D72" s="75"/>
       <c r="E72" s="75"/>
@@ -32011,7 +32430,7 @@
       <c r="H72" s="75"/>
       <c r="I72" s="75"/>
       <c r="J72" s="75"/>
-      <c r="M72" s="88"/>
+      <c r="M72" s="90"/>
       <c r="N72" s="73"/>
       <c r="O72" s="75"/>
       <c r="P72" s="75"/>
@@ -32022,7 +32441,7 @@
       <c r="U72" s="75"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="88"/>
+      <c r="B73" s="90"/>
       <c r="C73" s="73"/>
       <c r="D73" s="74"/>
       <c r="E73" s="74"/>
@@ -32031,7 +32450,7 @@
       <c r="H73" s="74"/>
       <c r="I73" s="74"/>
       <c r="J73" s="74"/>
-      <c r="M73" s="88"/>
+      <c r="M73" s="90"/>
       <c r="N73" s="73"/>
       <c r="O73" s="74"/>
       <c r="P73" s="74"/>
@@ -32042,7 +32461,7 @@
       <c r="U73" s="74"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="88"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="73"/>
       <c r="D74" s="74"/>
       <c r="E74" s="74"/>
@@ -32051,7 +32470,7 @@
       <c r="H74" s="74"/>
       <c r="I74" s="74"/>
       <c r="J74" s="74"/>
-      <c r="M74" s="88"/>
+      <c r="M74" s="90"/>
       <c r="N74" s="73"/>
       <c r="O74" s="74"/>
       <c r="P74" s="74"/>
@@ -32062,7 +32481,7 @@
       <c r="U74" s="74"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="88"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="73"/>
       <c r="D75" s="74"/>
       <c r="E75" s="74"/>
@@ -32071,7 +32490,7 @@
       <c r="H75" s="74"/>
       <c r="I75" s="74"/>
       <c r="J75" s="74"/>
-      <c r="M75" s="88"/>
+      <c r="M75" s="90"/>
       <c r="N75" s="73"/>
       <c r="O75" s="74"/>
       <c r="P75" s="74"/>
@@ -32082,7 +32501,7 @@
       <c r="U75" s="74"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B76" s="89"/>
+      <c r="B76" s="91"/>
       <c r="C76" s="73"/>
       <c r="D76" s="74"/>
       <c r="E76" s="74"/>
@@ -32091,7 +32510,7 @@
       <c r="H76" s="74"/>
       <c r="I76" s="74"/>
       <c r="J76" s="74"/>
-      <c r="M76" s="89"/>
+      <c r="M76" s="91"/>
       <c r="N76" s="73"/>
       <c r="O76" s="74"/>
       <c r="P76" s="74"/>

--- a/RMS.xlsx
+++ b/RMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B4E8D2-7561-420F-AF53-CDF2888D4076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E6B6F-D488-4272-BDBF-AE14DF02B976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{741B4546-CE17-46BE-B44E-AD9A2227116F}"/>
   </bookViews>
@@ -1748,6 +1748,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1763,11 +1768,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2355,7 +2355,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="3">
-        <v>2078</v>
+        <v>2020</v>
       </c>
       <c r="L2" s="4"/>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="K4" s="7">
         <f>K2*K3</f>
-        <v>217849.56333799998</v>
+        <v>211769.06542</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="K7" s="7">
         <f>K4-K5+K6</f>
-        <v>207560.56333799998</v>
+        <v>201480.06542</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -2760,7 +2760,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30696,7 +30696,7 @@
       </c>
       <c r="E3" s="43">
         <f>+Main!K2</f>
-        <v>2078</v>
+        <v>2020</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>160</v>
@@ -30716,7 +30716,7 @@
       </c>
       <c r="E4" s="44">
         <f ca="1">+TODAY()</f>
-        <v>45902</v>
+        <v>45905</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>162</v>
@@ -32104,43 +32104,43 @@
       </c>
       <c r="M53" s="37">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.33055555555555555</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="N53" s="37">
         <f ca="1">M53+1</f>
-        <v>1.3305555555555555</v>
+        <v>1.3222222222222222</v>
       </c>
       <c r="O53" s="37">
         <f ca="1">N53+1</f>
-        <v>2.3305555555555557</v>
+        <v>2.322222222222222</v>
       </c>
       <c r="P53" s="37">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.3305555555555557</v>
+        <v>3.322222222222222</v>
       </c>
       <c r="Q53" s="37">
         <f t="shared" ca="1" si="16"/>
-        <v>4.3305555555555557</v>
+        <v>4.322222222222222</v>
       </c>
       <c r="R53" s="37">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3305555555555557</v>
+        <v>5.322222222222222</v>
       </c>
       <c r="S53" s="37">
         <f t="shared" ca="1" si="16"/>
-        <v>6.3305555555555557</v>
+        <v>6.322222222222222</v>
       </c>
       <c r="T53" s="37">
         <f t="shared" ca="1" si="16"/>
-        <v>7.3305555555555557</v>
+        <v>7.322222222222222</v>
       </c>
       <c r="U53" s="37">
         <f t="shared" ca="1" si="16"/>
-        <v>8.3305555555555557</v>
+        <v>8.3222222222222229</v>
       </c>
       <c r="V53" s="37">
         <f t="shared" ca="1" si="16"/>
-        <v>9.3305555555555557</v>
+        <v>9.3222222222222229</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -32340,197 +32340,197 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B68" s="81"/>
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="83"/>
+      <c r="D68" s="87"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="87"/>
+      <c r="I68" s="87"/>
+      <c r="J68" s="88"/>
       <c r="M68" s="81"/>
-      <c r="N68" s="84" t="s">
+      <c r="N68" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="84"/>
-      <c r="S68" s="84"/>
-      <c r="T68" s="84"/>
-      <c r="U68" s="85"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="89"/>
+      <c r="Q68" s="89"/>
+      <c r="R68" s="89"/>
+      <c r="S68" s="89"/>
+      <c r="T68" s="89"/>
+      <c r="U68" s="90"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="86" t="s">
+      <c r="B69" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="87" t="e">
+      <c r="C69" s="82" t="e">
         <f ca="1">+J4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="M69" s="86" t="s">
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="M69" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="N69" s="87" t="e">
+      <c r="N69" s="82" t="e">
         <f ca="1">+J4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O69" s="88"/>
-      <c r="P69" s="88"/>
-      <c r="Q69" s="88"/>
-      <c r="R69" s="88"/>
-      <c r="S69" s="88"/>
-      <c r="T69" s="88"/>
-      <c r="U69" s="88"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="83"/>
+      <c r="Q69" s="83"/>
+      <c r="R69" s="83"/>
+      <c r="S69" s="83"/>
+      <c r="T69" s="83"/>
+      <c r="U69" s="83"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="86"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="90"/>
-      <c r="F70" s="90"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="90"/>
-      <c r="I70" s="90"/>
-      <c r="J70" s="90"/>
-      <c r="M70" s="86"/>
-      <c r="N70" s="89"/>
-      <c r="O70" s="90"/>
-      <c r="P70" s="90"/>
-      <c r="Q70" s="90"/>
-      <c r="R70" s="91"/>
-      <c r="S70" s="90"/>
-      <c r="T70" s="90"/>
-      <c r="U70" s="90"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="85"/>
+      <c r="M70" s="91"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="85"/>
+      <c r="P70" s="85"/>
+      <c r="Q70" s="85"/>
+      <c r="R70" s="86"/>
+      <c r="S70" s="85"/>
+      <c r="T70" s="85"/>
+      <c r="U70" s="85"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="86"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="90"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="90"/>
-      <c r="I71" s="90"/>
-      <c r="J71" s="90"/>
-      <c r="M71" s="86"/>
-      <c r="N71" s="89"/>
-      <c r="O71" s="90"/>
-      <c r="P71" s="90"/>
-      <c r="Q71" s="90"/>
-      <c r="R71" s="91"/>
-      <c r="S71" s="90"/>
-      <c r="T71" s="90"/>
-      <c r="U71" s="90"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="M71" s="91"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="85"/>
+      <c r="P71" s="85"/>
+      <c r="Q71" s="85"/>
+      <c r="R71" s="86"/>
+      <c r="S71" s="85"/>
+      <c r="T71" s="85"/>
+      <c r="U71" s="85"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="86"/>
-      <c r="C72" s="89"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="91"/>
-      <c r="J72" s="91"/>
-      <c r="M72" s="86"/>
-      <c r="N72" s="89"/>
-      <c r="O72" s="91"/>
-      <c r="P72" s="91"/>
-      <c r="Q72" s="91"/>
-      <c r="R72" s="91"/>
-      <c r="S72" s="91"/>
-      <c r="T72" s="91"/>
-      <c r="U72" s="91"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="86"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="86"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="86"/>
+      <c r="P72" s="86"/>
+      <c r="Q72" s="86"/>
+      <c r="R72" s="86"/>
+      <c r="S72" s="86"/>
+      <c r="T72" s="86"/>
+      <c r="U72" s="86"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="86"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="90"/>
-      <c r="I73" s="90"/>
-      <c r="J73" s="90"/>
-      <c r="M73" s="86"/>
-      <c r="N73" s="89"/>
-      <c r="O73" s="90"/>
-      <c r="P73" s="90"/>
-      <c r="Q73" s="90"/>
-      <c r="R73" s="91"/>
-      <c r="S73" s="90"/>
-      <c r="T73" s="90"/>
-      <c r="U73" s="90"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="85"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="85"/>
+      <c r="P73" s="85"/>
+      <c r="Q73" s="85"/>
+      <c r="R73" s="86"/>
+      <c r="S73" s="85"/>
+      <c r="T73" s="85"/>
+      <c r="U73" s="85"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="86"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="90"/>
-      <c r="M74" s="86"/>
-      <c r="N74" s="89"/>
-      <c r="O74" s="90"/>
-      <c r="P74" s="90"/>
-      <c r="Q74" s="90"/>
-      <c r="R74" s="91"/>
-      <c r="S74" s="90"/>
-      <c r="T74" s="90"/>
-      <c r="U74" s="90"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
+      <c r="M74" s="91"/>
+      <c r="N74" s="84"/>
+      <c r="O74" s="85"/>
+      <c r="P74" s="85"/>
+      <c r="Q74" s="85"/>
+      <c r="R74" s="86"/>
+      <c r="S74" s="85"/>
+      <c r="T74" s="85"/>
+      <c r="U74" s="85"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="86"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="90"/>
-      <c r="J75" s="90"/>
-      <c r="M75" s="86"/>
-      <c r="N75" s="89"/>
-      <c r="O75" s="90"/>
-      <c r="P75" s="90"/>
-      <c r="Q75" s="90"/>
-      <c r="R75" s="91"/>
-      <c r="S75" s="90"/>
-      <c r="T75" s="90"/>
-      <c r="U75" s="90"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="85"/>
+      <c r="J75" s="85"/>
+      <c r="M75" s="91"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="85"/>
+      <c r="P75" s="85"/>
+      <c r="Q75" s="85"/>
+      <c r="R75" s="86"/>
+      <c r="S75" s="85"/>
+      <c r="T75" s="85"/>
+      <c r="U75" s="85"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B76" s="92"/>
-      <c r="C76" s="89"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="90"/>
-      <c r="I76" s="90"/>
-      <c r="J76" s="90"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="85"/>
+      <c r="I76" s="85"/>
+      <c r="J76" s="85"/>
       <c r="M76" s="92"/>
-      <c r="N76" s="89"/>
-      <c r="O76" s="90"/>
-      <c r="P76" s="90"/>
-      <c r="Q76" s="90"/>
-      <c r="R76" s="91"/>
-      <c r="S76" s="90"/>
-      <c r="T76" s="90"/>
-      <c r="U76" s="90"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="85"/>
+      <c r="P76" s="85"/>
+      <c r="Q76" s="85"/>
+      <c r="R76" s="86"/>
+      <c r="S76" s="85"/>
+      <c r="T76" s="85"/>
+      <c r="U76" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="4">
